--- a/excel/heroes.xlsx
+++ b/excel/heroes.xlsx
@@ -5,30 +5,35 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\projects\heroes charge\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\projects\heroes charge\HeroChargeTool\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12375" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12375" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="All" sheetId="11" r:id="rId1"/>
     <sheet name="Statuses" sheetId="10" r:id="rId2"/>
-    <sheet name="Psychopath" sheetId="17" r:id="rId3"/>
-    <sheet name="Frost Mage" sheetId="16" r:id="rId4"/>
-    <sheet name="Mountain" sheetId="15" r:id="rId5"/>
-    <sheet name="Silencer" sheetId="14" r:id="rId6"/>
-    <sheet name="Ferryman" sheetId="13" r:id="rId7"/>
-    <sheet name="Admiral" sheetId="5" r:id="rId8"/>
-    <sheet name="Chaplain" sheetId="9" r:id="rId9"/>
-    <sheet name="Necromancer" sheetId="12" r:id="rId10"/>
-    <sheet name="Emberstar" sheetId="7" r:id="rId11"/>
-    <sheet name="Lightning Master" sheetId="8" r:id="rId12"/>
-    <sheet name="Depths Voice" sheetId="1" r:id="rId13"/>
-    <sheet name="Leaves Shadows" sheetId="6" r:id="rId14"/>
-    <sheet name="Rifleman" sheetId="2" r:id="rId15"/>
-    <sheet name="Lightning Elemental" sheetId="3" r:id="rId16"/>
-    <sheet name="Common" sheetId="4" r:id="rId17"/>
+    <sheet name="Sniper" sheetId="22" r:id="rId3"/>
+    <sheet name="Psychic Sword" sheetId="21" r:id="rId4"/>
+    <sheet name="Mystic" sheetId="20" r:id="rId5"/>
+    <sheet name="Bear Warrior" sheetId="19" r:id="rId6"/>
+    <sheet name="Professional Killer" sheetId="18" r:id="rId7"/>
+    <sheet name="Psychopath" sheetId="17" r:id="rId8"/>
+    <sheet name="Frost Mage" sheetId="16" r:id="rId9"/>
+    <sheet name="Mountain" sheetId="15" r:id="rId10"/>
+    <sheet name="Silencer" sheetId="14" r:id="rId11"/>
+    <sheet name="Ferryman" sheetId="13" r:id="rId12"/>
+    <sheet name="Admiral" sheetId="5" r:id="rId13"/>
+    <sheet name="Chaplain" sheetId="9" r:id="rId14"/>
+    <sheet name="Necromancer" sheetId="12" r:id="rId15"/>
+    <sheet name="Emberstar" sheetId="7" r:id="rId16"/>
+    <sheet name="Lightning Master" sheetId="8" r:id="rId17"/>
+    <sheet name="Depths Voice" sheetId="1" r:id="rId18"/>
+    <sheet name="Leaves Shadows" sheetId="6" r:id="rId19"/>
+    <sheet name="Rifleman" sheetId="2" r:id="rId20"/>
+    <sheet name="Lightning Elemental" sheetId="3" r:id="rId21"/>
+    <sheet name="Common" sheetId="4" r:id="rId22"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -40,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1194" uniqueCount="288">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1257" uniqueCount="316">
   <si>
     <t>Type</t>
   </si>
@@ -904,6 +909,90 @@
   </si>
   <si>
     <t>Cooper Cudgel</t>
+  </si>
+  <si>
+    <t>Shades</t>
+  </si>
+  <si>
+    <t>Mastery of Death</t>
+  </si>
+  <si>
+    <t>Haunting of Dark Lord</t>
+  </si>
+  <si>
+    <t>Professional Killer</t>
+  </si>
+  <si>
+    <t>Bear Warrior</t>
+  </si>
+  <si>
+    <t>Mystic</t>
+  </si>
+  <si>
+    <t>Psychic Sword</t>
+  </si>
+  <si>
+    <t>Sniper</t>
+  </si>
+  <si>
+    <t>Dark Contract</t>
+  </si>
+  <si>
+    <t>Blast Shot</t>
+  </si>
+  <si>
+    <t>Poison Shot</t>
+  </si>
+  <si>
+    <t>Embrace of Shadows</t>
+  </si>
+  <si>
+    <t>Torc os Sight</t>
+  </si>
+  <si>
+    <t>Maigc Wand</t>
+  </si>
+  <si>
+    <t>Mask of Madness</t>
+  </si>
+  <si>
+    <t>Copper Cudgel</t>
+  </si>
+  <si>
+    <t>Yew Bol Thrower</t>
+  </si>
+  <si>
+    <t>Stone of Boaz</t>
+  </si>
+  <si>
+    <t>Raven's Beak</t>
+  </si>
+  <si>
+    <t>Restore 60 HP increase 6 attack damage</t>
+  </si>
+  <si>
+    <t>Total HP restore</t>
+  </si>
+  <si>
+    <t>Total damage encrise</t>
+  </si>
+  <si>
+    <t>Bonus phy damage 14 per lvl</t>
+  </si>
+  <si>
+    <t>Total phy damage</t>
+  </si>
+  <si>
+    <t>Temp. increase attack speed by 1% per lvl</t>
+  </si>
+  <si>
+    <t>Total attack inc.</t>
+  </si>
+  <si>
+    <t>Passsive: inc. crit. Strike by 2 per lvl</t>
+  </si>
+  <si>
+    <t>Total crit.</t>
   </si>
 </sst>
 </file>
@@ -1603,6 +1692,2737 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:S24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J16" sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10" customWidth="1"/>
+    <col min="2" max="2" width="9" customWidth="1"/>
+    <col min="3" max="3" width="11.28515625" customWidth="1"/>
+    <col min="4" max="4" width="8.28515625" customWidth="1"/>
+    <col min="5" max="5" width="9.42578125" customWidth="1"/>
+    <col min="6" max="6" width="10.140625" customWidth="1"/>
+    <col min="7" max="7" width="11.5703125" customWidth="1"/>
+    <col min="8" max="8" width="6.85546875" customWidth="1"/>
+    <col min="9" max="9" width="9" customWidth="1"/>
+    <col min="10" max="10" width="10" customWidth="1"/>
+    <col min="12" max="12" width="8.140625" customWidth="1"/>
+    <col min="13" max="13" width="17.7109375" customWidth="1"/>
+    <col min="14" max="14" width="19.140625" customWidth="1"/>
+    <col min="15" max="15" width="16.7109375" customWidth="1"/>
+    <col min="16" max="16" width="12.28515625" customWidth="1"/>
+    <col min="17" max="17" width="13.5703125" customWidth="1"/>
+    <col min="18" max="18" width="16" customWidth="1"/>
+    <col min="19" max="19" width="17.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M3" s="9" t="s">
+        <v>271</v>
+      </c>
+      <c r="N3" s="12" t="s">
+        <v>260</v>
+      </c>
+      <c r="O3" s="12">
+        <f>12*B9</f>
+        <v>192</v>
+      </c>
+      <c r="P3" s="12" t="s">
+        <v>275</v>
+      </c>
+      <c r="Q3" s="12"/>
+      <c r="S3" s="12"/>
+    </row>
+    <row r="4" spans="1:19" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="C4" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="M4" s="8" t="s">
+        <v>272</v>
+      </c>
+      <c r="N4" s="12" t="s">
+        <v>276</v>
+      </c>
+      <c r="O4" s="12">
+        <f>B9*9</f>
+        <v>144</v>
+      </c>
+      <c r="P4" s="12" t="s">
+        <v>277</v>
+      </c>
+      <c r="Q4" s="12"/>
+      <c r="R4" s="12"/>
+      <c r="S4" s="12"/>
+    </row>
+    <row r="5" spans="1:19" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="20">
+        <v>1.65</v>
+      </c>
+      <c r="C5" s="20">
+        <f>B5*2</f>
+        <v>3.3</v>
+      </c>
+      <c r="D5" s="20">
+        <f>B5*3</f>
+        <v>4.9499999999999993</v>
+      </c>
+      <c r="E5" s="20">
+        <f>B5*4</f>
+        <v>6.6</v>
+      </c>
+      <c r="F5" s="20">
+        <f>B5*5</f>
+        <v>8.25</v>
+      </c>
+      <c r="G5" s="20">
+        <f>B5*6</f>
+        <v>9.8999999999999986</v>
+      </c>
+      <c r="M5" s="22" t="s">
+        <v>273</v>
+      </c>
+      <c r="N5" s="12" t="s">
+        <v>279</v>
+      </c>
+      <c r="O5" s="12">
+        <f>B9*3.6</f>
+        <v>57.6</v>
+      </c>
+      <c r="P5" s="12" t="s">
+        <v>278</v>
+      </c>
+      <c r="Q5" s="12"/>
+      <c r="R5" s="12"/>
+      <c r="S5" s="12"/>
+    </row>
+    <row r="6" spans="1:19" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="20">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="C6" s="20">
+        <f t="shared" ref="C6:C7" si="0">B6*2</f>
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="D6" s="20">
+        <f t="shared" ref="D6:D7" si="1">B6*3</f>
+        <v>3.3000000000000003</v>
+      </c>
+      <c r="E6" s="20">
+        <f t="shared" ref="E6:E7" si="2">B6*4</f>
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="F6" s="20">
+        <f t="shared" ref="F6:F7" si="3">B6*5</f>
+        <v>5.5</v>
+      </c>
+      <c r="G6" s="20">
+        <f t="shared" ref="G6:G7" si="4">B6*6</f>
+        <v>6.6000000000000005</v>
+      </c>
+      <c r="M6" s="21" t="s">
+        <v>274</v>
+      </c>
+      <c r="N6" s="12" t="s">
+        <v>281</v>
+      </c>
+      <c r="O6" s="12">
+        <f>B9*3</f>
+        <v>48</v>
+      </c>
+      <c r="P6" s="12" t="s">
+        <v>280</v>
+      </c>
+      <c r="Q6" s="12"/>
+      <c r="R6" s="12"/>
+      <c r="S6" s="12"/>
+    </row>
+    <row r="7" spans="1:19" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="20">
+        <v>0.45</v>
+      </c>
+      <c r="C7" s="20">
+        <f t="shared" si="0"/>
+        <v>0.9</v>
+      </c>
+      <c r="D7" s="20">
+        <f t="shared" si="1"/>
+        <v>1.35</v>
+      </c>
+      <c r="E7" s="20">
+        <f t="shared" si="2"/>
+        <v>1.8</v>
+      </c>
+      <c r="F7" s="20">
+        <f t="shared" si="3"/>
+        <v>2.25</v>
+      </c>
+      <c r="G7" s="20">
+        <f t="shared" si="4"/>
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>36</v>
+      </c>
+      <c r="B9">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>37</v>
+      </c>
+      <c r="B10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M11" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="N11" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="O11" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="P11" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q11" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="R11" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="S11" s="13" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="D12" s="13">
+        <v>1</v>
+      </c>
+      <c r="E12" s="13">
+        <v>10</v>
+      </c>
+      <c r="F12" s="13">
+        <v>16</v>
+      </c>
+      <c r="M12" t="s">
+        <v>240</v>
+      </c>
+      <c r="N12" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="O12" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="P12" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q12" s="12" t="s">
+        <v>250</v>
+      </c>
+      <c r="R12" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="S12" s="12" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" s="12">
+        <v>21</v>
+      </c>
+      <c r="C13" s="12">
+        <f>B13+$B$9*($B$10+1)*B5</f>
+        <v>100.19999999999999</v>
+      </c>
+      <c r="D13" s="12">
+        <v>26</v>
+      </c>
+      <c r="E13" s="12">
+        <v>71</v>
+      </c>
+      <c r="F13" s="12">
+        <v>100</v>
+      </c>
+      <c r="M13" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="N13" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="O13" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="P13" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q13" s="12" t="s">
+        <v>133</v>
+      </c>
+      <c r="R13" s="12" t="s">
+        <v>254</v>
+      </c>
+      <c r="S13" s="12" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" s="12">
+        <v>13</v>
+      </c>
+      <c r="C14" s="12">
+        <f>B14+$B$9*($B$10+1)*B6</f>
+        <v>65.800000000000011</v>
+      </c>
+      <c r="D14" s="12">
+        <v>16</v>
+      </c>
+      <c r="E14" s="12">
+        <v>46</v>
+      </c>
+      <c r="F14" s="12">
+        <v>65</v>
+      </c>
+      <c r="M14" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="N14" s="12" t="s">
+        <v>282</v>
+      </c>
+      <c r="O14" s="12" t="s">
+        <v>252</v>
+      </c>
+      <c r="P14" s="12" t="s">
+        <v>161</v>
+      </c>
+      <c r="Q14" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="R14" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="S14" s="12" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="B15" s="12">
+        <v>8</v>
+      </c>
+      <c r="C15" s="12">
+        <f>B15+$B$9*($B$10+1)*B7</f>
+        <v>29.6</v>
+      </c>
+      <c r="D15" s="12">
+        <v>9</v>
+      </c>
+      <c r="E15" s="12">
+        <v>22</v>
+      </c>
+      <c r="F15" s="12">
+        <v>30</v>
+      </c>
+      <c r="M15" s="22" t="s">
+        <v>51</v>
+      </c>
+      <c r="N15" s="12" t="s">
+        <v>283</v>
+      </c>
+      <c r="O15" s="12" t="s">
+        <v>159</v>
+      </c>
+      <c r="P15" s="12" t="s">
+        <v>143</v>
+      </c>
+      <c r="Q15" s="12" t="s">
+        <v>284</v>
+      </c>
+      <c r="R15" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="S15" s="12" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16" s="12">
+        <v>174</v>
+      </c>
+      <c r="C16" s="12">
+        <f>ROUNDDOWN(B16+C13*Common!$B$1,0)</f>
+        <v>1977</v>
+      </c>
+      <c r="D16" s="12">
+        <v>641</v>
+      </c>
+      <c r="E16" s="12">
+        <v>1443</v>
+      </c>
+      <c r="F16" s="12">
+        <v>1978</v>
+      </c>
+      <c r="M16" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="N16" s="12" t="s">
+        <v>282</v>
+      </c>
+      <c r="O16" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="P16" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q16" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="R16" s="12" t="s">
+        <v>285</v>
+      </c>
+      <c r="S16" s="12" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17" s="12">
+        <v>36</v>
+      </c>
+      <c r="C17" s="12">
+        <f>ROUND(B17+C13+C15*Common!$B$2,0)</f>
+        <v>148</v>
+      </c>
+      <c r="D17" s="12">
+        <v>66</v>
+      </c>
+      <c r="E17" s="12">
+        <v>116</v>
+      </c>
+      <c r="F17" s="12">
+        <v>148</v>
+      </c>
+      <c r="M17" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="N17" s="12" t="s">
+        <v>149</v>
+      </c>
+      <c r="O17" s="12" t="s">
+        <v>160</v>
+      </c>
+      <c r="P17" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="Q17" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="R17" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="S17" s="12" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18" s="12">
+        <v>0</v>
+      </c>
+      <c r="C18" s="12">
+        <f>ROUND(B18+C14*Common!$B$3,0)</f>
+        <v>158</v>
+      </c>
+      <c r="D18" s="12">
+        <v>38</v>
+      </c>
+      <c r="E18" s="12">
+        <v>109</v>
+      </c>
+      <c r="F18" s="12">
+        <v>157</v>
+      </c>
+      <c r="M18" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="N18" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="O18" s="12" t="s">
+        <v>130</v>
+      </c>
+      <c r="P18" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q18" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="R18" s="12" t="s">
+        <v>152</v>
+      </c>
+      <c r="S18" s="12" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19" s="15">
+        <v>0</v>
+      </c>
+      <c r="C19" s="16">
+        <f>B19+C13/7+C15/14</f>
+        <v>16.428571428571427</v>
+      </c>
+      <c r="D19" s="16">
+        <v>2</v>
+      </c>
+      <c r="E19" s="16">
+        <v>9</v>
+      </c>
+      <c r="F19" s="16">
+        <v>15</v>
+      </c>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+      <c r="M19" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="N19" s="12" t="s">
+        <v>157</v>
+      </c>
+      <c r="O19" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="P19" s="12" t="s">
+        <v>286</v>
+      </c>
+      <c r="Q19" s="12" t="s">
+        <v>255</v>
+      </c>
+      <c r="R19" s="12" t="s">
+        <v>133</v>
+      </c>
+      <c r="S19" s="12" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="B20" s="12">
+        <v>0</v>
+      </c>
+      <c r="C20" s="12">
+        <f>ROUND(C14*Common!$B$4,0)</f>
+        <v>7</v>
+      </c>
+      <c r="D20" s="12">
+        <v>2</v>
+      </c>
+      <c r="E20" s="12">
+        <v>5</v>
+      </c>
+      <c r="F20" s="12">
+        <v>7</v>
+      </c>
+      <c r="M20" s="21" t="s">
+        <v>123</v>
+      </c>
+      <c r="N20" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="O20" s="12" t="s">
+        <v>287</v>
+      </c>
+      <c r="P20" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q20" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="R20" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="S20" s="12" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="B21" s="12">
+        <v>0</v>
+      </c>
+      <c r="C21" s="12">
+        <f>C15*Common!$B$5</f>
+        <v>11.840000000000002</v>
+      </c>
+      <c r="D21" s="12">
+        <v>4</v>
+      </c>
+      <c r="E21" s="12">
+        <v>9</v>
+      </c>
+      <c r="F21" s="12">
+        <v>12</v>
+      </c>
+      <c r="M21" s="21" t="s">
+        <v>124</v>
+      </c>
+      <c r="N21" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="O21" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="P21" s="12" t="s">
+        <v>193</v>
+      </c>
+      <c r="Q21" s="12" t="s">
+        <v>283</v>
+      </c>
+      <c r="R21" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="S21" s="12" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A24" s="24" t="s">
+        <v>270</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D38" sqref="D38"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:S22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J11" sqref="J11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10" customWidth="1"/>
+    <col min="2" max="2" width="9" customWidth="1"/>
+    <col min="3" max="3" width="11.28515625" customWidth="1"/>
+    <col min="4" max="4" width="8.28515625" customWidth="1"/>
+    <col min="5" max="5" width="9.42578125" customWidth="1"/>
+    <col min="6" max="6" width="10.140625" customWidth="1"/>
+    <col min="7" max="7" width="11.5703125" customWidth="1"/>
+    <col min="8" max="8" width="6.85546875" customWidth="1"/>
+    <col min="9" max="9" width="9" customWidth="1"/>
+    <col min="10" max="10" width="10" customWidth="1"/>
+    <col min="12" max="12" width="8.140625" customWidth="1"/>
+    <col min="13" max="13" width="20" customWidth="1"/>
+    <col min="14" max="14" width="19.140625" customWidth="1"/>
+    <col min="15" max="15" width="16.7109375" customWidth="1"/>
+    <col min="16" max="16" width="12.28515625" customWidth="1"/>
+    <col min="17" max="17" width="13.5703125" customWidth="1"/>
+    <col min="18" max="18" width="16" customWidth="1"/>
+    <col min="19" max="19" width="17.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="M1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M3" s="9" t="s">
+        <v>259</v>
+      </c>
+      <c r="N3" s="12"/>
+      <c r="O3" s="12"/>
+      <c r="P3" s="12"/>
+      <c r="Q3" s="12"/>
+      <c r="R3" s="12"/>
+      <c r="S3" s="12"/>
+    </row>
+    <row r="4" spans="1:19" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="C4" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="M4" s="8" t="s">
+        <v>288</v>
+      </c>
+      <c r="N4" s="12"/>
+      <c r="O4" s="12"/>
+      <c r="P4" s="12"/>
+      <c r="Q4" s="12"/>
+      <c r="R4" s="12"/>
+      <c r="S4" s="12"/>
+    </row>
+    <row r="5" spans="1:19" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="20">
+        <v>1</v>
+      </c>
+      <c r="C5" s="20">
+        <f>B5*2</f>
+        <v>2</v>
+      </c>
+      <c r="D5" s="20">
+        <f>B5*3</f>
+        <v>3</v>
+      </c>
+      <c r="E5" s="20">
+        <f>B5*4</f>
+        <v>4</v>
+      </c>
+      <c r="F5" s="20">
+        <f>B5*5</f>
+        <v>5</v>
+      </c>
+      <c r="G5" s="20">
+        <f>B5*6</f>
+        <v>6</v>
+      </c>
+      <c r="M5" s="22" t="s">
+        <v>289</v>
+      </c>
+      <c r="N5" s="12"/>
+      <c r="O5" s="12"/>
+      <c r="P5" s="12"/>
+      <c r="Q5" s="12"/>
+      <c r="R5" s="12"/>
+      <c r="S5" s="12"/>
+    </row>
+    <row r="6" spans="1:19" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="20">
+        <v>0.9</v>
+      </c>
+      <c r="C6" s="20">
+        <f t="shared" ref="C6:C7" si="0">B6*2</f>
+        <v>1.8</v>
+      </c>
+      <c r="D6" s="20">
+        <f t="shared" ref="D6:D7" si="1">B6*3</f>
+        <v>2.7</v>
+      </c>
+      <c r="E6" s="20">
+        <f t="shared" ref="E6:E7" si="2">B6*4</f>
+        <v>3.6</v>
+      </c>
+      <c r="F6" s="20">
+        <f t="shared" ref="F6:F7" si="3">B6*5</f>
+        <v>4.5</v>
+      </c>
+      <c r="G6" s="20">
+        <f t="shared" ref="G6:G7" si="4">B6*6</f>
+        <v>5.4</v>
+      </c>
+      <c r="M6" s="21" t="s">
+        <v>290</v>
+      </c>
+      <c r="N6" s="12"/>
+      <c r="O6" s="12"/>
+      <c r="P6" s="12"/>
+      <c r="Q6" s="12"/>
+      <c r="R6" s="12"/>
+      <c r="S6" s="12"/>
+    </row>
+    <row r="7" spans="1:19" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="20">
+        <v>1.4</v>
+      </c>
+      <c r="C7" s="20">
+        <f t="shared" si="0"/>
+        <v>2.8</v>
+      </c>
+      <c r="D7" s="20">
+        <f t="shared" si="1"/>
+        <v>4.1999999999999993</v>
+      </c>
+      <c r="E7" s="20">
+        <f t="shared" si="2"/>
+        <v>5.6</v>
+      </c>
+      <c r="F7" s="20">
+        <f t="shared" si="3"/>
+        <v>7</v>
+      </c>
+      <c r="G7" s="20">
+        <f t="shared" si="4"/>
+        <v>8.3999999999999986</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>36</v>
+      </c>
+      <c r="B9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>37</v>
+      </c>
+      <c r="B10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M11" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="N11" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="O11" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="P11" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q11" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="R11" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="S11" s="13" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="D12" s="13">
+        <v>1</v>
+      </c>
+      <c r="E12" s="13">
+        <v>10</v>
+      </c>
+      <c r="F12" s="13">
+        <v>20</v>
+      </c>
+      <c r="G12" s="13">
+        <v>30</v>
+      </c>
+      <c r="M12" t="s">
+        <v>240</v>
+      </c>
+      <c r="N12" s="12"/>
+      <c r="O12" s="12"/>
+      <c r="P12" s="12"/>
+      <c r="Q12" s="12"/>
+      <c r="R12" s="12"/>
+      <c r="S12" s="12"/>
+    </row>
+    <row r="13" spans="1:19" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" s="12">
+        <v>13</v>
+      </c>
+      <c r="C13" s="12">
+        <f>B13+$B$9*($B$10+1)*B5</f>
+        <v>43</v>
+      </c>
+      <c r="D13" s="12">
+        <v>16</v>
+      </c>
+      <c r="E13" s="12">
+        <v>43</v>
+      </c>
+      <c r="F13" s="12">
+        <v>73</v>
+      </c>
+      <c r="G13" s="12">
+        <v>103</v>
+      </c>
+      <c r="M13" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="N13" s="12"/>
+      <c r="O13" s="12"/>
+      <c r="P13" s="12"/>
+      <c r="Q13" s="12"/>
+      <c r="R13" s="12"/>
+      <c r="S13" s="12"/>
+    </row>
+    <row r="14" spans="1:19" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" s="12">
+        <v>16</v>
+      </c>
+      <c r="C14" s="12">
+        <f>B14+$B$9*($B$10+1)*B6</f>
+        <v>43</v>
+      </c>
+      <c r="D14" s="12">
+        <v>19</v>
+      </c>
+      <c r="E14" s="12">
+        <v>43</v>
+      </c>
+      <c r="F14" s="12">
+        <v>70</v>
+      </c>
+      <c r="G14" s="12">
+        <v>97</v>
+      </c>
+      <c r="M14" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="N14" s="12"/>
+      <c r="O14" s="12"/>
+      <c r="P14" s="12"/>
+      <c r="Q14" s="12"/>
+      <c r="R14" s="12"/>
+      <c r="S14" s="12"/>
+    </row>
+    <row r="15" spans="1:19" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="B15" s="12">
+        <v>17</v>
+      </c>
+      <c r="C15" s="12">
+        <f>B15+$B$9*($B$10+1)*B7</f>
+        <v>59</v>
+      </c>
+      <c r="D15" s="12">
+        <v>21</v>
+      </c>
+      <c r="E15" s="12">
+        <v>59</v>
+      </c>
+      <c r="F15" s="12">
+        <v>101</v>
+      </c>
+      <c r="G15" s="12">
+        <v>143</v>
+      </c>
+      <c r="M15" s="22" t="s">
+        <v>51</v>
+      </c>
+      <c r="N15" s="12"/>
+      <c r="O15" s="12"/>
+      <c r="P15" s="12"/>
+      <c r="Q15" s="12"/>
+      <c r="R15" s="12"/>
+      <c r="S15" s="12"/>
+    </row>
+    <row r="16" spans="1:19" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16" s="12">
+        <v>165</v>
+      </c>
+      <c r="C16" s="12">
+        <f>ROUNDDOWN(B16+C13*Common!$B$1,0)</f>
+        <v>939</v>
+      </c>
+      <c r="D16" s="12">
+        <v>453</v>
+      </c>
+      <c r="E16" s="12">
+        <v>939</v>
+      </c>
+      <c r="F16" s="12">
+        <v>1479</v>
+      </c>
+      <c r="G16" s="12">
+        <v>2019</v>
+      </c>
+      <c r="M16" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="N16" s="12"/>
+      <c r="O16" s="12"/>
+      <c r="P16" s="12"/>
+      <c r="Q16" s="12"/>
+      <c r="R16" s="12"/>
+      <c r="S16" s="12"/>
+    </row>
+    <row r="17" spans="1:19" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17" s="12">
+        <v>10</v>
+      </c>
+      <c r="C17" s="12">
+        <f>ROUND(B17+C15+C15*Common!$B$2,0)</f>
+        <v>93</v>
+      </c>
+      <c r="D17" s="12">
+        <v>40</v>
+      </c>
+      <c r="E17" s="12">
+        <v>93</v>
+      </c>
+      <c r="F17" s="12">
+        <v>152</v>
+      </c>
+      <c r="G17" s="12">
+        <v>210</v>
+      </c>
+      <c r="M17" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="N17" s="12"/>
+      <c r="O17" s="12"/>
+      <c r="P17" s="12"/>
+      <c r="Q17" s="12"/>
+      <c r="R17" s="12"/>
+      <c r="S17" s="12"/>
+    </row>
+    <row r="18" spans="1:19" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18" s="12">
+        <v>0</v>
+      </c>
+      <c r="C18" s="12">
+        <f>ROUND(B18+C14*Common!$B$3,0)</f>
+        <v>103</v>
+      </c>
+      <c r="D18" s="12">
+        <v>45</v>
+      </c>
+      <c r="E18" s="12">
+        <v>103</v>
+      </c>
+      <c r="F18" s="12">
+        <v>168</v>
+      </c>
+      <c r="G18" s="12">
+        <v>233</v>
+      </c>
+      <c r="M18" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="N18" s="12"/>
+      <c r="O18" s="12"/>
+      <c r="P18" s="12"/>
+      <c r="Q18" s="12"/>
+      <c r="R18" s="12"/>
+      <c r="S18" s="12"/>
+    </row>
+    <row r="19" spans="1:19" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19" s="15">
+        <v>0</v>
+      </c>
+      <c r="C19" s="16">
+        <f>B19+C13/7+C15/14</f>
+        <v>10.357142857142858</v>
+      </c>
+      <c r="D19" s="16">
+        <v>3</v>
+      </c>
+      <c r="E19" s="16">
+        <v>10</v>
+      </c>
+      <c r="F19" s="16">
+        <v>18</v>
+      </c>
+      <c r="G19" s="16">
+        <v>26</v>
+      </c>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+      <c r="M19" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="N19" s="12"/>
+      <c r="O19" s="12"/>
+      <c r="P19" s="12"/>
+      <c r="Q19" s="12"/>
+      <c r="R19" s="12"/>
+      <c r="S19" s="12"/>
+    </row>
+    <row r="20" spans="1:19" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="B20" s="12">
+        <v>0</v>
+      </c>
+      <c r="C20" s="12">
+        <f>ROUND(C14*Common!$B$4,0)</f>
+        <v>4</v>
+      </c>
+      <c r="D20" s="12">
+        <v>2</v>
+      </c>
+      <c r="E20" s="12">
+        <v>4</v>
+      </c>
+      <c r="F20" s="12">
+        <v>7</v>
+      </c>
+      <c r="G20" s="12">
+        <v>10</v>
+      </c>
+      <c r="M20" s="21" t="s">
+        <v>123</v>
+      </c>
+      <c r="N20" s="12"/>
+      <c r="O20" s="12"/>
+      <c r="P20" s="12"/>
+      <c r="Q20" s="12"/>
+      <c r="R20" s="12"/>
+      <c r="S20" s="12"/>
+    </row>
+    <row r="21" spans="1:19" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="B21" s="12">
+        <v>0</v>
+      </c>
+      <c r="C21" s="12">
+        <f>C15*Common!$B$5</f>
+        <v>23.6</v>
+      </c>
+      <c r="D21" s="12">
+        <v>9</v>
+      </c>
+      <c r="E21" s="12">
+        <v>24</v>
+      </c>
+      <c r="F21" s="12">
+        <v>40</v>
+      </c>
+      <c r="G21" s="12">
+        <v>57</v>
+      </c>
+      <c r="M21" s="21" t="s">
+        <v>124</v>
+      </c>
+      <c r="N21" s="12"/>
+      <c r="O21" s="12"/>
+      <c r="P21" s="12"/>
+      <c r="Q21" s="12"/>
+      <c r="R21" s="12"/>
+      <c r="S21" s="12"/>
+    </row>
+    <row r="22" spans="1:19" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:S22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10" customWidth="1"/>
+    <col min="2" max="2" width="12" customWidth="1"/>
+    <col min="3" max="3" width="10.42578125" customWidth="1"/>
+    <col min="4" max="4" width="8.28515625" customWidth="1"/>
+    <col min="5" max="5" width="7.85546875" customWidth="1"/>
+    <col min="6" max="6" width="10.28515625" customWidth="1"/>
+    <col min="7" max="7" width="10.5703125" customWidth="1"/>
+    <col min="8" max="8" width="6.85546875" customWidth="1"/>
+    <col min="9" max="9" width="9" customWidth="1"/>
+    <col min="10" max="10" width="10" customWidth="1"/>
+    <col min="12" max="12" width="8.140625" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" customWidth="1"/>
+    <col min="14" max="14" width="19.140625" customWidth="1"/>
+    <col min="15" max="15" width="13.5703125" customWidth="1"/>
+    <col min="16" max="16" width="18.7109375" customWidth="1"/>
+    <col min="17" max="17" width="23.140625" customWidth="1"/>
+    <col min="18" max="18" width="16" customWidth="1"/>
+    <col min="19" max="19" width="15.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M3" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="N3" t="s">
+        <v>88</v>
+      </c>
+      <c r="O3">
+        <f>B9</f>
+        <v>10</v>
+      </c>
+      <c r="P3" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q3">
+        <f>15*$B$9</f>
+        <v>150</v>
+      </c>
+      <c r="R3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="C4" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="M4" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="N4" t="s">
+        <v>88</v>
+      </c>
+      <c r="O4">
+        <f>$B$9</f>
+        <v>10</v>
+      </c>
+      <c r="P4" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q4">
+        <f>B9*12</f>
+        <v>120</v>
+      </c>
+      <c r="R4" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="20">
+        <v>1.65</v>
+      </c>
+      <c r="C5" s="20">
+        <f>B5*2</f>
+        <v>3.3</v>
+      </c>
+      <c r="D5" s="20">
+        <f>B5*3</f>
+        <v>4.9499999999999993</v>
+      </c>
+      <c r="E5" s="20">
+        <f>B5*4</f>
+        <v>6.6</v>
+      </c>
+      <c r="F5" s="20">
+        <f>B5*5</f>
+        <v>8.25</v>
+      </c>
+      <c r="G5" s="20">
+        <f>B5*6</f>
+        <v>9.8999999999999986</v>
+      </c>
+      <c r="M5" s="22" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="20">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="C6" s="20">
+        <f t="shared" ref="C6:C7" si="0">B6*2</f>
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="D6" s="20">
+        <f t="shared" ref="D6:D7" si="1">B6*3</f>
+        <v>3.3000000000000003</v>
+      </c>
+      <c r="E6" s="20">
+        <f t="shared" ref="E6:E7" si="2">B6*4</f>
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="F6" s="20">
+        <f t="shared" ref="F6:F7" si="3">B6*5</f>
+        <v>5.5</v>
+      </c>
+      <c r="G6" s="20">
+        <f t="shared" ref="G6:G7" si="4">B6*6</f>
+        <v>6.6000000000000005</v>
+      </c>
+      <c r="M6" s="21" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="20">
+        <v>0.65</v>
+      </c>
+      <c r="C7" s="20">
+        <f t="shared" si="0"/>
+        <v>1.3</v>
+      </c>
+      <c r="D7" s="20">
+        <f t="shared" si="1"/>
+        <v>1.9500000000000002</v>
+      </c>
+      <c r="E7" s="20">
+        <f t="shared" si="2"/>
+        <v>2.6</v>
+      </c>
+      <c r="F7" s="20">
+        <f t="shared" si="3"/>
+        <v>3.25</v>
+      </c>
+      <c r="G7" s="20">
+        <f t="shared" si="4"/>
+        <v>3.9000000000000004</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>36</v>
+      </c>
+      <c r="B9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>37</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M11" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="N11" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="O11" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="P11" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q11" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="R11" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="S11" s="13" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="B12" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="D12" s="13">
+        <v>1</v>
+      </c>
+      <c r="E12" s="13">
+        <v>2</v>
+      </c>
+      <c r="F12" s="13">
+        <v>10</v>
+      </c>
+      <c r="M12" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="N12" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="O12" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="P12" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q12" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="R12" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="S12" s="12" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" s="12">
+        <v>21</v>
+      </c>
+      <c r="C13" s="12">
+        <f>B13+$B$9*($B$10+1)*B5</f>
+        <v>54</v>
+      </c>
+      <c r="D13" s="12">
+        <v>24</v>
+      </c>
+      <c r="E13" s="12">
+        <v>28</v>
+      </c>
+      <c r="F13" s="12">
+        <v>54</v>
+      </c>
+      <c r="M13" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="N13" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="O13" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="P13" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q13" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="R13" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="S13" s="12" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" s="12">
+        <v>16</v>
+      </c>
+      <c r="C14" s="12">
+        <f>B14+$B$9*($B$10+1)*B6</f>
+        <v>38</v>
+      </c>
+      <c r="D14" s="12">
+        <v>18</v>
+      </c>
+      <c r="E14" s="12">
+        <v>20</v>
+      </c>
+      <c r="F14" s="12">
+        <v>38</v>
+      </c>
+      <c r="M14" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="N14" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="O14" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="P14" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q14" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="R14" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="S14" s="12" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="B15" s="12">
+        <v>13</v>
+      </c>
+      <c r="C15" s="12">
+        <f>B15+$B$9*($B$10+1)*B7</f>
+        <v>26</v>
+      </c>
+      <c r="D15" s="12">
+        <v>14</v>
+      </c>
+      <c r="E15" s="12">
+        <v>16</v>
+      </c>
+      <c r="F15" s="12">
+        <v>26</v>
+      </c>
+      <c r="M15" s="22" t="s">
+        <v>51</v>
+      </c>
+      <c r="N15" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="O15" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="P15" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="Q15" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="R15" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="S15" s="12" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16" s="12">
+        <v>174</v>
+      </c>
+      <c r="C16" s="12">
+        <f>ROUNDDOWN(B16+C13*Common!$B$1,0)</f>
+        <v>1146</v>
+      </c>
+      <c r="D16" s="12">
+        <v>611</v>
+      </c>
+      <c r="E16" s="12">
+        <v>671</v>
+      </c>
+      <c r="F16" s="12">
+        <v>1146</v>
+      </c>
+      <c r="M16" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="N16" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="O16" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="P16" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q16" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="R16" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="S16" s="12" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17" s="12">
+        <v>23</v>
+      </c>
+      <c r="C17" s="12">
+        <f>ROUND(B17+C13+C15*Common!$B$2,0)</f>
+        <v>87</v>
+      </c>
+      <c r="D17" s="12">
+        <v>52</v>
+      </c>
+      <c r="E17" s="12">
+        <v>56</v>
+      </c>
+      <c r="F17" s="12">
+        <v>87</v>
+      </c>
+      <c r="M17" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="N17" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="O17" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="P17" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q17" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="R17" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="S17" s="12" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18" s="12">
+        <v>0</v>
+      </c>
+      <c r="C18" s="12">
+        <f>ROUND(B18+C14*Common!$B$3,0)</f>
+        <v>91</v>
+      </c>
+      <c r="D18" s="12">
+        <v>44</v>
+      </c>
+      <c r="E18" s="12">
+        <v>49</v>
+      </c>
+      <c r="F18" s="12">
+        <v>91</v>
+      </c>
+      <c r="M18" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="N18" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="O18" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="P18" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q18" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="R18" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="S18" s="12" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19" s="17">
+        <v>3</v>
+      </c>
+      <c r="C19" s="18">
+        <f>B19+C13/7+C15/14</f>
+        <v>12.571428571428573</v>
+      </c>
+      <c r="D19" s="18">
+        <v>3</v>
+      </c>
+      <c r="E19" s="18">
+        <v>4</v>
+      </c>
+      <c r="F19" s="18">
+        <v>9</v>
+      </c>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+      <c r="M19" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="N19" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="O19" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="P19" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q19" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="R19" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="S19" s="12" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="B20" s="12">
+        <v>0</v>
+      </c>
+      <c r="C20" s="12">
+        <f>ROUND(C14*Common!$B$4,0)</f>
+        <v>4</v>
+      </c>
+      <c r="D20" s="12">
+        <v>2</v>
+      </c>
+      <c r="E20" s="12">
+        <v>2</v>
+      </c>
+      <c r="F20" s="12">
+        <v>4</v>
+      </c>
+      <c r="M20" s="21" t="s">
+        <v>123</v>
+      </c>
+      <c r="N20" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="O20" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="P20" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q20" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="R20" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="S20" s="12" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="B21" s="12">
+        <v>0</v>
+      </c>
+      <c r="C21" s="12">
+        <f>C15*Common!$B$5</f>
+        <v>10.4</v>
+      </c>
+      <c r="D21" s="12">
+        <v>6</v>
+      </c>
+      <c r="E21" s="12">
+        <v>6</v>
+      </c>
+      <c r="F21" s="12">
+        <v>10</v>
+      </c>
+      <c r="M21" s="21" t="s">
+        <v>124</v>
+      </c>
+      <c r="N21" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="O21" s="12" t="s">
+        <v>129</v>
+      </c>
+      <c r="P21" s="12" t="s">
+        <v>130</v>
+      </c>
+      <c r="Q21" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="R21" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="S21" s="12" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:S33"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F29" sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10" customWidth="1"/>
+    <col min="2" max="2" width="9" customWidth="1"/>
+    <col min="3" max="3" width="11.28515625" customWidth="1"/>
+    <col min="4" max="4" width="8.28515625" customWidth="1"/>
+    <col min="5" max="5" width="9.42578125" customWidth="1"/>
+    <col min="6" max="6" width="10.140625" customWidth="1"/>
+    <col min="7" max="7" width="11.5703125" customWidth="1"/>
+    <col min="8" max="8" width="6.85546875" customWidth="1"/>
+    <col min="9" max="9" width="9" customWidth="1"/>
+    <col min="10" max="10" width="10" customWidth="1"/>
+    <col min="12" max="12" width="8.140625" customWidth="1"/>
+    <col min="13" max="13" width="11.85546875" customWidth="1"/>
+    <col min="14" max="14" width="19.140625" customWidth="1"/>
+    <col min="15" max="15" width="16.7109375" customWidth="1"/>
+    <col min="16" max="16" width="12.28515625" customWidth="1"/>
+    <col min="17" max="17" width="13.5703125" customWidth="1"/>
+    <col min="18" max="18" width="16" customWidth="1"/>
+    <col min="19" max="19" width="21.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>13</v>
+      </c>
+      <c r="M1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M3" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="N3" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="O3" s="12">
+        <f>B9*5</f>
+        <v>50</v>
+      </c>
+      <c r="P3" s="12"/>
+      <c r="Q3" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="R3" s="12"/>
+      <c r="S3" s="12"/>
+    </row>
+    <row r="4" spans="1:19" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="C4" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="M4" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="N4" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="O4" s="12">
+        <f>11*B9</f>
+        <v>110</v>
+      </c>
+      <c r="P4" s="12"/>
+      <c r="Q4" s="12" t="s">
+        <v>179</v>
+      </c>
+      <c r="R4" s="12"/>
+      <c r="S4" s="12"/>
+    </row>
+    <row r="5" spans="1:19" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="20">
+        <v>0.6</v>
+      </c>
+      <c r="C5" s="20">
+        <f>B5*2</f>
+        <v>1.2</v>
+      </c>
+      <c r="D5" s="20">
+        <f>B5*3</f>
+        <v>1.7999999999999998</v>
+      </c>
+      <c r="E5" s="20">
+        <f>B5*4</f>
+        <v>2.4</v>
+      </c>
+      <c r="F5" s="20">
+        <f>B5*5</f>
+        <v>3</v>
+      </c>
+      <c r="G5" s="20">
+        <f>B5*6</f>
+        <v>3.5999999999999996</v>
+      </c>
+      <c r="M5" s="22" t="s">
+        <v>175</v>
+      </c>
+      <c r="N5" s="12" t="s">
+        <v>214</v>
+      </c>
+      <c r="O5" s="12">
+        <f>B9</f>
+        <v>10</v>
+      </c>
+      <c r="P5" s="12"/>
+      <c r="Q5" s="12" t="s">
+        <v>218</v>
+      </c>
+      <c r="R5" s="12"/>
+      <c r="S5" s="12"/>
+    </row>
+    <row r="6" spans="1:19" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="20">
+        <v>1.5</v>
+      </c>
+      <c r="C6" s="20">
+        <f t="shared" ref="C6:C7" si="0">B6*2</f>
+        <v>3</v>
+      </c>
+      <c r="D6" s="20">
+        <f t="shared" ref="D6:D7" si="1">B6*3</f>
+        <v>4.5</v>
+      </c>
+      <c r="E6" s="20">
+        <f t="shared" ref="E6:E7" si="2">B6*4</f>
+        <v>6</v>
+      </c>
+      <c r="F6" s="20">
+        <f t="shared" ref="F6:F7" si="3">B6*5</f>
+        <v>7.5</v>
+      </c>
+      <c r="G6" s="20">
+        <f t="shared" ref="G6:G7" si="4">B6*6</f>
+        <v>9</v>
+      </c>
+      <c r="M6" s="21" t="s">
+        <v>176</v>
+      </c>
+      <c r="N6" s="12" t="s">
+        <v>219</v>
+      </c>
+      <c r="O6" s="12">
+        <f>B9*0.5</f>
+        <v>5</v>
+      </c>
+      <c r="P6" s="12"/>
+      <c r="Q6" s="12" t="s">
+        <v>220</v>
+      </c>
+      <c r="R6" s="12"/>
+      <c r="S6" s="12"/>
+    </row>
+    <row r="7" spans="1:19" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="20">
+        <v>1</v>
+      </c>
+      <c r="C7" s="20">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="D7" s="20">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="E7" s="20">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="F7" s="20">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="G7" s="20">
+        <f t="shared" si="4"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>36</v>
+      </c>
+      <c r="B9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>37</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M11" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="N11" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="O11" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="P11" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q11" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="R11" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="S11" s="13" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="D12" s="13">
+        <v>1</v>
+      </c>
+      <c r="E12" s="13">
+        <v>10</v>
+      </c>
+      <c r="M12" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="N12" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="O12" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="P12" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q12" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="R12" s="12" t="s">
+        <v>131</v>
+      </c>
+      <c r="S12" s="12" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" s="12">
+        <v>15</v>
+      </c>
+      <c r="C13" s="12">
+        <f>B13+$B$9*($B$10+1)*B5</f>
+        <v>27</v>
+      </c>
+      <c r="D13" s="12">
+        <v>16</v>
+      </c>
+      <c r="E13" s="12">
+        <v>27</v>
+      </c>
+      <c r="M13" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="N13" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="O13" s="12" t="s">
+        <v>133</v>
+      </c>
+      <c r="P13" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q13" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="R13" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="S13" s="12" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" s="12">
+        <v>13</v>
+      </c>
+      <c r="C14" s="12">
+        <f>B14+$B$9*($B$10+1)*B6</f>
+        <v>43</v>
+      </c>
+      <c r="D14" s="12">
+        <v>16</v>
+      </c>
+      <c r="E14" s="12">
+        <v>43</v>
+      </c>
+      <c r="M14" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="N14" s="12" t="s">
+        <v>134</v>
+      </c>
+      <c r="O14" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="P14" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q14" s="12" t="s">
+        <v>136</v>
+      </c>
+      <c r="R14" s="12" t="s">
+        <v>131</v>
+      </c>
+      <c r="S14" s="12" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="B15" s="12">
+        <v>17</v>
+      </c>
+      <c r="C15" s="12">
+        <f>B15+$B$9*($B$10+1)*B7</f>
+        <v>37</v>
+      </c>
+      <c r="D15" s="12">
+        <v>19</v>
+      </c>
+      <c r="E15" s="12">
+        <v>37</v>
+      </c>
+      <c r="M15" s="22" t="s">
+        <v>51</v>
+      </c>
+      <c r="N15" s="12" t="s">
+        <v>137</v>
+      </c>
+      <c r="O15" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="P15" s="12" t="s">
+        <v>139</v>
+      </c>
+      <c r="Q15" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="R15" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="S15" s="12" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16" s="12">
+        <v>166</v>
+      </c>
+      <c r="C16" s="12">
+        <f>ROUNDDOWN(B16+C13*Common!$B$1,0)</f>
+        <v>652</v>
+      </c>
+      <c r="D16" s="12">
+        <v>458</v>
+      </c>
+      <c r="E16" s="12">
+        <v>652</v>
+      </c>
+      <c r="M16" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="N16" s="12" t="s">
+        <v>142</v>
+      </c>
+      <c r="O16" s="12" t="s">
+        <v>143</v>
+      </c>
+      <c r="P16" s="12" t="s">
+        <v>144</v>
+      </c>
+      <c r="Q16" s="12" t="s">
+        <v>134</v>
+      </c>
+      <c r="R16" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="S16" s="12" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17" s="12">
+        <v>28</v>
+      </c>
+      <c r="C17" s="12">
+        <f>ROUND(B17+C14+C15*Common!$B$2,0)</f>
+        <v>86</v>
+      </c>
+      <c r="D17" s="12">
+        <v>52</v>
+      </c>
+      <c r="E17" s="12">
+        <v>86</v>
+      </c>
+      <c r="M17" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="N17" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="O17" s="12" t="s">
+        <v>146</v>
+      </c>
+      <c r="P17" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q17" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="R17" s="12" t="s">
+        <v>131</v>
+      </c>
+      <c r="S17" s="12" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18" s="12">
+        <v>0</v>
+      </c>
+      <c r="C18" s="12">
+        <f>ROUND(B18+C14*Common!$B$3,0)</f>
+        <v>103</v>
+      </c>
+      <c r="D18" s="12">
+        <v>39</v>
+      </c>
+      <c r="E18" s="12">
+        <v>104</v>
+      </c>
+      <c r="M18" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="N18" s="12" t="s">
+        <v>149</v>
+      </c>
+      <c r="O18" s="12" t="s">
+        <v>150</v>
+      </c>
+      <c r="P18" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="Q18" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="R18" s="12" t="s">
+        <v>152</v>
+      </c>
+      <c r="S18" s="12" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19" s="17">
+        <v>0</v>
+      </c>
+      <c r="C19" s="18">
+        <f>B19+C13/7+C15/14</f>
+        <v>6.5</v>
+      </c>
+      <c r="D19" s="18">
+        <v>4</v>
+      </c>
+      <c r="E19" s="18">
+        <v>7</v>
+      </c>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+      <c r="M19" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="N19" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="O19" s="12" t="s">
+        <v>153</v>
+      </c>
+      <c r="P19" s="12" t="s">
+        <v>154</v>
+      </c>
+      <c r="Q19" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="R19" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="S19" s="12" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="B20" s="12">
+        <v>0</v>
+      </c>
+      <c r="C20" s="12">
+        <f>ROUND(C14*Common!$B$4,0)</f>
+        <v>4</v>
+      </c>
+      <c r="D20" s="12">
+        <v>2</v>
+      </c>
+      <c r="E20" s="12">
+        <v>4</v>
+      </c>
+      <c r="M20" s="21" t="s">
+        <v>123</v>
+      </c>
+      <c r="N20" s="12" t="s">
+        <v>155</v>
+      </c>
+      <c r="O20" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="P20" s="12" t="s">
+        <v>156</v>
+      </c>
+      <c r="Q20" s="12" t="s">
+        <v>134</v>
+      </c>
+      <c r="R20" s="12" t="s">
+        <v>144</v>
+      </c>
+      <c r="S20" s="12" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="B21" s="12">
+        <v>0</v>
+      </c>
+      <c r="C21" s="12">
+        <f>C15*Common!$B$5</f>
+        <v>14.8</v>
+      </c>
+      <c r="D21" s="12">
+        <v>8</v>
+      </c>
+      <c r="E21" s="12">
+        <v>15</v>
+      </c>
+      <c r="M21" s="21" t="s">
+        <v>124</v>
+      </c>
+      <c r="N21" s="12" t="s">
+        <v>157</v>
+      </c>
+      <c r="O21" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="P21" s="12" t="s">
+        <v>149</v>
+      </c>
+      <c r="Q21" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="R21" s="12" t="s">
+        <v>137</v>
+      </c>
+      <c r="S21" s="12" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="I27">
+        <v>150</v>
+      </c>
+      <c r="J27">
+        <v>65</v>
+      </c>
+      <c r="K27">
+        <v>230</v>
+      </c>
+      <c r="L27">
+        <f>K27/(I27-J27)</f>
+        <v>2.7058823529411766</v>
+      </c>
+      <c r="M27">
+        <v>2.7</v>
+      </c>
+      <c r="N27">
+        <f>K27/$M$27+J27</f>
+        <v>150.18518518518516</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="I28">
+        <v>155</v>
+      </c>
+      <c r="J28">
+        <v>65</v>
+      </c>
+      <c r="K28">
+        <v>242</v>
+      </c>
+      <c r="L28">
+        <f t="shared" ref="L28:L33" si="5">K28/(I28-J28)</f>
+        <v>2.6888888888888891</v>
+      </c>
+      <c r="M28">
+        <v>2.68</v>
+      </c>
+      <c r="N28">
+        <f t="shared" ref="N28:N33" si="6">K28/$M$27+J28</f>
+        <v>154.62962962962962</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="I29">
+        <v>159</v>
+      </c>
+      <c r="J29">
+        <v>65</v>
+      </c>
+      <c r="K29">
+        <v>256</v>
+      </c>
+      <c r="L29">
+        <f t="shared" si="5"/>
+        <v>2.7234042553191489</v>
+      </c>
+      <c r="N29">
+        <f t="shared" si="6"/>
+        <v>159.81481481481481</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="I30">
+        <v>161</v>
+      </c>
+      <c r="J30">
+        <v>65</v>
+      </c>
+      <c r="K30">
+        <v>263</v>
+      </c>
+      <c r="L30">
+        <f t="shared" si="5"/>
+        <v>2.7395833333333335</v>
+      </c>
+      <c r="N30">
+        <f t="shared" si="6"/>
+        <v>162.40740740740739</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="I31">
+        <v>166</v>
+      </c>
+      <c r="J31">
+        <v>70</v>
+      </c>
+      <c r="K31">
+        <v>263</v>
+      </c>
+      <c r="L31">
+        <f t="shared" si="5"/>
+        <v>2.7395833333333335</v>
+      </c>
+      <c r="N31">
+        <f t="shared" si="6"/>
+        <v>167.40740740740739</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="I32">
+        <v>175</v>
+      </c>
+      <c r="J32">
+        <v>70</v>
+      </c>
+      <c r="K32">
+        <v>299</v>
+      </c>
+      <c r="L32">
+        <f t="shared" si="5"/>
+        <v>2.8476190476190477</v>
+      </c>
+      <c r="N32">
+        <f t="shared" si="6"/>
+        <v>180.74074074074073</v>
+      </c>
+    </row>
+    <row r="33" spans="9:14" x14ac:dyDescent="0.25">
+      <c r="I33">
+        <v>177</v>
+      </c>
+      <c r="J33">
+        <v>70</v>
+      </c>
+      <c r="K33">
+        <v>306</v>
+      </c>
+      <c r="L33">
+        <f t="shared" si="5"/>
+        <v>2.8598130841121496</v>
+      </c>
+      <c r="N33">
+        <f t="shared" si="6"/>
+        <v>183.33333333333331</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S22"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2255,7 +5075,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S22"/>
   <sheetViews>
@@ -2902,7 +5722,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S22"/>
   <sheetViews>
@@ -3559,7 +6379,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S20"/>
   <sheetViews>
@@ -4182,7 +7002,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S22"/>
   <sheetViews>
@@ -4813,7 +7633,175 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17.140625" customWidth="1"/>
+    <col min="2" max="2" width="18.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="B2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C2" s="14"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="B4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="14" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="14" t="s">
+        <v>97</v>
+      </c>
+      <c r="B6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="14" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="14" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="14" t="s">
+        <v>228</v>
+      </c>
+      <c r="B9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="14" t="s">
+        <v>233</v>
+      </c>
+      <c r="B10" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="14" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="14" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="14" t="s">
+        <v>236</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="14" t="s">
+        <v>237</v>
+      </c>
+      <c r="B14" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="14" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="14" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="14" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" s="14" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" s="14" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" s="14" t="s">
+        <v>295</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" location="Admiral!A1" tooltip="Admiral" display="Admiral"/>
+    <hyperlink ref="A3" location="Chaplain!A1" display="Chaplain!A1"/>
+    <hyperlink ref="A4" location="Emberstar!A1" display="Emberstar!A1"/>
+    <hyperlink ref="A5" location="'Depths Voice'!A1" display="Depths Voice"/>
+    <hyperlink ref="A6" location="'Leaves Shadows'!A1" display="Leaves Shadows"/>
+    <hyperlink ref="A7" location="Rifleman!A1" display="Riflman"/>
+    <hyperlink ref="A8" location="'Lightning Elemental'!A1" display="Ligtning Elemental"/>
+    <hyperlink ref="A9" location="'Lightning Master'!A1" display="Lighting Master"/>
+    <hyperlink ref="A10" location="Necromancer!A1" display="Necromancer"/>
+    <hyperlink ref="A11" location="Ferryman!A1" display="Ferryman"/>
+    <hyperlink ref="A12" location="Silencer!A1" display="Silencer"/>
+    <hyperlink ref="A13" location="Mountain!A1" display="Mountain"/>
+    <hyperlink ref="A14" location="'Frost Mage'!A1" display="Frost Mage"/>
+    <hyperlink ref="A15" location="Psychopath!A1" display="Psychopath"/>
+    <hyperlink ref="A16" location="'Professional Killer'!A1" display="Professional Killer"/>
+    <hyperlink ref="A17" location="'Bear Warrior'!A1" display="Bear Warrior"/>
+    <hyperlink ref="A18" location="Mystic!A1" display="Mystic"/>
+    <hyperlink ref="A19" location="'Psychic Sword'!A1" display="Psychic Sword"/>
+    <hyperlink ref="A20" location="Sniper!A1" display="Sniper"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R20"/>
   <sheetViews>
@@ -5221,7 +8209,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M23"/>
   <sheetViews>
@@ -5431,7 +8419,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B5"/>
   <sheetViews>
@@ -5489,145 +8477,729 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:S24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.140625" customWidth="1"/>
-    <col min="2" max="2" width="18.5703125" customWidth="1"/>
+    <col min="1" max="1" width="14" customWidth="1"/>
+    <col min="2" max="2" width="9" customWidth="1"/>
+    <col min="3" max="3" width="11.28515625" customWidth="1"/>
+    <col min="4" max="4" width="8.28515625" customWidth="1"/>
+    <col min="5" max="5" width="9.42578125" customWidth="1"/>
+    <col min="6" max="6" width="10.140625" customWidth="1"/>
+    <col min="7" max="7" width="11.5703125" customWidth="1"/>
+    <col min="8" max="8" width="6.85546875" customWidth="1"/>
+    <col min="9" max="9" width="9" customWidth="1"/>
+    <col min="10" max="10" width="10" customWidth="1"/>
+    <col min="12" max="12" width="8.140625" customWidth="1"/>
+    <col min="13" max="13" width="19.85546875" customWidth="1"/>
+    <col min="14" max="14" width="19.140625" customWidth="1"/>
+    <col min="15" max="15" width="16.7109375" customWidth="1"/>
+    <col min="16" max="16" width="12.28515625" customWidth="1"/>
+    <col min="17" max="17" width="13.5703125" customWidth="1"/>
+    <col min="18" max="18" width="16" customWidth="1"/>
+    <col min="19" max="19" width="17.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>92</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="14" t="s">
-        <v>91</v>
+        <v>1</v>
+      </c>
+      <c r="M1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>2</v>
       </c>
       <c r="B2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M3" s="9" t="s">
+        <v>296</v>
+      </c>
+      <c r="N3" s="12" t="s">
+        <v>308</v>
+      </c>
+      <c r="O3" s="12">
+        <f>60*B9</f>
+        <v>600</v>
+      </c>
+      <c r="P3" t="s">
+        <v>309</v>
+      </c>
+      <c r="Q3" s="12">
+        <f>B9*6</f>
+        <v>60</v>
+      </c>
+      <c r="R3" s="12" t="s">
+        <v>307</v>
+      </c>
+      <c r="S3" s="12"/>
+    </row>
+    <row r="4" spans="1:19" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="C4" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="M4" s="8" t="s">
+        <v>297</v>
+      </c>
+      <c r="N4" s="12" t="s">
+        <v>311</v>
+      </c>
+      <c r="O4" s="12">
+        <f>14*B9</f>
+        <v>140</v>
+      </c>
+      <c r="P4" s="12" t="s">
+        <v>310</v>
+      </c>
+      <c r="Q4" s="12"/>
+      <c r="R4" s="12"/>
+      <c r="S4" s="12"/>
+    </row>
+    <row r="5" spans="1:19" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="20">
+        <v>0.8</v>
+      </c>
+      <c r="C5" s="20">
+        <f>B5*2</f>
+        <v>1.6</v>
+      </c>
+      <c r="D5" s="20">
+        <f>B5*3</f>
+        <v>2.4000000000000004</v>
+      </c>
+      <c r="E5" s="20">
+        <f>B5*4</f>
+        <v>3.2</v>
+      </c>
+      <c r="F5" s="20">
+        <f>B5*5</f>
+        <v>4</v>
+      </c>
+      <c r="G5" s="20">
+        <f>B5*6</f>
+        <v>4.8000000000000007</v>
+      </c>
+      <c r="M5" s="22" t="s">
+        <v>298</v>
+      </c>
+      <c r="N5" s="12" t="s">
+        <v>313</v>
+      </c>
+      <c r="O5" s="12">
+        <f>B9</f>
+        <v>10</v>
+      </c>
+      <c r="P5" s="12" t="s">
+        <v>312</v>
+      </c>
+      <c r="Q5" s="12"/>
+      <c r="R5" s="12"/>
+      <c r="S5" s="12"/>
+    </row>
+    <row r="6" spans="1:19" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="20">
+        <v>0.8</v>
+      </c>
+      <c r="C6" s="20">
+        <f t="shared" ref="C6:C7" si="0">B6*2</f>
+        <v>1.6</v>
+      </c>
+      <c r="D6" s="20">
+        <f t="shared" ref="D6:D7" si="1">B6*3</f>
+        <v>2.4000000000000004</v>
+      </c>
+      <c r="E6" s="20">
+        <f t="shared" ref="E6:E7" si="2">B6*4</f>
+        <v>3.2</v>
+      </c>
+      <c r="F6" s="20">
+        <f t="shared" ref="F6:F7" si="3">B6*5</f>
+        <v>4</v>
+      </c>
+      <c r="G6" s="20">
+        <f t="shared" ref="G6:G7" si="4">B6*6</f>
+        <v>4.8000000000000007</v>
+      </c>
+      <c r="M6" s="21" t="s">
+        <v>299</v>
+      </c>
+      <c r="N6" s="12" t="s">
+        <v>315</v>
+      </c>
+      <c r="O6" s="12">
+        <f>2*B9</f>
+        <v>20</v>
+      </c>
+      <c r="P6" s="12" t="s">
+        <v>314</v>
+      </c>
+      <c r="Q6" s="12"/>
+      <c r="R6" s="12"/>
+      <c r="S6" s="12"/>
+    </row>
+    <row r="7" spans="1:19" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="20">
+        <v>1.4</v>
+      </c>
+      <c r="C7" s="20">
+        <f t="shared" si="0"/>
+        <v>2.8</v>
+      </c>
+      <c r="D7" s="20">
+        <f t="shared" si="1"/>
+        <v>4.1999999999999993</v>
+      </c>
+      <c r="E7" s="20">
+        <f t="shared" si="2"/>
+        <v>5.6</v>
+      </c>
+      <c r="F7" s="20">
+        <f t="shared" si="3"/>
+        <v>7</v>
+      </c>
+      <c r="G7" s="20">
+        <f t="shared" si="4"/>
+        <v>8.3999999999999986</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>36</v>
+      </c>
+      <c r="B9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>37</v>
+      </c>
+      <c r="B10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M11" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="N11" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="O11" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="P11" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q11" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="R11" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="S11" s="13" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="D12" s="13">
+        <v>1</v>
+      </c>
+      <c r="E12" s="13">
+        <v>10</v>
+      </c>
+      <c r="F12" s="13"/>
+      <c r="M12" t="s">
+        <v>240</v>
+      </c>
+      <c r="N12" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="O12" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="P12" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q12" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="R12" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="S12" s="12" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" s="12">
+        <v>13</v>
+      </c>
+      <c r="C13" s="12">
+        <f>B13+$B$9*($B$10+1)*B5</f>
+        <v>45</v>
+      </c>
+      <c r="D13" s="12">
+        <v>17</v>
+      </c>
+      <c r="E13" s="12">
+        <v>45</v>
+      </c>
+      <c r="F13" s="12"/>
+      <c r="M13" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="N13" s="12" t="s">
+        <v>300</v>
+      </c>
+      <c r="O13" s="12" t="s">
+        <v>300</v>
+      </c>
+      <c r="P13" s="12" t="s">
+        <v>195</v>
+      </c>
+      <c r="Q13" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="R13" s="12" t="s">
+        <v>161</v>
+      </c>
+      <c r="S13" s="12" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" s="12">
+        <v>14</v>
+      </c>
+      <c r="C14" s="12">
+        <f>B14+$B$9*($B$10+1)*B6</f>
+        <v>46</v>
+      </c>
+      <c r="D14" s="12">
+        <v>18</v>
+      </c>
+      <c r="E14" s="12">
+        <v>46</v>
+      </c>
+      <c r="F14" s="12"/>
+      <c r="M14" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="N14" s="12" t="s">
+        <v>197</v>
+      </c>
+      <c r="O14" s="12" t="s">
+        <v>158</v>
+      </c>
+      <c r="P14" s="12" t="s">
+        <v>301</v>
+      </c>
+      <c r="Q14" s="12" t="s">
+        <v>195</v>
+      </c>
+      <c r="R14" s="12" t="s">
+        <v>161</v>
+      </c>
+      <c r="S14" s="12" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="B15" s="12">
+        <v>19</v>
+      </c>
+      <c r="C15" s="12">
+        <f>B15+$B$9*($B$10+1)*B7</f>
+        <v>75</v>
+      </c>
+      <c r="D15" s="12">
+        <v>25</v>
+      </c>
+      <c r="E15" s="12">
+        <v>75</v>
+      </c>
+      <c r="F15" s="12"/>
+      <c r="M15" s="22" t="s">
+        <v>51</v>
+      </c>
+      <c r="N15" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="O15" s="12" t="s">
+        <v>158</v>
+      </c>
+      <c r="P15" s="12" t="s">
+        <v>302</v>
+      </c>
+      <c r="Q15" s="12" t="s">
+        <v>195</v>
+      </c>
+      <c r="R15" s="12" t="s">
+        <v>300</v>
+      </c>
+      <c r="S15" s="12" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16" s="12">
+        <v>172</v>
+      </c>
+      <c r="C16" s="12">
+        <f>ROUNDDOWN(B16+C13*Common!$B$1,0)</f>
+        <v>982</v>
+      </c>
+      <c r="D16" s="12">
+        <v>464</v>
+      </c>
+      <c r="E16" s="12">
+        <v>982</v>
+      </c>
+      <c r="F16" s="12"/>
+      <c r="M16" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="N16" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="O16" s="12" t="s">
+        <v>198</v>
+      </c>
+      <c r="P16" s="12" t="s">
+        <v>158</v>
+      </c>
+      <c r="Q16" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="R16" s="12" t="s">
+        <v>300</v>
+      </c>
+      <c r="S16" s="12" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17" s="12">
+        <v>9</v>
+      </c>
+      <c r="C17" s="12">
+        <f>ROUND(B17+C15+C15*Common!$B$2,0)</f>
+        <v>114</v>
+      </c>
+      <c r="D17" s="12">
         <v>44</v>
       </c>
-      <c r="C2" s="14"/>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="14" t="s">
-        <v>94</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="14" t="s">
-        <v>95</v>
-      </c>
-      <c r="B4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="14" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="14" t="s">
-        <v>97</v>
-      </c>
-      <c r="B6" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="14" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="14" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="14" t="s">
-        <v>228</v>
-      </c>
-      <c r="B9" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="14" t="s">
-        <v>233</v>
-      </c>
-      <c r="B10" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="14" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="14" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="14" t="s">
-        <v>236</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="14" t="s">
-        <v>237</v>
-      </c>
-      <c r="B14" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="14" t="s">
-        <v>238</v>
+      <c r="E17" s="12">
+        <v>114</v>
+      </c>
+      <c r="F17" s="12"/>
+      <c r="M17" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="N17" s="12" t="s">
+        <v>166</v>
+      </c>
+      <c r="O17" s="12" t="s">
+        <v>156</v>
+      </c>
+      <c r="P17" s="12" t="s">
+        <v>201</v>
+      </c>
+      <c r="Q17" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="R17" s="12" t="s">
+        <v>161</v>
+      </c>
+      <c r="S17" s="12" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18" s="12">
+        <v>0</v>
+      </c>
+      <c r="C18" s="12">
+        <f>ROUND(B18+C14*Common!$B$3,0)</f>
+        <v>110</v>
+      </c>
+      <c r="D18" s="12">
+        <v>42</v>
+      </c>
+      <c r="E18" s="12">
+        <v>111</v>
+      </c>
+      <c r="F18" s="12"/>
+      <c r="M18" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="N18" s="12" t="s">
+        <v>193</v>
+      </c>
+      <c r="O18" s="12" t="s">
+        <v>149</v>
+      </c>
+      <c r="P18" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q18" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="R18" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="S18" s="12" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19" s="15">
+        <v>0</v>
+      </c>
+      <c r="C19" s="16">
+        <f>B19+C13/7+C15/14</f>
+        <v>11.785714285714285</v>
+      </c>
+      <c r="D19" s="16">
+        <v>3</v>
+      </c>
+      <c r="E19" s="16">
+        <v>12</v>
+      </c>
+      <c r="F19" s="16"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+      <c r="M19" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="N19" s="12" t="s">
+        <v>205</v>
+      </c>
+      <c r="O19" s="12" t="s">
+        <v>303</v>
+      </c>
+      <c r="P19" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q19" s="12" t="s">
+        <v>195</v>
+      </c>
+      <c r="R19" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="S19" s="12" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="B20" s="12">
+        <v>0</v>
+      </c>
+      <c r="C20" s="12">
+        <f>ROUND(C14*Common!$B$4,0)</f>
+        <v>5</v>
+      </c>
+      <c r="D20" s="12">
+        <v>2</v>
+      </c>
+      <c r="E20" s="12">
+        <v>5</v>
+      </c>
+      <c r="F20" s="12"/>
+      <c r="M20" s="21" t="s">
+        <v>123</v>
+      </c>
+      <c r="N20" s="12" t="s">
+        <v>304</v>
+      </c>
+      <c r="O20" s="12" t="s">
+        <v>153</v>
+      </c>
+      <c r="P20" s="12" t="s">
+        <v>305</v>
+      </c>
+      <c r="Q20" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="R20" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="S20" s="12" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="B21" s="12">
+        <v>0</v>
+      </c>
+      <c r="C21" s="12">
+        <f>C15*Common!$B$5</f>
+        <v>30</v>
+      </c>
+      <c r="D21" s="12">
+        <v>10</v>
+      </c>
+      <c r="E21" s="12">
+        <v>30</v>
+      </c>
+      <c r="F21" s="12"/>
+      <c r="M21" s="21" t="s">
+        <v>124</v>
+      </c>
+      <c r="N21" s="12" t="s">
+        <v>306</v>
+      </c>
+      <c r="O21" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="P21" s="12" t="s">
+        <v>199</v>
+      </c>
+      <c r="Q21" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="R21" s="12" t="s">
+        <v>197</v>
+      </c>
+      <c r="S21" s="12" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A24" s="24" t="s">
+        <v>270</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A2" location="Admiral!A1" tooltip="Admiral" display="Admiral"/>
-    <hyperlink ref="A3" location="Chaplain!A1" display="Chaplain!A1"/>
-    <hyperlink ref="A4" location="Emberstar!A1" display="Emberstar!A1"/>
-    <hyperlink ref="A5" location="'Depths Voice'!A1" display="Depths Voice"/>
-    <hyperlink ref="A6" location="'Leaves Shadows'!A1" display="Leaves Shadows"/>
-    <hyperlink ref="A7" location="Rifleman!A1" display="Riflman"/>
-    <hyperlink ref="A8" location="'Lightning Elemental'!A1" display="Ligtning Elemental"/>
-    <hyperlink ref="A9" location="'Lightning Master'!A1" display="Lighting Master"/>
-    <hyperlink ref="A10" location="Necromancer!A1" display="Necromancer"/>
-    <hyperlink ref="A11" location="Ferryman!A1" display="Ferryman"/>
-    <hyperlink ref="A12" location="Silencer!A1" display="Silencer"/>
-    <hyperlink ref="A13" location="Mountain!A1" display="Mountain"/>
-    <hyperlink ref="A14" location="'Frost Mage'!A1" display="Frost Mage"/>
-    <hyperlink ref="A15" location="Psychopath!A1" display="Psychopath"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
@@ -5641,7 +9213,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S22"/>
   <sheetViews>
@@ -6328,2826 +9900,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S24"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="R24" sqref="R24"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="10" customWidth="1"/>
-    <col min="2" max="2" width="9" customWidth="1"/>
-    <col min="3" max="3" width="11.28515625" customWidth="1"/>
-    <col min="4" max="4" width="8.28515625" customWidth="1"/>
-    <col min="5" max="5" width="9.42578125" customWidth="1"/>
-    <col min="6" max="6" width="10.140625" customWidth="1"/>
-    <col min="7" max="7" width="11.5703125" customWidth="1"/>
-    <col min="8" max="8" width="6.85546875" customWidth="1"/>
-    <col min="9" max="9" width="9" customWidth="1"/>
-    <col min="10" max="10" width="10" customWidth="1"/>
-    <col min="12" max="12" width="8.140625" customWidth="1"/>
-    <col min="13" max="13" width="17.7109375" customWidth="1"/>
-    <col min="14" max="14" width="19.140625" customWidth="1"/>
-    <col min="15" max="15" width="16.7109375" customWidth="1"/>
-    <col min="16" max="16" width="12.28515625" customWidth="1"/>
-    <col min="17" max="17" width="13.5703125" customWidth="1"/>
-    <col min="18" max="18" width="16" customWidth="1"/>
-    <col min="19" max="19" width="17.42578125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>12</v>
-      </c>
-      <c r="M1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="M3" s="9" t="s">
-        <v>271</v>
-      </c>
-      <c r="N3" s="12" t="s">
-        <v>260</v>
-      </c>
-      <c r="O3" s="12">
-        <f>12*B9</f>
-        <v>192</v>
-      </c>
-      <c r="P3" s="12" t="s">
-        <v>275</v>
-      </c>
-      <c r="Q3" s="12"/>
-      <c r="S3" s="12"/>
-    </row>
-    <row r="4" spans="1:19" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="C4" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="F4" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="G4" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="M4" s="8" t="s">
-        <v>272</v>
-      </c>
-      <c r="N4" s="12" t="s">
-        <v>276</v>
-      </c>
-      <c r="O4" s="12">
-        <f>B9*9</f>
-        <v>144</v>
-      </c>
-      <c r="P4" s="12" t="s">
-        <v>277</v>
-      </c>
-      <c r="Q4" s="12"/>
-      <c r="R4" s="12"/>
-      <c r="S4" s="12"/>
-    </row>
-    <row r="5" spans="1:19" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="20">
-        <v>1.65</v>
-      </c>
-      <c r="C5" s="20">
-        <f>B5*2</f>
-        <v>3.3</v>
-      </c>
-      <c r="D5" s="20">
-        <f>B5*3</f>
-        <v>4.9499999999999993</v>
-      </c>
-      <c r="E5" s="20">
-        <f>B5*4</f>
-        <v>6.6</v>
-      </c>
-      <c r="F5" s="20">
-        <f>B5*5</f>
-        <v>8.25</v>
-      </c>
-      <c r="G5" s="20">
-        <f>B5*6</f>
-        <v>9.8999999999999986</v>
-      </c>
-      <c r="M5" s="22" t="s">
-        <v>273</v>
-      </c>
-      <c r="N5" s="12" t="s">
-        <v>279</v>
-      </c>
-      <c r="O5" s="12">
-        <f>B9*3.6</f>
-        <v>57.6</v>
-      </c>
-      <c r="P5" s="12" t="s">
-        <v>278</v>
-      </c>
-      <c r="Q5" s="12"/>
-      <c r="R5" s="12"/>
-      <c r="S5" s="12"/>
-    </row>
-    <row r="6" spans="1:19" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="20">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="C6" s="20">
-        <f t="shared" ref="C6:C7" si="0">B6*2</f>
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="D6" s="20">
-        <f t="shared" ref="D6:D7" si="1">B6*3</f>
-        <v>3.3000000000000003</v>
-      </c>
-      <c r="E6" s="20">
-        <f t="shared" ref="E6:E7" si="2">B6*4</f>
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="F6" s="20">
-        <f t="shared" ref="F6:F7" si="3">B6*5</f>
-        <v>5.5</v>
-      </c>
-      <c r="G6" s="20">
-        <f t="shared" ref="G6:G7" si="4">B6*6</f>
-        <v>6.6000000000000005</v>
-      </c>
-      <c r="M6" s="21" t="s">
-        <v>274</v>
-      </c>
-      <c r="N6" s="12" t="s">
-        <v>281</v>
-      </c>
-      <c r="O6" s="12">
-        <f>B9*3</f>
-        <v>48</v>
-      </c>
-      <c r="P6" s="12" t="s">
-        <v>280</v>
-      </c>
-      <c r="Q6" s="12"/>
-      <c r="R6" s="12"/>
-      <c r="S6" s="12"/>
-    </row>
-    <row r="7" spans="1:19" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" s="20">
-        <v>0.45</v>
-      </c>
-      <c r="C7" s="20">
-        <f t="shared" si="0"/>
-        <v>0.9</v>
-      </c>
-      <c r="D7" s="20">
-        <f t="shared" si="1"/>
-        <v>1.35</v>
-      </c>
-      <c r="E7" s="20">
-        <f t="shared" si="2"/>
-        <v>1.8</v>
-      </c>
-      <c r="F7" s="20">
-        <f t="shared" si="3"/>
-        <v>2.25</v>
-      </c>
-      <c r="G7" s="20">
-        <f t="shared" si="4"/>
-        <v>2.7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>36</v>
-      </c>
-      <c r="B9">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>37</v>
-      </c>
-      <c r="B10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="M11" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="N11" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="O11" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="P11" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q11" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="R11" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="S11" s="13" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="12" spans="1:19" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="C12" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="D12" s="13">
-        <v>1</v>
-      </c>
-      <c r="E12" s="13">
-        <v>10</v>
-      </c>
-      <c r="F12" s="13">
-        <v>16</v>
-      </c>
-      <c r="M12" t="s">
-        <v>240</v>
-      </c>
-      <c r="N12" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="O12" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="P12" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="Q12" s="12" t="s">
-        <v>250</v>
-      </c>
-      <c r="R12" s="12" t="s">
-        <v>81</v>
-      </c>
-      <c r="S12" s="12" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="13" spans="1:19" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13" s="12">
-        <v>21</v>
-      </c>
-      <c r="C13" s="12">
-        <f>B13+$B$9*($B$10+1)*B5</f>
-        <v>100.19999999999999</v>
-      </c>
-      <c r="D13" s="12">
-        <v>26</v>
-      </c>
-      <c r="E13" s="12">
-        <v>71</v>
-      </c>
-      <c r="F13" s="12">
-        <v>100</v>
-      </c>
-      <c r="M13" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="N13" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="O13" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="P13" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q13" s="12" t="s">
-        <v>133</v>
-      </c>
-      <c r="R13" s="12" t="s">
-        <v>254</v>
-      </c>
-      <c r="S13" s="12" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="14" spans="1:19" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14" s="12">
-        <v>13</v>
-      </c>
-      <c r="C14" s="12">
-        <f>B14+$B$9*($B$10+1)*B6</f>
-        <v>65.800000000000011</v>
-      </c>
-      <c r="D14" s="12">
-        <v>16</v>
-      </c>
-      <c r="E14" s="12">
-        <v>46</v>
-      </c>
-      <c r="F14" s="12">
-        <v>65</v>
-      </c>
-      <c r="M14" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="N14" s="12" t="s">
-        <v>282</v>
-      </c>
-      <c r="O14" s="12" t="s">
-        <v>252</v>
-      </c>
-      <c r="P14" s="12" t="s">
-        <v>161</v>
-      </c>
-      <c r="Q14" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="R14" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="S14" s="12" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="15" spans="1:19" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="B15" s="12">
-        <v>8</v>
-      </c>
-      <c r="C15" s="12">
-        <f>B15+$B$9*($B$10+1)*B7</f>
-        <v>29.6</v>
-      </c>
-      <c r="D15" s="12">
-        <v>9</v>
-      </c>
-      <c r="E15" s="12">
-        <v>22</v>
-      </c>
-      <c r="F15" s="12">
-        <v>30</v>
-      </c>
-      <c r="M15" s="22" t="s">
-        <v>51</v>
-      </c>
-      <c r="N15" s="12" t="s">
-        <v>283</v>
-      </c>
-      <c r="O15" s="12" t="s">
-        <v>159</v>
-      </c>
-      <c r="P15" s="12" t="s">
-        <v>143</v>
-      </c>
-      <c r="Q15" s="12" t="s">
-        <v>284</v>
-      </c>
-      <c r="R15" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="S15" s="12" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="16" spans="1:19" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="B16" s="12">
-        <v>174</v>
-      </c>
-      <c r="C16" s="12">
-        <f>ROUNDDOWN(B16+C13*Common!$B$1,0)</f>
-        <v>1977</v>
-      </c>
-      <c r="D16" s="12">
-        <v>641</v>
-      </c>
-      <c r="E16" s="12">
-        <v>1443</v>
-      </c>
-      <c r="F16" s="12">
-        <v>1978</v>
-      </c>
-      <c r="M16" s="22" t="s">
-        <v>52</v>
-      </c>
-      <c r="N16" s="12" t="s">
-        <v>282</v>
-      </c>
-      <c r="O16" s="12" t="s">
-        <v>115</v>
-      </c>
-      <c r="P16" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="Q16" s="12" t="s">
-        <v>107</v>
-      </c>
-      <c r="R16" s="12" t="s">
-        <v>285</v>
-      </c>
-      <c r="S16" s="12" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="17" spans="1:19" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="B17" s="12">
-        <v>36</v>
-      </c>
-      <c r="C17" s="12">
-        <f>ROUND(B17+C13+C15*Common!$B$2,0)</f>
-        <v>148</v>
-      </c>
-      <c r="D17" s="12">
-        <v>66</v>
-      </c>
-      <c r="E17" s="12">
-        <v>116</v>
-      </c>
-      <c r="F17" s="12">
-        <v>148</v>
-      </c>
-      <c r="M17" s="22" t="s">
-        <v>53</v>
-      </c>
-      <c r="N17" s="12" t="s">
-        <v>149</v>
-      </c>
-      <c r="O17" s="12" t="s">
-        <v>160</v>
-      </c>
-      <c r="P17" s="12" t="s">
-        <v>151</v>
-      </c>
-      <c r="Q17" s="12" t="s">
-        <v>117</v>
-      </c>
-      <c r="R17" s="12" t="s">
-        <v>132</v>
-      </c>
-      <c r="S17" s="12" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="18" spans="1:19" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="B18" s="12">
-        <v>0</v>
-      </c>
-      <c r="C18" s="12">
-        <f>ROUND(B18+C14*Common!$B$3,0)</f>
-        <v>158</v>
-      </c>
-      <c r="D18" s="12">
-        <v>38</v>
-      </c>
-      <c r="E18" s="12">
-        <v>109</v>
-      </c>
-      <c r="F18" s="12">
-        <v>157</v>
-      </c>
-      <c r="M18" s="21" t="s">
-        <v>54</v>
-      </c>
-      <c r="N18" s="12" t="s">
-        <v>114</v>
-      </c>
-      <c r="O18" s="12" t="s">
-        <v>130</v>
-      </c>
-      <c r="P18" s="12" t="s">
-        <v>105</v>
-      </c>
-      <c r="Q18" s="12" t="s">
-        <v>111</v>
-      </c>
-      <c r="R18" s="12" t="s">
-        <v>152</v>
-      </c>
-      <c r="S18" s="12" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="19" spans="1:19" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="B19" s="15">
-        <v>0</v>
-      </c>
-      <c r="C19" s="16">
-        <f>B19+C13/7+C15/14</f>
-        <v>16.428571428571427</v>
-      </c>
-      <c r="D19" s="16">
-        <v>2</v>
-      </c>
-      <c r="E19" s="16">
-        <v>9</v>
-      </c>
-      <c r="F19" s="16">
-        <v>15</v>
-      </c>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
-      <c r="I19" s="3"/>
-      <c r="M19" s="21" t="s">
-        <v>55</v>
-      </c>
-      <c r="N19" s="12" t="s">
-        <v>157</v>
-      </c>
-      <c r="O19" s="12" t="s">
-        <v>118</v>
-      </c>
-      <c r="P19" s="12" t="s">
-        <v>286</v>
-      </c>
-      <c r="Q19" s="12" t="s">
-        <v>255</v>
-      </c>
-      <c r="R19" s="12" t="s">
-        <v>133</v>
-      </c>
-      <c r="S19" s="12" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="20" spans="1:19" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="B20" s="12">
-        <v>0</v>
-      </c>
-      <c r="C20" s="12">
-        <f>ROUND(C14*Common!$B$4,0)</f>
-        <v>7</v>
-      </c>
-      <c r="D20" s="12">
-        <v>2</v>
-      </c>
-      <c r="E20" s="12">
-        <v>5</v>
-      </c>
-      <c r="F20" s="12">
-        <v>7</v>
-      </c>
-      <c r="M20" s="21" t="s">
-        <v>123</v>
-      </c>
-      <c r="N20" s="12" t="s">
-        <v>125</v>
-      </c>
-      <c r="O20" s="12" t="s">
-        <v>287</v>
-      </c>
-      <c r="P20" s="12" t="s">
-        <v>115</v>
-      </c>
-      <c r="Q20" s="12" t="s">
-        <v>110</v>
-      </c>
-      <c r="R20" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="S20" s="12" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="21" spans="1:19" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="B21" s="12">
-        <v>0</v>
-      </c>
-      <c r="C21" s="12">
-        <f>C15*Common!$B$5</f>
-        <v>11.840000000000002</v>
-      </c>
-      <c r="D21" s="12">
-        <v>4</v>
-      </c>
-      <c r="E21" s="12">
-        <v>9</v>
-      </c>
-      <c r="F21" s="12">
-        <v>12</v>
-      </c>
-      <c r="M21" s="21" t="s">
-        <v>124</v>
-      </c>
-      <c r="N21" s="12" t="s">
-        <v>120</v>
-      </c>
-      <c r="O21" s="12" t="s">
-        <v>128</v>
-      </c>
-      <c r="P21" s="12" t="s">
-        <v>193</v>
-      </c>
-      <c r="Q21" s="12" t="s">
-        <v>283</v>
-      </c>
-      <c r="R21" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="S21" s="12" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="22" spans="1:19" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A24" s="24" t="s">
-        <v>270</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D38" sqref="D38"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S22"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M4" sqref="M4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="10" customWidth="1"/>
-    <col min="2" max="2" width="9" customWidth="1"/>
-    <col min="3" max="3" width="11.28515625" customWidth="1"/>
-    <col min="4" max="4" width="8.28515625" customWidth="1"/>
-    <col min="5" max="5" width="9.42578125" customWidth="1"/>
-    <col min="6" max="6" width="10.140625" customWidth="1"/>
-    <col min="7" max="7" width="11.5703125" customWidth="1"/>
-    <col min="8" max="8" width="6.85546875" customWidth="1"/>
-    <col min="9" max="9" width="9" customWidth="1"/>
-    <col min="10" max="10" width="10" customWidth="1"/>
-    <col min="12" max="12" width="8.140625" customWidth="1"/>
-    <col min="13" max="13" width="17.7109375" customWidth="1"/>
-    <col min="14" max="14" width="19.140625" customWidth="1"/>
-    <col min="15" max="15" width="16.7109375" customWidth="1"/>
-    <col min="16" max="16" width="12.28515625" customWidth="1"/>
-    <col min="17" max="17" width="13.5703125" customWidth="1"/>
-    <col min="18" max="18" width="16" customWidth="1"/>
-    <col min="19" max="19" width="17.42578125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>13</v>
-      </c>
-      <c r="M1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="M3" s="9" t="s">
-        <v>259</v>
-      </c>
-      <c r="N3" s="12"/>
-      <c r="O3" s="12"/>
-      <c r="P3" s="12"/>
-      <c r="Q3" s="12"/>
-      <c r="R3" s="12"/>
-      <c r="S3" s="12"/>
-    </row>
-    <row r="4" spans="1:19" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="C4" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="F4" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="G4" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="M4" s="8" t="s">
-        <v>248</v>
-      </c>
-      <c r="N4" s="12"/>
-      <c r="O4" s="12"/>
-      <c r="P4" s="12"/>
-      <c r="Q4" s="12"/>
-      <c r="R4" s="12"/>
-      <c r="S4" s="12"/>
-    </row>
-    <row r="5" spans="1:19" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="20">
-        <v>0.8</v>
-      </c>
-      <c r="C5" s="20">
-        <f>B5*2</f>
-        <v>1.6</v>
-      </c>
-      <c r="D5" s="20">
-        <f>B5*3</f>
-        <v>2.4000000000000004</v>
-      </c>
-      <c r="E5" s="20">
-        <f>B5*4</f>
-        <v>3.2</v>
-      </c>
-      <c r="F5" s="20">
-        <f>B5*5</f>
-        <v>4</v>
-      </c>
-      <c r="G5" s="20">
-        <f>B5*6</f>
-        <v>4.8000000000000007</v>
-      </c>
-      <c r="M5" s="22" t="s">
-        <v>157</v>
-      </c>
-      <c r="N5" s="12"/>
-      <c r="O5" s="12"/>
-      <c r="P5" s="12"/>
-      <c r="Q5" s="12"/>
-      <c r="R5" s="12"/>
-      <c r="S5" s="12"/>
-    </row>
-    <row r="6" spans="1:19" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="20">
-        <v>1.65</v>
-      </c>
-      <c r="C6" s="20">
-        <f t="shared" ref="C6:C7" si="0">B6*2</f>
-        <v>3.3</v>
-      </c>
-      <c r="D6" s="20">
-        <f t="shared" ref="D6:D7" si="1">B6*3</f>
-        <v>4.9499999999999993</v>
-      </c>
-      <c r="E6" s="20">
-        <f t="shared" ref="E6:E7" si="2">B6*4</f>
-        <v>6.6</v>
-      </c>
-      <c r="F6" s="20">
-        <f t="shared" ref="F6:F7" si="3">B6*5</f>
-        <v>8.25</v>
-      </c>
-      <c r="G6" s="20">
-        <f t="shared" ref="G6:G7" si="4">B6*6</f>
-        <v>9.8999999999999986</v>
-      </c>
-      <c r="M6" s="21" t="s">
-        <v>249</v>
-      </c>
-      <c r="N6" s="12"/>
-      <c r="O6" s="12"/>
-      <c r="P6" s="12"/>
-      <c r="Q6" s="12"/>
-      <c r="R6" s="12"/>
-      <c r="S6" s="12"/>
-    </row>
-    <row r="7" spans="1:19" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" s="20">
-        <v>1</v>
-      </c>
-      <c r="C7" s="20">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="D7" s="20">
-        <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="E7" s="20">
-        <f t="shared" si="2"/>
-        <v>4</v>
-      </c>
-      <c r="F7" s="20">
-        <f t="shared" si="3"/>
-        <v>5</v>
-      </c>
-      <c r="G7" s="20">
-        <f t="shared" si="4"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>36</v>
-      </c>
-      <c r="B9">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>37</v>
-      </c>
-      <c r="B10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="M11" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="N11" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="O11" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="P11" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q11" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="R11" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="S11" s="13" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="12" spans="1:19" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="C12" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="D12" s="13">
-        <v>1</v>
-      </c>
-      <c r="E12" s="13">
-        <v>10</v>
-      </c>
-      <c r="F12" s="13">
-        <v>16</v>
-      </c>
-      <c r="M12" t="s">
-        <v>240</v>
-      </c>
-      <c r="N12" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="O12" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="P12" s="12" t="s">
-        <v>250</v>
-      </c>
-      <c r="Q12" s="12" t="s">
-        <v>81</v>
-      </c>
-      <c r="R12" s="12" t="s">
-        <v>131</v>
-      </c>
-      <c r="S12" s="12" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="13" spans="1:19" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13" s="12">
-        <v>16</v>
-      </c>
-      <c r="C13" s="12">
-        <f>B13+$B$9*($B$10+1)*B5</f>
-        <v>40</v>
-      </c>
-      <c r="D13" s="12">
-        <v>19</v>
-      </c>
-      <c r="E13" s="12">
-        <v>40</v>
-      </c>
-      <c r="F13" s="12">
-        <v>55</v>
-      </c>
-      <c r="M13" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="N13" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="O13" s="12" t="s">
-        <v>83</v>
-      </c>
-      <c r="P13" s="12" t="s">
-        <v>133</v>
-      </c>
-      <c r="Q13" s="12" t="s">
-        <v>133</v>
-      </c>
-      <c r="R13" s="12" t="s">
-        <v>132</v>
-      </c>
-      <c r="S13" s="12" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="14" spans="1:19" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14" s="12">
-        <v>15</v>
-      </c>
-      <c r="C14" s="12">
-        <f>B14+$B$9*($B$10+1)*B6</f>
-        <v>64.5</v>
-      </c>
-      <c r="D14" s="12">
-        <v>20</v>
-      </c>
-      <c r="E14" s="12">
-        <v>64</v>
-      </c>
-      <c r="F14" s="12">
-        <v>94</v>
-      </c>
-      <c r="M14" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="N14" s="12" t="s">
-        <v>134</v>
-      </c>
-      <c r="O14" s="12" t="s">
-        <v>135</v>
-      </c>
-      <c r="P14" s="12" t="s">
-        <v>252</v>
-      </c>
-      <c r="Q14" s="12" t="s">
-        <v>251</v>
-      </c>
-      <c r="R14" s="12" t="s">
-        <v>133</v>
-      </c>
-      <c r="S14" s="12" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="15" spans="1:19" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="B15" s="12">
-        <v>13</v>
-      </c>
-      <c r="C15" s="12">
-        <f>B15+$B$9*($B$10+1)*B7</f>
-        <v>43</v>
-      </c>
-      <c r="D15" s="12">
-        <v>16</v>
-      </c>
-      <c r="E15" s="12">
-        <v>43</v>
-      </c>
-      <c r="F15" s="12">
-        <v>61</v>
-      </c>
-      <c r="M15" s="22" t="s">
-        <v>51</v>
-      </c>
-      <c r="N15" s="12" t="s">
-        <v>137</v>
-      </c>
-      <c r="O15" s="12" t="s">
-        <v>151</v>
-      </c>
-      <c r="P15" s="12" t="s">
-        <v>253</v>
-      </c>
-      <c r="Q15" s="12" t="s">
-        <v>158</v>
-      </c>
-      <c r="R15" s="12" t="s">
-        <v>254</v>
-      </c>
-      <c r="S15" s="12" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="16" spans="1:19" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="B16" s="12">
-        <v>175</v>
-      </c>
-      <c r="C16" s="12">
-        <f>ROUNDDOWN(B16+C13*Common!$B$1,0)</f>
-        <v>895</v>
-      </c>
-      <c r="D16" s="12">
-        <v>506</v>
-      </c>
-      <c r="E16" s="12">
-        <v>895</v>
-      </c>
-      <c r="F16" s="12">
-        <v>1154</v>
-      </c>
-      <c r="M16" s="22" t="s">
-        <v>52</v>
-      </c>
-      <c r="N16" s="12" t="s">
-        <v>159</v>
-      </c>
-      <c r="O16" s="12" t="s">
-        <v>255</v>
-      </c>
-      <c r="P16" s="12" t="s">
-        <v>188</v>
-      </c>
-      <c r="Q16" s="12" t="s">
-        <v>140</v>
-      </c>
-      <c r="R16" s="12" t="s">
-        <v>113</v>
-      </c>
-      <c r="S16" s="12" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="17" spans="1:19" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="B17" s="12">
-        <v>28</v>
-      </c>
-      <c r="C17" s="12">
-        <f>ROUND(B17+C14+C15*Common!$B$2,0)</f>
-        <v>110</v>
-      </c>
-      <c r="D17" s="12">
-        <v>49</v>
-      </c>
-      <c r="E17" s="12">
-        <v>104</v>
-      </c>
-      <c r="F17" s="12">
-        <v>141</v>
-      </c>
-      <c r="M17" s="22" t="s">
-        <v>53</v>
-      </c>
-      <c r="N17" s="12" t="s">
-        <v>134</v>
-      </c>
-      <c r="O17" s="12" t="s">
-        <v>166</v>
-      </c>
-      <c r="P17" s="12" t="s">
-        <v>143</v>
-      </c>
-      <c r="Q17" s="12" t="s">
-        <v>137</v>
-      </c>
-      <c r="R17" s="12" t="s">
-        <v>107</v>
-      </c>
-      <c r="S17" s="12" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="18" spans="1:19" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="B18" s="12">
-        <v>0</v>
-      </c>
-      <c r="C18" s="12">
-        <f>ROUND(B18+C14*Common!$B$3,0)</f>
-        <v>155</v>
-      </c>
-      <c r="D18" s="12">
-        <v>47</v>
-      </c>
-      <c r="E18" s="12">
-        <v>154</v>
-      </c>
-      <c r="F18" s="12">
-        <v>225</v>
-      </c>
-      <c r="M18" s="21" t="s">
-        <v>54</v>
-      </c>
-      <c r="N18" s="12" t="s">
-        <v>126</v>
-      </c>
-      <c r="O18" s="12" t="s">
-        <v>149</v>
-      </c>
-      <c r="P18" s="12" t="s">
-        <v>117</v>
-      </c>
-      <c r="Q18" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="R18" s="12" t="s">
-        <v>256</v>
-      </c>
-      <c r="S18" s="12" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="19" spans="1:19" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="B19" s="15">
-        <v>0</v>
-      </c>
-      <c r="C19" s="16">
-        <f>B19+C13/7+C15/14</f>
-        <v>8.7857142857142865</v>
-      </c>
-      <c r="D19" s="16">
-        <v>3</v>
-      </c>
-      <c r="E19" s="16">
-        <v>8</v>
-      </c>
-      <c r="F19" s="16">
-        <v>12</v>
-      </c>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
-      <c r="I19" s="3"/>
-      <c r="M19" s="21" t="s">
-        <v>55</v>
-      </c>
-      <c r="N19" s="12" t="s">
-        <v>157</v>
-      </c>
-      <c r="O19" s="12" t="s">
-        <v>121</v>
-      </c>
-      <c r="P19" s="12" t="s">
-        <v>156</v>
-      </c>
-      <c r="Q19" s="12" t="s">
-        <v>242</v>
-      </c>
-      <c r="R19" s="12" t="s">
-        <v>252</v>
-      </c>
-      <c r="S19" s="12" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="20" spans="1:19" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="B20" s="12">
-        <v>0</v>
-      </c>
-      <c r="C20" s="12">
-        <f>ROUND(C14*Common!$B$4,0)</f>
-        <v>6</v>
-      </c>
-      <c r="D20" s="12">
-        <v>2</v>
-      </c>
-      <c r="E20" s="12">
-        <v>6</v>
-      </c>
-      <c r="F20" s="12">
-        <v>9</v>
-      </c>
-      <c r="M20" s="21" t="s">
-        <v>123</v>
-      </c>
-      <c r="N20" s="12" t="s">
-        <v>164</v>
-      </c>
-      <c r="O20" s="12" t="s">
-        <v>166</v>
-      </c>
-      <c r="P20" s="12" t="s">
-        <v>189</v>
-      </c>
-      <c r="Q20" s="12" t="s">
-        <v>258</v>
-      </c>
-      <c r="R20" s="12" t="s">
-        <v>103</v>
-      </c>
-      <c r="S20" s="12" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="21" spans="1:19" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="B21" s="12">
-        <v>0</v>
-      </c>
-      <c r="C21" s="12">
-        <f>C15*Common!$B$5</f>
-        <v>17.2</v>
-      </c>
-      <c r="D21" s="12">
-        <v>6</v>
-      </c>
-      <c r="E21" s="12">
-        <v>17</v>
-      </c>
-      <c r="F21" s="12">
-        <v>24</v>
-      </c>
-      <c r="M21" s="21" t="s">
-        <v>124</v>
-      </c>
-      <c r="N21" s="12" t="s">
-        <v>167</v>
-      </c>
-      <c r="O21" s="12" t="s">
-        <v>190</v>
-      </c>
-      <c r="P21" s="12" t="s">
-        <v>149</v>
-      </c>
-      <c r="Q21" s="12" t="s">
-        <v>137</v>
-      </c>
-      <c r="R21" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="S21" s="12" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="22" spans="1:19" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S22"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="10" customWidth="1"/>
-    <col min="2" max="2" width="12" customWidth="1"/>
-    <col min="3" max="3" width="10.42578125" customWidth="1"/>
-    <col min="4" max="4" width="8.28515625" customWidth="1"/>
-    <col min="5" max="5" width="7.85546875" customWidth="1"/>
-    <col min="6" max="6" width="10.28515625" customWidth="1"/>
-    <col min="7" max="7" width="10.5703125" customWidth="1"/>
-    <col min="8" max="8" width="6.85546875" customWidth="1"/>
-    <col min="9" max="9" width="9" customWidth="1"/>
-    <col min="10" max="10" width="10" customWidth="1"/>
-    <col min="12" max="12" width="8.140625" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" customWidth="1"/>
-    <col min="14" max="14" width="19.140625" customWidth="1"/>
-    <col min="15" max="15" width="13.5703125" customWidth="1"/>
-    <col min="16" max="16" width="18.7109375" customWidth="1"/>
-    <col min="17" max="17" width="23.140625" customWidth="1"/>
-    <col min="18" max="18" width="16" customWidth="1"/>
-    <col min="19" max="19" width="15.28515625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>12</v>
-      </c>
-      <c r="M1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="M3" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="N3" t="s">
-        <v>88</v>
-      </c>
-      <c r="O3">
-        <f>B9</f>
-        <v>10</v>
-      </c>
-      <c r="P3" t="s">
-        <v>89</v>
-      </c>
-      <c r="Q3">
-        <f>15*$B$9</f>
-        <v>150</v>
-      </c>
-      <c r="R3" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="C4" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="F4" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="G4" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="M4" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="N4" t="s">
-        <v>88</v>
-      </c>
-      <c r="O4">
-        <f>$B$9</f>
-        <v>10</v>
-      </c>
-      <c r="P4" t="s">
-        <v>89</v>
-      </c>
-      <c r="Q4">
-        <f>B9*12</f>
-        <v>120</v>
-      </c>
-      <c r="R4" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="5" spans="1:19" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="20">
-        <v>1.65</v>
-      </c>
-      <c r="C5" s="20">
-        <f>B5*2</f>
-        <v>3.3</v>
-      </c>
-      <c r="D5" s="20">
-        <f>B5*3</f>
-        <v>4.9499999999999993</v>
-      </c>
-      <c r="E5" s="20">
-        <f>B5*4</f>
-        <v>6.6</v>
-      </c>
-      <c r="F5" s="20">
-        <f>B5*5</f>
-        <v>8.25</v>
-      </c>
-      <c r="G5" s="20">
-        <f>B5*6</f>
-        <v>9.8999999999999986</v>
-      </c>
-      <c r="M5" s="22" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="6" spans="1:19" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="20">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="C6" s="20">
-        <f t="shared" ref="C6:C7" si="0">B6*2</f>
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="D6" s="20">
-        <f t="shared" ref="D6:D7" si="1">B6*3</f>
-        <v>3.3000000000000003</v>
-      </c>
-      <c r="E6" s="20">
-        <f t="shared" ref="E6:E7" si="2">B6*4</f>
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="F6" s="20">
-        <f t="shared" ref="F6:F7" si="3">B6*5</f>
-        <v>5.5</v>
-      </c>
-      <c r="G6" s="20">
-        <f t="shared" ref="G6:G7" si="4">B6*6</f>
-        <v>6.6000000000000005</v>
-      </c>
-      <c r="M6" s="21" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="7" spans="1:19" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" s="20">
-        <v>0.65</v>
-      </c>
-      <c r="C7" s="20">
-        <f t="shared" si="0"/>
-        <v>1.3</v>
-      </c>
-      <c r="D7" s="20">
-        <f t="shared" si="1"/>
-        <v>1.9500000000000002</v>
-      </c>
-      <c r="E7" s="20">
-        <f t="shared" si="2"/>
-        <v>2.6</v>
-      </c>
-      <c r="F7" s="20">
-        <f t="shared" si="3"/>
-        <v>3.25</v>
-      </c>
-      <c r="G7" s="20">
-        <f t="shared" si="4"/>
-        <v>3.9000000000000004</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>36</v>
-      </c>
-      <c r="B9">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>37</v>
-      </c>
-      <c r="B10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="M11" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="N11" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="O11" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="P11" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q11" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="R11" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="S11" s="13" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="12" spans="1:19" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="B12" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="C12" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="D12" s="13">
-        <v>1</v>
-      </c>
-      <c r="E12" s="13">
-        <v>2</v>
-      </c>
-      <c r="F12" s="13">
-        <v>10</v>
-      </c>
-      <c r="M12" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="N12" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="O12" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="P12" s="12" t="s">
-        <v>79</v>
-      </c>
-      <c r="Q12" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="R12" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="S12" s="12" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="13" spans="1:19" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13" s="12">
-        <v>21</v>
-      </c>
-      <c r="C13" s="12">
-        <f>B13+$B$9*($B$10+1)*B5</f>
-        <v>54</v>
-      </c>
-      <c r="D13" s="12">
-        <v>24</v>
-      </c>
-      <c r="E13" s="12">
-        <v>28</v>
-      </c>
-      <c r="F13" s="12">
-        <v>54</v>
-      </c>
-      <c r="M13" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="N13" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="O13" s="12" t="s">
-        <v>81</v>
-      </c>
-      <c r="P13" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="Q13" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="R13" s="12" t="s">
-        <v>83</v>
-      </c>
-      <c r="S13" s="12" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="14" spans="1:19" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14" s="12">
-        <v>16</v>
-      </c>
-      <c r="C14" s="12">
-        <f>B14+$B$9*($B$10+1)*B6</f>
-        <v>38</v>
-      </c>
-      <c r="D14" s="12">
-        <v>18</v>
-      </c>
-      <c r="E14" s="12">
-        <v>20</v>
-      </c>
-      <c r="F14" s="12">
-        <v>38</v>
-      </c>
-      <c r="M14" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="N14" s="12" t="s">
-        <v>102</v>
-      </c>
-      <c r="O14" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="P14" s="12" t="s">
-        <v>83</v>
-      </c>
-      <c r="Q14" s="12" t="s">
-        <v>83</v>
-      </c>
-      <c r="R14" s="12" t="s">
-        <v>103</v>
-      </c>
-      <c r="S14" s="12" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="15" spans="1:19" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="B15" s="12">
-        <v>13</v>
-      </c>
-      <c r="C15" s="12">
-        <f>B15+$B$9*($B$10+1)*B7</f>
-        <v>26</v>
-      </c>
-      <c r="D15" s="12">
-        <v>14</v>
-      </c>
-      <c r="E15" s="12">
-        <v>16</v>
-      </c>
-      <c r="F15" s="12">
-        <v>26</v>
-      </c>
-      <c r="M15" s="22" t="s">
-        <v>51</v>
-      </c>
-      <c r="N15" s="12" t="s">
-        <v>105</v>
-      </c>
-      <c r="O15" s="12" t="s">
-        <v>106</v>
-      </c>
-      <c r="P15" s="12" t="s">
-        <v>107</v>
-      </c>
-      <c r="Q15" s="12" t="s">
-        <v>108</v>
-      </c>
-      <c r="R15" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="S15" s="12" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="16" spans="1:19" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="B16" s="12">
-        <v>174</v>
-      </c>
-      <c r="C16" s="12">
-        <f>ROUNDDOWN(B16+C13*Common!$B$1,0)</f>
-        <v>1146</v>
-      </c>
-      <c r="D16" s="12">
-        <v>611</v>
-      </c>
-      <c r="E16" s="12">
-        <v>671</v>
-      </c>
-      <c r="F16" s="12">
-        <v>1146</v>
-      </c>
-      <c r="M16" s="22" t="s">
-        <v>52</v>
-      </c>
-      <c r="N16" s="12" t="s">
-        <v>110</v>
-      </c>
-      <c r="O16" s="12" t="s">
-        <v>111</v>
-      </c>
-      <c r="P16" s="12" t="s">
-        <v>112</v>
-      </c>
-      <c r="Q16" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="R16" s="12" t="s">
-        <v>113</v>
-      </c>
-      <c r="S16" s="12" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="17" spans="1:19" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="B17" s="12">
-        <v>23</v>
-      </c>
-      <c r="C17" s="12">
-        <f>ROUND(B17+C13+C15*Common!$B$2,0)</f>
-        <v>87</v>
-      </c>
-      <c r="D17" s="12">
-        <v>52</v>
-      </c>
-      <c r="E17" s="12">
-        <v>56</v>
-      </c>
-      <c r="F17" s="12">
-        <v>87</v>
-      </c>
-      <c r="M17" s="22" t="s">
-        <v>53</v>
-      </c>
-      <c r="N17" s="12" t="s">
-        <v>114</v>
-      </c>
-      <c r="O17" s="12" t="s">
-        <v>115</v>
-      </c>
-      <c r="P17" s="12" t="s">
-        <v>116</v>
-      </c>
-      <c r="Q17" s="12" t="s">
-        <v>117</v>
-      </c>
-      <c r="R17" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="S17" s="12" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="18" spans="1:19" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="B18" s="12">
-        <v>0</v>
-      </c>
-      <c r="C18" s="12">
-        <f>ROUND(B18+C14*Common!$B$3,0)</f>
-        <v>91</v>
-      </c>
-      <c r="D18" s="12">
-        <v>44</v>
-      </c>
-      <c r="E18" s="12">
-        <v>49</v>
-      </c>
-      <c r="F18" s="12">
-        <v>91</v>
-      </c>
-      <c r="M18" s="21" t="s">
-        <v>54</v>
-      </c>
-      <c r="N18" s="12" t="s">
-        <v>118</v>
-      </c>
-      <c r="O18" s="12" t="s">
-        <v>110</v>
-      </c>
-      <c r="P18" s="12" t="s">
-        <v>105</v>
-      </c>
-      <c r="Q18" s="12" t="s">
-        <v>102</v>
-      </c>
-      <c r="R18" s="12" t="s">
-        <v>108</v>
-      </c>
-      <c r="S18" s="12" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="19" spans="1:19" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="B19" s="17">
-        <v>3</v>
-      </c>
-      <c r="C19" s="18">
-        <f>B19+C13/7+C15/14</f>
-        <v>12.571428571428573</v>
-      </c>
-      <c r="D19" s="18">
-        <v>3</v>
-      </c>
-      <c r="E19" s="18">
-        <v>4</v>
-      </c>
-      <c r="F19" s="18">
-        <v>9</v>
-      </c>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
-      <c r="I19" s="3"/>
-      <c r="M19" s="21" t="s">
-        <v>55</v>
-      </c>
-      <c r="N19" s="12" t="s">
-        <v>120</v>
-      </c>
-      <c r="O19" s="12" t="s">
-        <v>121</v>
-      </c>
-      <c r="P19" s="12" t="s">
-        <v>111</v>
-      </c>
-      <c r="Q19" s="12" t="s">
-        <v>122</v>
-      </c>
-      <c r="R19" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="S19" s="12" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="20" spans="1:19" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="B20" s="12">
-        <v>0</v>
-      </c>
-      <c r="C20" s="12">
-        <f>ROUND(C14*Common!$B$4,0)</f>
-        <v>4</v>
-      </c>
-      <c r="D20" s="12">
-        <v>2</v>
-      </c>
-      <c r="E20" s="12">
-        <v>2</v>
-      </c>
-      <c r="F20" s="12">
-        <v>4</v>
-      </c>
-      <c r="M20" s="21" t="s">
-        <v>123</v>
-      </c>
-      <c r="N20" s="12" t="s">
-        <v>125</v>
-      </c>
-      <c r="O20" s="12" t="s">
-        <v>126</v>
-      </c>
-      <c r="P20" s="12" t="s">
-        <v>115</v>
-      </c>
-      <c r="Q20" s="12" t="s">
-        <v>127</v>
-      </c>
-      <c r="R20" s="12" t="s">
-        <v>117</v>
-      </c>
-      <c r="S20" s="12" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="21" spans="1:19" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="B21" s="12">
-        <v>0</v>
-      </c>
-      <c r="C21" s="12">
-        <f>C15*Common!$B$5</f>
-        <v>10.4</v>
-      </c>
-      <c r="D21" s="12">
-        <v>6</v>
-      </c>
-      <c r="E21" s="12">
-        <v>6</v>
-      </c>
-      <c r="F21" s="12">
-        <v>10</v>
-      </c>
-      <c r="M21" s="21" t="s">
-        <v>124</v>
-      </c>
-      <c r="N21" s="12" t="s">
-        <v>128</v>
-      </c>
-      <c r="O21" s="12" t="s">
-        <v>129</v>
-      </c>
-      <c r="P21" s="12" t="s">
-        <v>130</v>
-      </c>
-      <c r="Q21" s="12" t="s">
-        <v>105</v>
-      </c>
-      <c r="R21" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="S21" s="12" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="22" spans="1:19" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S33"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F29" sqref="A1:XFD1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="10" customWidth="1"/>
-    <col min="2" max="2" width="9" customWidth="1"/>
-    <col min="3" max="3" width="11.28515625" customWidth="1"/>
-    <col min="4" max="4" width="8.28515625" customWidth="1"/>
-    <col min="5" max="5" width="9.42578125" customWidth="1"/>
-    <col min="6" max="6" width="10.140625" customWidth="1"/>
-    <col min="7" max="7" width="11.5703125" customWidth="1"/>
-    <col min="8" max="8" width="6.85546875" customWidth="1"/>
-    <col min="9" max="9" width="9" customWidth="1"/>
-    <col min="10" max="10" width="10" customWidth="1"/>
-    <col min="12" max="12" width="8.140625" customWidth="1"/>
-    <col min="13" max="13" width="11.85546875" customWidth="1"/>
-    <col min="14" max="14" width="19.140625" customWidth="1"/>
-    <col min="15" max="15" width="16.7109375" customWidth="1"/>
-    <col min="16" max="16" width="12.28515625" customWidth="1"/>
-    <col min="17" max="17" width="13.5703125" customWidth="1"/>
-    <col min="18" max="18" width="16" customWidth="1"/>
-    <col min="19" max="19" width="21.42578125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>13</v>
-      </c>
-      <c r="M1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="M3" s="9" t="s">
-        <v>173</v>
-      </c>
-      <c r="N3" s="12" t="s">
-        <v>178</v>
-      </c>
-      <c r="O3" s="12">
-        <f>B9*5</f>
-        <v>50</v>
-      </c>
-      <c r="P3" s="12"/>
-      <c r="Q3" s="12" t="s">
-        <v>177</v>
-      </c>
-      <c r="R3" s="12"/>
-      <c r="S3" s="12"/>
-    </row>
-    <row r="4" spans="1:19" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="C4" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="F4" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="G4" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="M4" s="8" t="s">
-        <v>174</v>
-      </c>
-      <c r="N4" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="O4" s="12">
-        <f>11*B9</f>
-        <v>110</v>
-      </c>
-      <c r="P4" s="12"/>
-      <c r="Q4" s="12" t="s">
-        <v>179</v>
-      </c>
-      <c r="R4" s="12"/>
-      <c r="S4" s="12"/>
-    </row>
-    <row r="5" spans="1:19" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="20">
-        <v>0.6</v>
-      </c>
-      <c r="C5" s="20">
-        <f>B5*2</f>
-        <v>1.2</v>
-      </c>
-      <c r="D5" s="20">
-        <f>B5*3</f>
-        <v>1.7999999999999998</v>
-      </c>
-      <c r="E5" s="20">
-        <f>B5*4</f>
-        <v>2.4</v>
-      </c>
-      <c r="F5" s="20">
-        <f>B5*5</f>
-        <v>3</v>
-      </c>
-      <c r="G5" s="20">
-        <f>B5*6</f>
-        <v>3.5999999999999996</v>
-      </c>
-      <c r="M5" s="22" t="s">
-        <v>175</v>
-      </c>
-      <c r="N5" s="12" t="s">
-        <v>214</v>
-      </c>
-      <c r="O5" s="12">
-        <f>B9</f>
-        <v>10</v>
-      </c>
-      <c r="P5" s="12"/>
-      <c r="Q5" s="12" t="s">
-        <v>218</v>
-      </c>
-      <c r="R5" s="12"/>
-      <c r="S5" s="12"/>
-    </row>
-    <row r="6" spans="1:19" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="20">
-        <v>1.5</v>
-      </c>
-      <c r="C6" s="20">
-        <f t="shared" ref="C6:C7" si="0">B6*2</f>
-        <v>3</v>
-      </c>
-      <c r="D6" s="20">
-        <f t="shared" ref="D6:D7" si="1">B6*3</f>
-        <v>4.5</v>
-      </c>
-      <c r="E6" s="20">
-        <f t="shared" ref="E6:E7" si="2">B6*4</f>
-        <v>6</v>
-      </c>
-      <c r="F6" s="20">
-        <f t="shared" ref="F6:F7" si="3">B6*5</f>
-        <v>7.5</v>
-      </c>
-      <c r="G6" s="20">
-        <f t="shared" ref="G6:G7" si="4">B6*6</f>
-        <v>9</v>
-      </c>
-      <c r="M6" s="21" t="s">
-        <v>176</v>
-      </c>
-      <c r="N6" s="12" t="s">
-        <v>219</v>
-      </c>
-      <c r="O6" s="12">
-        <f>B9*0.5</f>
-        <v>5</v>
-      </c>
-      <c r="P6" s="12"/>
-      <c r="Q6" s="12" t="s">
-        <v>220</v>
-      </c>
-      <c r="R6" s="12"/>
-      <c r="S6" s="12"/>
-    </row>
-    <row r="7" spans="1:19" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" s="20">
-        <v>1</v>
-      </c>
-      <c r="C7" s="20">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="D7" s="20">
-        <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="E7" s="20">
-        <f t="shared" si="2"/>
-        <v>4</v>
-      </c>
-      <c r="F7" s="20">
-        <f t="shared" si="3"/>
-        <v>5</v>
-      </c>
-      <c r="G7" s="20">
-        <f t="shared" si="4"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>36</v>
-      </c>
-      <c r="B9">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>37</v>
-      </c>
-      <c r="B10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="M11" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="N11" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="O11" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="P11" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q11" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="R11" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="S11" s="13" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="12" spans="1:19" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="C12" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="D12" s="13">
-        <v>1</v>
-      </c>
-      <c r="E12" s="13">
-        <v>10</v>
-      </c>
-      <c r="M12" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="N12" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="O12" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="P12" s="12" t="s">
-        <v>81</v>
-      </c>
-      <c r="Q12" s="12" t="s">
-        <v>81</v>
-      </c>
-      <c r="R12" s="12" t="s">
-        <v>131</v>
-      </c>
-      <c r="S12" s="12" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="13" spans="1:19" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13" s="12">
-        <v>15</v>
-      </c>
-      <c r="C13" s="12">
-        <f>B13+$B$9*($B$10+1)*B5</f>
-        <v>27</v>
-      </c>
-      <c r="D13" s="12">
-        <v>16</v>
-      </c>
-      <c r="E13" s="12">
-        <v>27</v>
-      </c>
-      <c r="M13" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="N13" s="12" t="s">
-        <v>132</v>
-      </c>
-      <c r="O13" s="12" t="s">
-        <v>133</v>
-      </c>
-      <c r="P13" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="Q13" s="12" t="s">
-        <v>103</v>
-      </c>
-      <c r="R13" s="12" t="s">
-        <v>83</v>
-      </c>
-      <c r="S13" s="12" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="14" spans="1:19" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14" s="12">
-        <v>13</v>
-      </c>
-      <c r="C14" s="12">
-        <f>B14+$B$9*($B$10+1)*B6</f>
-        <v>43</v>
-      </c>
-      <c r="D14" s="12">
-        <v>16</v>
-      </c>
-      <c r="E14" s="12">
-        <v>43</v>
-      </c>
-      <c r="M14" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="N14" s="12" t="s">
-        <v>134</v>
-      </c>
-      <c r="O14" s="12" t="s">
-        <v>135</v>
-      </c>
-      <c r="P14" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="Q14" s="12" t="s">
-        <v>136</v>
-      </c>
-      <c r="R14" s="12" t="s">
-        <v>131</v>
-      </c>
-      <c r="S14" s="12" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="15" spans="1:19" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="B15" s="12">
-        <v>17</v>
-      </c>
-      <c r="C15" s="12">
-        <f>B15+$B$9*($B$10+1)*B7</f>
-        <v>37</v>
-      </c>
-      <c r="D15" s="12">
-        <v>19</v>
-      </c>
-      <c r="E15" s="12">
-        <v>37</v>
-      </c>
-      <c r="M15" s="22" t="s">
-        <v>51</v>
-      </c>
-      <c r="N15" s="12" t="s">
-        <v>137</v>
-      </c>
-      <c r="O15" s="12" t="s">
-        <v>138</v>
-      </c>
-      <c r="P15" s="12" t="s">
-        <v>139</v>
-      </c>
-      <c r="Q15" s="12" t="s">
-        <v>107</v>
-      </c>
-      <c r="R15" s="12" t="s">
-        <v>140</v>
-      </c>
-      <c r="S15" s="12" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="16" spans="1:19" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="B16" s="12">
-        <v>166</v>
-      </c>
-      <c r="C16" s="12">
-        <f>ROUNDDOWN(B16+C13*Common!$B$1,0)</f>
-        <v>652</v>
-      </c>
-      <c r="D16" s="12">
-        <v>458</v>
-      </c>
-      <c r="E16" s="12">
-        <v>652</v>
-      </c>
-      <c r="M16" s="22" t="s">
-        <v>52</v>
-      </c>
-      <c r="N16" s="12" t="s">
-        <v>142</v>
-      </c>
-      <c r="O16" s="12" t="s">
-        <v>143</v>
-      </c>
-      <c r="P16" s="12" t="s">
-        <v>144</v>
-      </c>
-      <c r="Q16" s="12" t="s">
-        <v>134</v>
-      </c>
-      <c r="R16" s="12" t="s">
-        <v>145</v>
-      </c>
-      <c r="S16" s="12" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="17" spans="1:19" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="B17" s="12">
-        <v>28</v>
-      </c>
-      <c r="C17" s="12">
-        <f>ROUND(B17+C14+C15*Common!$B$2,0)</f>
-        <v>86</v>
-      </c>
-      <c r="D17" s="12">
-        <v>52</v>
-      </c>
-      <c r="E17" s="12">
-        <v>86</v>
-      </c>
-      <c r="M17" s="22" t="s">
-        <v>53</v>
-      </c>
-      <c r="N17" s="12" t="s">
-        <v>121</v>
-      </c>
-      <c r="O17" s="12" t="s">
-        <v>146</v>
-      </c>
-      <c r="P17" s="12" t="s">
-        <v>115</v>
-      </c>
-      <c r="Q17" s="12" t="s">
-        <v>147</v>
-      </c>
-      <c r="R17" s="12" t="s">
-        <v>131</v>
-      </c>
-      <c r="S17" s="12" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="18" spans="1:19" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="B18" s="12">
-        <v>0</v>
-      </c>
-      <c r="C18" s="12">
-        <f>ROUND(B18+C14*Common!$B$3,0)</f>
-        <v>103</v>
-      </c>
-      <c r="D18" s="12">
-        <v>39</v>
-      </c>
-      <c r="E18" s="12">
-        <v>104</v>
-      </c>
-      <c r="M18" s="21" t="s">
-        <v>54</v>
-      </c>
-      <c r="N18" s="12" t="s">
-        <v>149</v>
-      </c>
-      <c r="O18" s="12" t="s">
-        <v>150</v>
-      </c>
-      <c r="P18" s="12" t="s">
-        <v>151</v>
-      </c>
-      <c r="Q18" s="12" t="s">
-        <v>117</v>
-      </c>
-      <c r="R18" s="12" t="s">
-        <v>152</v>
-      </c>
-      <c r="S18" s="12" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="19" spans="1:19" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="B19" s="17">
-        <v>0</v>
-      </c>
-      <c r="C19" s="18">
-        <f>B19+C13/7+C15/14</f>
-        <v>6.5</v>
-      </c>
-      <c r="D19" s="18">
-        <v>4</v>
-      </c>
-      <c r="E19" s="18">
-        <v>7</v>
-      </c>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
-      <c r="I19" s="3"/>
-      <c r="M19" s="21" t="s">
-        <v>55</v>
-      </c>
-      <c r="N19" s="12" t="s">
-        <v>120</v>
-      </c>
-      <c r="O19" s="12" t="s">
-        <v>153</v>
-      </c>
-      <c r="P19" s="12" t="s">
-        <v>154</v>
-      </c>
-      <c r="Q19" s="12" t="s">
-        <v>108</v>
-      </c>
-      <c r="R19" s="12" t="s">
-        <v>132</v>
-      </c>
-      <c r="S19" s="12" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="20" spans="1:19" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="B20" s="12">
-        <v>0</v>
-      </c>
-      <c r="C20" s="12">
-        <f>ROUND(C14*Common!$B$4,0)</f>
-        <v>4</v>
-      </c>
-      <c r="D20" s="12">
-        <v>2</v>
-      </c>
-      <c r="E20" s="12">
-        <v>4</v>
-      </c>
-      <c r="M20" s="21" t="s">
-        <v>123</v>
-      </c>
-      <c r="N20" s="12" t="s">
-        <v>155</v>
-      </c>
-      <c r="O20" s="12" t="s">
-        <v>118</v>
-      </c>
-      <c r="P20" s="12" t="s">
-        <v>156</v>
-      </c>
-      <c r="Q20" s="12" t="s">
-        <v>134</v>
-      </c>
-      <c r="R20" s="12" t="s">
-        <v>144</v>
-      </c>
-      <c r="S20" s="12" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="21" spans="1:19" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="B21" s="12">
-        <v>0</v>
-      </c>
-      <c r="C21" s="12">
-        <f>C15*Common!$B$5</f>
-        <v>14.8</v>
-      </c>
-      <c r="D21" s="12">
-        <v>8</v>
-      </c>
-      <c r="E21" s="12">
-        <v>15</v>
-      </c>
-      <c r="M21" s="21" t="s">
-        <v>124</v>
-      </c>
-      <c r="N21" s="12" t="s">
-        <v>157</v>
-      </c>
-      <c r="O21" s="12" t="s">
-        <v>121</v>
-      </c>
-      <c r="P21" s="12" t="s">
-        <v>149</v>
-      </c>
-      <c r="Q21" s="12" t="s">
-        <v>151</v>
-      </c>
-      <c r="R21" s="12" t="s">
-        <v>137</v>
-      </c>
-      <c r="S21" s="12" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="22" spans="1:19" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="I27">
-        <v>150</v>
-      </c>
-      <c r="J27">
-        <v>65</v>
-      </c>
-      <c r="K27">
-        <v>230</v>
-      </c>
-      <c r="L27">
-        <f>K27/(I27-J27)</f>
-        <v>2.7058823529411766</v>
-      </c>
-      <c r="M27">
-        <v>2.7</v>
-      </c>
-      <c r="N27">
-        <f>K27/$M$27+J27</f>
-        <v>150.18518518518516</v>
-      </c>
-    </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="I28">
-        <v>155</v>
-      </c>
-      <c r="J28">
-        <v>65</v>
-      </c>
-      <c r="K28">
-        <v>242</v>
-      </c>
-      <c r="L28">
-        <f t="shared" ref="L28:L33" si="5">K28/(I28-J28)</f>
-        <v>2.6888888888888891</v>
-      </c>
-      <c r="M28">
-        <v>2.68</v>
-      </c>
-      <c r="N28">
-        <f t="shared" ref="N28:N33" si="6">K28/$M$27+J28</f>
-        <v>154.62962962962962</v>
-      </c>
-    </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="I29">
-        <v>159</v>
-      </c>
-      <c r="J29">
-        <v>65</v>
-      </c>
-      <c r="K29">
-        <v>256</v>
-      </c>
-      <c r="L29">
-        <f t="shared" si="5"/>
-        <v>2.7234042553191489</v>
-      </c>
-      <c r="N29">
-        <f t="shared" si="6"/>
-        <v>159.81481481481481</v>
-      </c>
-    </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="I30">
-        <v>161</v>
-      </c>
-      <c r="J30">
-        <v>65</v>
-      </c>
-      <c r="K30">
-        <v>263</v>
-      </c>
-      <c r="L30">
-        <f t="shared" si="5"/>
-        <v>2.7395833333333335</v>
-      </c>
-      <c r="N30">
-        <f t="shared" si="6"/>
-        <v>162.40740740740739</v>
-      </c>
-    </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="I31">
-        <v>166</v>
-      </c>
-      <c r="J31">
-        <v>70</v>
-      </c>
-      <c r="K31">
-        <v>263</v>
-      </c>
-      <c r="L31">
-        <f t="shared" si="5"/>
-        <v>2.7395833333333335</v>
-      </c>
-      <c r="N31">
-        <f t="shared" si="6"/>
-        <v>167.40740740740739</v>
-      </c>
-    </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="I32">
-        <v>175</v>
-      </c>
-      <c r="J32">
-        <v>70</v>
-      </c>
-      <c r="K32">
-        <v>299</v>
-      </c>
-      <c r="L32">
-        <f t="shared" si="5"/>
-        <v>2.8476190476190477</v>
-      </c>
-      <c r="N32">
-        <f t="shared" si="6"/>
-        <v>180.74074074074073</v>
-      </c>
-    </row>
-    <row r="33" spans="9:14" x14ac:dyDescent="0.25">
-      <c r="I33">
-        <v>177</v>
-      </c>
-      <c r="J33">
-        <v>70</v>
-      </c>
-      <c r="K33">
-        <v>306</v>
-      </c>
-      <c r="L33">
-        <f t="shared" si="5"/>
-        <v>2.8598130841121496</v>
-      </c>
-      <c r="N33">
-        <f t="shared" si="6"/>
-        <v>183.33333333333331</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/excel/heroes.xlsx
+++ b/excel/heroes.xlsx
@@ -9,42 +9,45 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12375" firstSheet="1" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12375" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="All" sheetId="11" r:id="rId1"/>
     <sheet name="Statuses" sheetId="10" r:id="rId2"/>
-    <sheet name="Ice Mage" sheetId="33" r:id="rId3"/>
-    <sheet name="Commando" sheetId="32" r:id="rId4"/>
-    <sheet name="Drunken Master" sheetId="31" r:id="rId5"/>
-    <sheet name="Death Mage" sheetId="30" r:id="rId6"/>
-    <sheet name="Tusked Storm" sheetId="29" r:id="rId7"/>
-    <sheet name="Master Mage" sheetId="28" r:id="rId8"/>
-    <sheet name="Shallow Keeper" sheetId="27" r:id="rId9"/>
-    <sheet name="Succubus" sheetId="26" r:id="rId10"/>
-    <sheet name="Cleric" sheetId="25" r:id="rId11"/>
-    <sheet name="Machinist" sheetId="24" r:id="rId12"/>
-    <sheet name="Arcane Sapper" sheetId="23" r:id="rId13"/>
-    <sheet name="Sniper" sheetId="22" r:id="rId14"/>
-    <sheet name="Psychic Sword" sheetId="21" r:id="rId15"/>
-    <sheet name="Mystic" sheetId="20" r:id="rId16"/>
-    <sheet name="Bear Warrior" sheetId="19" r:id="rId17"/>
-    <sheet name="Professional Killer" sheetId="18" r:id="rId18"/>
-    <sheet name="Psychopath" sheetId="17" r:id="rId19"/>
-    <sheet name="Frost Mage" sheetId="16" r:id="rId20"/>
-    <sheet name="Mountain" sheetId="15" r:id="rId21"/>
-    <sheet name="Silencer" sheetId="14" r:id="rId22"/>
-    <sheet name="Ferryman" sheetId="13" r:id="rId23"/>
-    <sheet name="Admiral" sheetId="5" r:id="rId24"/>
-    <sheet name="Chaplain" sheetId="9" r:id="rId25"/>
-    <sheet name="Necromancer" sheetId="12" r:id="rId26"/>
-    <sheet name="Emberstar" sheetId="7" r:id="rId27"/>
-    <sheet name="Lightning Master" sheetId="8" r:id="rId28"/>
-    <sheet name="Depths Voice" sheetId="1" r:id="rId29"/>
-    <sheet name="Leaves Shadows" sheetId="6" r:id="rId30"/>
-    <sheet name="Rifleman" sheetId="2" r:id="rId31"/>
-    <sheet name="Lightning Elemental" sheetId="3" r:id="rId32"/>
-    <sheet name="Common" sheetId="4" r:id="rId33"/>
+    <sheet name="Phoenix (China)" sheetId="36" r:id="rId3"/>
+    <sheet name="Vanguard Warrior" sheetId="35" r:id="rId4"/>
+    <sheet name="Vengeance Spirit" sheetId="34" r:id="rId5"/>
+    <sheet name="Ice Mage" sheetId="33" r:id="rId6"/>
+    <sheet name="Commando" sheetId="32" r:id="rId7"/>
+    <sheet name="Drunken Master" sheetId="31" r:id="rId8"/>
+    <sheet name="Death Mage" sheetId="30" r:id="rId9"/>
+    <sheet name="Tusked Storm" sheetId="29" r:id="rId10"/>
+    <sheet name="Master Mage" sheetId="28" r:id="rId11"/>
+    <sheet name="Shallow Keeper" sheetId="27" r:id="rId12"/>
+    <sheet name="Succubus" sheetId="26" r:id="rId13"/>
+    <sheet name="Cleric" sheetId="25" r:id="rId14"/>
+    <sheet name="Machinist" sheetId="24" r:id="rId15"/>
+    <sheet name="Arcane Sapper" sheetId="23" r:id="rId16"/>
+    <sheet name="Sniper" sheetId="22" r:id="rId17"/>
+    <sheet name="Psychic Sword" sheetId="21" r:id="rId18"/>
+    <sheet name="Mystic" sheetId="20" r:id="rId19"/>
+    <sheet name="Bear Warrior" sheetId="19" r:id="rId20"/>
+    <sheet name="Professional Killer" sheetId="18" r:id="rId21"/>
+    <sheet name="Psychopath" sheetId="17" r:id="rId22"/>
+    <sheet name="Frost Mage" sheetId="16" r:id="rId23"/>
+    <sheet name="Mountain" sheetId="15" r:id="rId24"/>
+    <sheet name="Silencer" sheetId="14" r:id="rId25"/>
+    <sheet name="Ferryman" sheetId="13" r:id="rId26"/>
+    <sheet name="Admiral" sheetId="5" r:id="rId27"/>
+    <sheet name="Chaplain" sheetId="9" r:id="rId28"/>
+    <sheet name="Necromancer" sheetId="12" r:id="rId29"/>
+    <sheet name="Emberstar" sheetId="7" r:id="rId30"/>
+    <sheet name="Lightning Master" sheetId="8" r:id="rId31"/>
+    <sheet name="Depths Voice" sheetId="1" r:id="rId32"/>
+    <sheet name="Leaves Shadows" sheetId="6" r:id="rId33"/>
+    <sheet name="Rifleman" sheetId="2" r:id="rId34"/>
+    <sheet name="Lightning Elemental" sheetId="3" r:id="rId35"/>
+    <sheet name="Common" sheetId="4" r:id="rId36"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -56,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3042" uniqueCount="550">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3312" uniqueCount="568">
   <si>
     <t>Type</t>
   </si>
@@ -1706,6 +1709,60 @@
   </si>
   <si>
     <t>Magic damage 7,04 per wave pre lvl</t>
+  </si>
+  <si>
+    <t>Kleln Leaf</t>
+  </si>
+  <si>
+    <t>Stainles Axe</t>
+  </si>
+  <si>
+    <t>Petrify</t>
+  </si>
+  <si>
+    <t>Split Arrow</t>
+  </si>
+  <si>
+    <t>Theft of Essence</t>
+  </si>
+  <si>
+    <t>Wal=dol Blade</t>
+  </si>
+  <si>
+    <t>War Siget of Kreln</t>
+  </si>
+  <si>
+    <t>death kite</t>
+  </si>
+  <si>
+    <t>War Signet of Krelm</t>
+  </si>
+  <si>
+    <t>Transmer of Anums</t>
+  </si>
+  <si>
+    <t>Glo'can Tir</t>
+  </si>
+  <si>
+    <t>Nedan Bone Cest</t>
+  </si>
+  <si>
+    <t>Chest sPlate</t>
+  </si>
+  <si>
+    <t>Kellosian Crusher</t>
+  </si>
+  <si>
+    <t>Phase Bash</t>
+  </si>
+  <si>
+    <t>Charge of Valor</t>
+  </si>
+  <si>
+    <t>Heavier Bash</t>
+  </si>
+  <si>
+    <t>Concentration</t>
   </si>
 </sst>
 </file>
@@ -2320,6 +2377,1915 @@
   <dimension ref="A1:S24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
+      <selection activeCell="I17" sqref="I17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14" customWidth="1"/>
+    <col min="2" max="2" width="9" customWidth="1"/>
+    <col min="3" max="3" width="11.28515625" customWidth="1"/>
+    <col min="4" max="4" width="8.28515625" customWidth="1"/>
+    <col min="5" max="5" width="9.42578125" customWidth="1"/>
+    <col min="6" max="6" width="10.140625" customWidth="1"/>
+    <col min="7" max="7" width="11.5703125" customWidth="1"/>
+    <col min="8" max="8" width="6.85546875" customWidth="1"/>
+    <col min="9" max="9" width="9" customWidth="1"/>
+    <col min="10" max="10" width="10" customWidth="1"/>
+    <col min="12" max="12" width="8.140625" customWidth="1"/>
+    <col min="13" max="13" width="19.85546875" customWidth="1"/>
+    <col min="14" max="14" width="19.140625" customWidth="1"/>
+    <col min="15" max="15" width="16.7109375" customWidth="1"/>
+    <col min="16" max="16" width="12.28515625" customWidth="1"/>
+    <col min="17" max="17" width="13.5703125" customWidth="1"/>
+    <col min="18" max="18" width="16" customWidth="1"/>
+    <col min="19" max="19" width="17.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>441</v>
+      </c>
+      <c r="M1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M3" t="s">
+        <v>442</v>
+      </c>
+      <c r="N3" s="9" t="s">
+        <v>529</v>
+      </c>
+      <c r="O3" s="9">
+        <f>5*B9</f>
+        <v>50</v>
+      </c>
+      <c r="P3" s="9" t="s">
+        <v>528</v>
+      </c>
+      <c r="Q3" s="9"/>
+      <c r="R3" s="9"/>
+      <c r="S3" s="9"/>
+    </row>
+    <row r="4" spans="1:19" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="M4" s="7" t="s">
+        <v>443</v>
+      </c>
+      <c r="N4" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="O4" s="9">
+        <f>10.5*B9</f>
+        <v>105</v>
+      </c>
+      <c r="P4" s="9" t="s">
+        <v>530</v>
+      </c>
+      <c r="Q4" s="9"/>
+      <c r="R4" s="9"/>
+      <c r="S4" s="9"/>
+    </row>
+    <row r="5" spans="1:19" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="17">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="C5" s="17">
+        <f>B5*2</f>
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="D5" s="17">
+        <f>B5*3</f>
+        <v>3.3000000000000003</v>
+      </c>
+      <c r="E5" s="17">
+        <f>B5*4</f>
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="F5" s="17">
+        <f>B5*5</f>
+        <v>5.5</v>
+      </c>
+      <c r="G5" s="17">
+        <f>B5*6</f>
+        <v>6.6000000000000005</v>
+      </c>
+      <c r="M5" s="19" t="s">
+        <v>444</v>
+      </c>
+      <c r="N5" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="O5" s="9">
+        <f>12*B9</f>
+        <v>120</v>
+      </c>
+      <c r="P5" s="9" t="s">
+        <v>533</v>
+      </c>
+      <c r="Q5" s="9"/>
+      <c r="R5" s="9"/>
+      <c r="S5" s="9"/>
+    </row>
+    <row r="6" spans="1:19" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="17">
+        <v>0.5</v>
+      </c>
+      <c r="C6" s="17">
+        <f t="shared" ref="C6:C7" si="0">B6*2</f>
+        <v>1</v>
+      </c>
+      <c r="D6" s="17">
+        <f t="shared" ref="D6:D7" si="1">B6*3</f>
+        <v>1.5</v>
+      </c>
+      <c r="E6" s="17">
+        <f t="shared" ref="E6:E7" si="2">B6*4</f>
+        <v>2</v>
+      </c>
+      <c r="F6" s="17">
+        <f t="shared" ref="F6:F7" si="3">B6*5</f>
+        <v>2.5</v>
+      </c>
+      <c r="G6" s="17">
+        <f t="shared" ref="G6:G7" si="4">B6*6</f>
+        <v>3</v>
+      </c>
+      <c r="M6" s="18" t="s">
+        <v>445</v>
+      </c>
+      <c r="N6" s="9" t="s">
+        <v>532</v>
+      </c>
+      <c r="O6" s="9">
+        <f>0.5*B9</f>
+        <v>5</v>
+      </c>
+      <c r="P6" s="9" t="s">
+        <v>531</v>
+      </c>
+      <c r="Q6" s="9"/>
+      <c r="R6" s="9"/>
+      <c r="S6" s="9"/>
+    </row>
+    <row r="7" spans="1:19" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="17">
+        <v>1.4</v>
+      </c>
+      <c r="C7" s="17">
+        <f t="shared" si="0"/>
+        <v>2.8</v>
+      </c>
+      <c r="D7" s="17">
+        <f t="shared" si="1"/>
+        <v>4.1999999999999993</v>
+      </c>
+      <c r="E7" s="17">
+        <f t="shared" si="2"/>
+        <v>5.6</v>
+      </c>
+      <c r="F7" s="17">
+        <f t="shared" si="3"/>
+        <v>7</v>
+      </c>
+      <c r="G7" s="17">
+        <f t="shared" si="4"/>
+        <v>8.3999999999999986</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>35</v>
+      </c>
+      <c r="B9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>36</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M11" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="N11" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="O11" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="P11" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q11" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="R11" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="S11" s="10" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="D12" s="10">
+        <v>1</v>
+      </c>
+      <c r="E12" s="10">
+        <v>10</v>
+      </c>
+      <c r="F12" s="10"/>
+      <c r="M12" t="s">
+        <v>235</v>
+      </c>
+      <c r="N12" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="O12" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="P12" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q12" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="R12" s="9" t="s">
+        <v>446</v>
+      </c>
+      <c r="S12" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" s="9">
+        <v>15</v>
+      </c>
+      <c r="C13" s="9">
+        <f>B13+$B$9*($B$10+1)*B5</f>
+        <v>37</v>
+      </c>
+      <c r="D13" s="9">
+        <v>17</v>
+      </c>
+      <c r="E13" s="9">
+        <v>37</v>
+      </c>
+      <c r="F13" s="9"/>
+      <c r="M13" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="N13" s="9" t="s">
+        <v>189</v>
+      </c>
+      <c r="O13" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="P13" s="9" t="s">
+        <v>447</v>
+      </c>
+      <c r="Q13" s="9" t="s">
+        <v>447</v>
+      </c>
+      <c r="R13" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="S13" s="9" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" s="9">
+        <v>12</v>
+      </c>
+      <c r="C14" s="9">
+        <f>B14+$B$9*($B$10+1)*B6</f>
+        <v>22</v>
+      </c>
+      <c r="D14" s="9">
+        <v>13</v>
+      </c>
+      <c r="E14" s="9">
+        <v>22</v>
+      </c>
+      <c r="F14" s="9"/>
+      <c r="M14" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="N14" s="9" t="s">
+        <v>337</v>
+      </c>
+      <c r="O14" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="P14" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q14" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="R14" s="9" t="s">
+        <v>249</v>
+      </c>
+      <c r="S14" s="9" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B15" s="9">
+        <v>18</v>
+      </c>
+      <c r="C15" s="9">
+        <f>B15+$B$9*($B$10+1)*B7</f>
+        <v>46</v>
+      </c>
+      <c r="D15" s="9">
+        <v>21</v>
+      </c>
+      <c r="E15" s="9">
+        <v>46</v>
+      </c>
+      <c r="F15" s="9"/>
+      <c r="M15" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="N15" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="O15" s="9" t="s">
+        <v>448</v>
+      </c>
+      <c r="P15" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q15" s="9" t="s">
+        <v>192</v>
+      </c>
+      <c r="R15" s="9" t="s">
+        <v>368</v>
+      </c>
+      <c r="S15" s="9" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16" s="9">
+        <v>163</v>
+      </c>
+      <c r="C16" s="9">
+        <f>ROUNDDOWN(B16+C13*Common!$B$1,0)</f>
+        <v>829</v>
+      </c>
+      <c r="D16" s="9">
+        <v>473</v>
+      </c>
+      <c r="E16" s="9">
+        <v>829</v>
+      </c>
+      <c r="F16" s="9"/>
+      <c r="M16" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="N16" s="9" t="s">
+        <v>299</v>
+      </c>
+      <c r="O16" s="9" t="s">
+        <v>333</v>
+      </c>
+      <c r="P16" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q16" s="9" t="s">
+        <v>369</v>
+      </c>
+      <c r="R16" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="S16" s="9" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17" s="9">
+        <v>18</v>
+      </c>
+      <c r="C17" s="9">
+        <f>ROUND(B17+C15+C15*Common!$B$2,0)</f>
+        <v>82</v>
+      </c>
+      <c r="D17" s="9">
+        <v>47</v>
+      </c>
+      <c r="E17" s="9">
+        <v>82</v>
+      </c>
+      <c r="F17" s="9"/>
+      <c r="M17" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="N17" s="9" t="s">
+        <v>194</v>
+      </c>
+      <c r="O17" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="P17" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q17" s="9" t="s">
+        <v>334</v>
+      </c>
+      <c r="R17" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="S17" s="9" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18" s="9">
+        <v>0</v>
+      </c>
+      <c r="C18" s="9">
+        <f>ROUND(B18+C14*Common!$B$3,0)</f>
+        <v>53</v>
+      </c>
+      <c r="D18" s="9">
+        <v>31</v>
+      </c>
+      <c r="E18" s="9">
+        <v>53</v>
+      </c>
+      <c r="F18" s="9"/>
+      <c r="M18" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="N18" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="O18" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="P18" s="9" t="s">
+        <v>340</v>
+      </c>
+      <c r="Q18" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="R18" s="9" t="s">
+        <v>449</v>
+      </c>
+      <c r="S18" s="9" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19" s="22"/>
+      <c r="C19" s="9">
+        <f>B19+ROUND(C13/7,0)+ROUND(C15/14,0)</f>
+        <v>8</v>
+      </c>
+      <c r="D19" s="9">
+        <v>3</v>
+      </c>
+      <c r="E19" s="9">
+        <v>8</v>
+      </c>
+      <c r="F19" s="9"/>
+      <c r="M19" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="N19" s="9" t="s">
+        <v>200</v>
+      </c>
+      <c r="O19" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="P19" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="Q19" s="9" t="s">
+        <v>448</v>
+      </c>
+      <c r="R19" s="9" t="s">
+        <v>199</v>
+      </c>
+      <c r="S19" s="9" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B20" s="9">
+        <v>0</v>
+      </c>
+      <c r="C20" s="9">
+        <f>ROUND(C14*Common!$B$4,0)</f>
+        <v>2</v>
+      </c>
+      <c r="D20" s="9">
+        <v>1</v>
+      </c>
+      <c r="E20" s="9">
+        <v>2</v>
+      </c>
+      <c r="F20" s="9"/>
+      <c r="M20" s="18" t="s">
+        <v>118</v>
+      </c>
+      <c r="N20" s="9" t="s">
+        <v>300</v>
+      </c>
+      <c r="O20" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="P20" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q20" s="9" t="s">
+        <v>196</v>
+      </c>
+      <c r="R20" s="9" t="s">
+        <v>334</v>
+      </c>
+      <c r="S20" s="9" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B21" s="9">
+        <v>0</v>
+      </c>
+      <c r="C21" s="9">
+        <f>C15*Common!$B$5</f>
+        <v>18.400000000000002</v>
+      </c>
+      <c r="D21" s="9">
+        <v>8</v>
+      </c>
+      <c r="E21" s="9">
+        <v>18</v>
+      </c>
+      <c r="F21" s="9"/>
+      <c r="M21" s="18" t="s">
+        <v>119</v>
+      </c>
+      <c r="N21" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="O21" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="P21" s="9" t="s">
+        <v>281</v>
+      </c>
+      <c r="Q21" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="R21" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="S21" s="9" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A24" s="21" t="s">
+        <v>264</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:S24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K32" sqref="F29:K32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14" customWidth="1"/>
+    <col min="2" max="2" width="9" customWidth="1"/>
+    <col min="3" max="3" width="11.28515625" customWidth="1"/>
+    <col min="4" max="4" width="8.28515625" customWidth="1"/>
+    <col min="5" max="5" width="9.42578125" customWidth="1"/>
+    <col min="6" max="6" width="10.140625" customWidth="1"/>
+    <col min="7" max="7" width="11.5703125" customWidth="1"/>
+    <col min="8" max="8" width="6.85546875" customWidth="1"/>
+    <col min="9" max="9" width="9" customWidth="1"/>
+    <col min="10" max="10" width="10" customWidth="1"/>
+    <col min="12" max="12" width="8.140625" customWidth="1"/>
+    <col min="13" max="13" width="19.85546875" customWidth="1"/>
+    <col min="14" max="14" width="19.140625" customWidth="1"/>
+    <col min="15" max="15" width="16.7109375" customWidth="1"/>
+    <col min="16" max="16" width="12.28515625" customWidth="1"/>
+    <col min="17" max="17" width="13.5703125" customWidth="1"/>
+    <col min="18" max="18" width="16" customWidth="1"/>
+    <col min="19" max="19" width="17.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>13</v>
+      </c>
+      <c r="M1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M3" t="s">
+        <v>429</v>
+      </c>
+      <c r="N3" s="9" t="s">
+        <v>257</v>
+      </c>
+      <c r="O3" s="9">
+        <f>B9*26.4</f>
+        <v>924</v>
+      </c>
+      <c r="P3" s="9" t="s">
+        <v>436</v>
+      </c>
+      <c r="Q3" s="9"/>
+      <c r="R3" s="9"/>
+      <c r="S3" s="9"/>
+    </row>
+    <row r="4" spans="1:19" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="M4" s="7" t="s">
+        <v>430</v>
+      </c>
+      <c r="N4" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="O4" s="9">
+        <f>14.3*B9</f>
+        <v>500.5</v>
+      </c>
+      <c r="P4" s="9" t="s">
+        <v>435</v>
+      </c>
+      <c r="Q4" s="9"/>
+      <c r="R4" s="9"/>
+      <c r="S4" s="9"/>
+    </row>
+    <row r="5" spans="1:19" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="17">
+        <v>0.8</v>
+      </c>
+      <c r="C5" s="17">
+        <f>B5*2</f>
+        <v>1.6</v>
+      </c>
+      <c r="D5" s="17">
+        <f>B5*3</f>
+        <v>2.4000000000000004</v>
+      </c>
+      <c r="E5" s="17">
+        <f>B5*4</f>
+        <v>3.2</v>
+      </c>
+      <c r="F5" s="17">
+        <f>B5*5</f>
+        <v>4</v>
+      </c>
+      <c r="G5" s="17">
+        <f>B5*6</f>
+        <v>4.8000000000000007</v>
+      </c>
+      <c r="M5" s="19" t="s">
+        <v>431</v>
+      </c>
+      <c r="N5" s="9" t="s">
+        <v>452</v>
+      </c>
+      <c r="O5" s="9">
+        <f>0.03*B9+4.97</f>
+        <v>6.02</v>
+      </c>
+      <c r="P5" s="9" t="s">
+        <v>451</v>
+      </c>
+      <c r="Q5" s="9"/>
+      <c r="R5" s="9"/>
+      <c r="S5" s="9"/>
+    </row>
+    <row r="6" spans="1:19" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="17">
+        <v>1.5</v>
+      </c>
+      <c r="C6" s="17">
+        <f t="shared" ref="C6:C7" si="0">B6*2</f>
+        <v>3</v>
+      </c>
+      <c r="D6" s="17">
+        <f t="shared" ref="D6:D7" si="1">B6*3</f>
+        <v>4.5</v>
+      </c>
+      <c r="E6" s="17">
+        <f t="shared" ref="E6:E7" si="2">B6*4</f>
+        <v>6</v>
+      </c>
+      <c r="F6" s="17">
+        <f t="shared" ref="F6:F7" si="3">B6*5</f>
+        <v>7.5</v>
+      </c>
+      <c r="G6" s="17">
+        <f t="shared" ref="G6:G7" si="4">B6*6</f>
+        <v>9</v>
+      </c>
+      <c r="M6" s="18" t="s">
+        <v>432</v>
+      </c>
+      <c r="N6" s="9" t="s">
+        <v>434</v>
+      </c>
+      <c r="O6" s="9">
+        <f>B9*3</f>
+        <v>105</v>
+      </c>
+      <c r="P6" s="9" t="s">
+        <v>433</v>
+      </c>
+      <c r="Q6" s="9"/>
+      <c r="R6" s="9"/>
+      <c r="S6" s="9"/>
+    </row>
+    <row r="7" spans="1:19" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="17">
+        <v>0.85</v>
+      </c>
+      <c r="C7" s="17">
+        <f t="shared" si="0"/>
+        <v>1.7</v>
+      </c>
+      <c r="D7" s="17">
+        <f t="shared" si="1"/>
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="E7" s="17">
+        <f t="shared" si="2"/>
+        <v>3.4</v>
+      </c>
+      <c r="F7" s="17">
+        <f t="shared" si="3"/>
+        <v>4.25</v>
+      </c>
+      <c r="G7" s="17">
+        <f t="shared" si="4"/>
+        <v>5.0999999999999996</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>35</v>
+      </c>
+      <c r="B9">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>36</v>
+      </c>
+      <c r="B10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M11" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="N11" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="O11" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="P11" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q11" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="R11" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="S11" s="10" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="D12" s="10">
+        <v>1</v>
+      </c>
+      <c r="E12" s="10">
+        <v>10</v>
+      </c>
+      <c r="F12" s="10"/>
+      <c r="M12" t="s">
+        <v>235</v>
+      </c>
+      <c r="N12" s="9" t="s">
+        <v>438</v>
+      </c>
+      <c r="O12" s="9" t="s">
+        <v>438</v>
+      </c>
+      <c r="P12" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q12" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="R12" s="9" t="s">
+        <v>245</v>
+      </c>
+      <c r="S12" s="9" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" s="9">
+        <v>17</v>
+      </c>
+      <c r="C13" s="9">
+        <f>B13+$B$9*($B$10+1)*B5</f>
+        <v>129</v>
+      </c>
+      <c r="D13" s="9">
+        <v>20</v>
+      </c>
+      <c r="E13" s="9">
+        <v>49</v>
+      </c>
+      <c r="F13" s="9"/>
+      <c r="M13" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="N13" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="O13" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="P13" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="Q13" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="R13" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="S13" s="9" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" s="9">
+        <v>23</v>
+      </c>
+      <c r="C14" s="9">
+        <f>B14+$B$9*($B$10+1)*B6</f>
+        <v>233</v>
+      </c>
+      <c r="D14" s="9">
+        <v>29</v>
+      </c>
+      <c r="E14" s="9">
+        <v>83</v>
+      </c>
+      <c r="F14" s="9"/>
+      <c r="M14" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="N14" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="O14" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="P14" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="Q14" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="R14" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="S14" s="9" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B15" s="9">
+        <v>22</v>
+      </c>
+      <c r="C15" s="9">
+        <f>B15+$B$9*($B$10+1)*B7</f>
+        <v>141</v>
+      </c>
+      <c r="D15" s="9">
+        <v>25</v>
+      </c>
+      <c r="E15" s="9">
+        <v>56</v>
+      </c>
+      <c r="F15" s="9"/>
+      <c r="M15" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="N15" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="O15" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="P15" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="Q15" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="R15" s="9"/>
+      <c r="S15" s="9" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16" s="9">
+        <v>171</v>
+      </c>
+      <c r="C16" s="9">
+        <f>ROUNDDOWN(B16+C13*Common!$B$1,0)</f>
+        <v>2493</v>
+      </c>
+      <c r="D16" s="9">
+        <v>534</v>
+      </c>
+      <c r="E16" s="9">
+        <v>1053</v>
+      </c>
+      <c r="F16" s="9"/>
+      <c r="M16" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="N16" s="9"/>
+      <c r="O16" s="9"/>
+      <c r="P16" s="9"/>
+      <c r="Q16" s="9"/>
+      <c r="R16" s="9"/>
+      <c r="S16" s="9"/>
+    </row>
+    <row r="17" spans="1:19" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17" s="9">
+        <v>21</v>
+      </c>
+      <c r="C17" s="9">
+        <f>ROUND(B17+C14+C15*Common!$B$2,0)</f>
+        <v>310</v>
+      </c>
+      <c r="D17" s="9">
+        <v>59</v>
+      </c>
+      <c r="E17" s="9">
+        <v>126</v>
+      </c>
+      <c r="F17" s="9"/>
+      <c r="M17" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="N17" s="9"/>
+      <c r="O17" s="9"/>
+      <c r="P17" s="9"/>
+      <c r="Q17" s="9"/>
+      <c r="R17" s="9"/>
+      <c r="S17" s="9"/>
+    </row>
+    <row r="18" spans="1:19" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18" s="9">
+        <v>0</v>
+      </c>
+      <c r="C18" s="9">
+        <f>ROUND(B18+C14*Common!$B$3,0)</f>
+        <v>559</v>
+      </c>
+      <c r="D18" s="9">
+        <v>69</v>
+      </c>
+      <c r="E18" s="9">
+        <v>198</v>
+      </c>
+      <c r="F18" s="9"/>
+      <c r="M18" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="N18" s="9"/>
+      <c r="O18" s="9"/>
+      <c r="P18" s="9"/>
+      <c r="Q18" s="9"/>
+      <c r="R18" s="9"/>
+      <c r="S18" s="9"/>
+    </row>
+    <row r="19" spans="1:19" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19" s="22">
+        <v>1</v>
+      </c>
+      <c r="C19" s="9">
+        <f>B19+ROUND(C13/7,0)+ROUND(C15/14,0)</f>
+        <v>29</v>
+      </c>
+      <c r="D19" s="9">
+        <v>6</v>
+      </c>
+      <c r="E19" s="9">
+        <v>13</v>
+      </c>
+      <c r="F19" s="9"/>
+      <c r="M19" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="N19" s="9"/>
+      <c r="O19" s="9"/>
+      <c r="P19" s="9"/>
+      <c r="Q19" s="9"/>
+      <c r="R19" s="9"/>
+      <c r="S19" s="9"/>
+    </row>
+    <row r="20" spans="1:19" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B20" s="9">
+        <v>0</v>
+      </c>
+      <c r="C20" s="9">
+        <f>ROUND(C14*Common!$B$4,0)</f>
+        <v>23</v>
+      </c>
+      <c r="D20" s="9">
+        <v>3</v>
+      </c>
+      <c r="E20" s="9">
+        <v>8</v>
+      </c>
+      <c r="F20" s="9"/>
+      <c r="M20" s="18" t="s">
+        <v>118</v>
+      </c>
+      <c r="N20" s="9"/>
+      <c r="O20" s="9"/>
+      <c r="P20" s="9"/>
+      <c r="Q20" s="9"/>
+      <c r="R20" s="9"/>
+      <c r="S20" s="9"/>
+    </row>
+    <row r="21" spans="1:19" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B21" s="9">
+        <v>0</v>
+      </c>
+      <c r="C21" s="9">
+        <f>C15*Common!$B$5</f>
+        <v>56.400000000000006</v>
+      </c>
+      <c r="D21" s="9">
+        <v>10</v>
+      </c>
+      <c r="E21" s="9">
+        <v>22</v>
+      </c>
+      <c r="F21" s="9"/>
+      <c r="M21" s="18" t="s">
+        <v>119</v>
+      </c>
+      <c r="N21" s="9"/>
+      <c r="O21" s="9"/>
+      <c r="P21" s="9"/>
+      <c r="Q21" s="9"/>
+      <c r="R21" s="9"/>
+      <c r="S21" s="9"/>
+    </row>
+    <row r="22" spans="1:19" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A24" s="21" t="s">
+        <v>264</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:S24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F32" sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14" customWidth="1"/>
+    <col min="2" max="2" width="9" customWidth="1"/>
+    <col min="3" max="3" width="11.28515625" customWidth="1"/>
+    <col min="4" max="4" width="8.28515625" customWidth="1"/>
+    <col min="5" max="5" width="9.42578125" customWidth="1"/>
+    <col min="6" max="6" width="10.140625" customWidth="1"/>
+    <col min="7" max="7" width="11.5703125" customWidth="1"/>
+    <col min="8" max="8" width="6.85546875" customWidth="1"/>
+    <col min="9" max="9" width="9" customWidth="1"/>
+    <col min="10" max="10" width="10" customWidth="1"/>
+    <col min="12" max="12" width="8.140625" customWidth="1"/>
+    <col min="13" max="13" width="19.85546875" customWidth="1"/>
+    <col min="14" max="14" width="19.140625" customWidth="1"/>
+    <col min="15" max="15" width="16.7109375" customWidth="1"/>
+    <col min="16" max="16" width="12.28515625" customWidth="1"/>
+    <col min="17" max="17" width="13.5703125" customWidth="1"/>
+    <col min="18" max="18" width="16" customWidth="1"/>
+    <col min="19" max="19" width="17.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M3" t="s">
+        <v>371</v>
+      </c>
+      <c r="N3" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="O3" s="9">
+        <f>12*B9</f>
+        <v>360</v>
+      </c>
+      <c r="P3" s="9" t="s">
+        <v>375</v>
+      </c>
+      <c r="Q3" s="9"/>
+      <c r="R3" s="9"/>
+      <c r="S3" s="9"/>
+    </row>
+    <row r="4" spans="1:19" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="M4" s="7" t="s">
+        <v>372</v>
+      </c>
+      <c r="N4" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="O4" s="9">
+        <f>12*B9</f>
+        <v>360</v>
+      </c>
+      <c r="P4" s="9" t="s">
+        <v>377</v>
+      </c>
+      <c r="Q4" s="9">
+        <f>B9</f>
+        <v>30</v>
+      </c>
+      <c r="R4" s="9" t="s">
+        <v>376</v>
+      </c>
+      <c r="S4" s="9"/>
+    </row>
+    <row r="5" spans="1:19" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="17">
+        <v>1.5</v>
+      </c>
+      <c r="C5" s="17">
+        <f>B5*2</f>
+        <v>3</v>
+      </c>
+      <c r="D5" s="17">
+        <f>B5*3</f>
+        <v>4.5</v>
+      </c>
+      <c r="E5" s="17">
+        <f>B5*4</f>
+        <v>6</v>
+      </c>
+      <c r="F5" s="17">
+        <f>B5*5</f>
+        <v>7.5</v>
+      </c>
+      <c r="G5" s="17">
+        <f>B5*6</f>
+        <v>9</v>
+      </c>
+      <c r="M5" s="19" t="s">
+        <v>373</v>
+      </c>
+      <c r="N5" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="O5" s="9">
+        <f>6*B9</f>
+        <v>180</v>
+      </c>
+      <c r="P5" s="9" t="s">
+        <v>378</v>
+      </c>
+      <c r="Q5" s="9"/>
+      <c r="R5" s="9"/>
+      <c r="S5" s="9"/>
+    </row>
+    <row r="6" spans="1:19" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="17">
+        <v>0.85</v>
+      </c>
+      <c r="C6" s="17">
+        <f t="shared" ref="C6:C7" si="0">B6*2</f>
+        <v>1.7</v>
+      </c>
+      <c r="D6" s="17">
+        <f t="shared" ref="D6:D7" si="1">B6*3</f>
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="E6" s="17">
+        <f t="shared" ref="E6:E7" si="2">B6*4</f>
+        <v>3.4</v>
+      </c>
+      <c r="F6" s="17">
+        <f t="shared" ref="F6:F7" si="3">B6*5</f>
+        <v>4.25</v>
+      </c>
+      <c r="G6" s="17">
+        <f t="shared" ref="G6:G7" si="4">B6*6</f>
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="M6" s="18" t="s">
+        <v>374</v>
+      </c>
+      <c r="N6" s="9" t="s">
+        <v>380</v>
+      </c>
+      <c r="O6" s="9">
+        <f>2*B9</f>
+        <v>60</v>
+      </c>
+      <c r="P6" s="9" t="s">
+        <v>379</v>
+      </c>
+      <c r="Q6" s="9"/>
+      <c r="R6" s="9"/>
+      <c r="S6" s="9"/>
+    </row>
+    <row r="7" spans="1:19" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="17">
+        <v>0.75</v>
+      </c>
+      <c r="C7" s="17">
+        <f t="shared" si="0"/>
+        <v>1.5</v>
+      </c>
+      <c r="D7" s="17">
+        <f t="shared" si="1"/>
+        <v>2.25</v>
+      </c>
+      <c r="E7" s="17">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="F7" s="17">
+        <f t="shared" si="3"/>
+        <v>3.75</v>
+      </c>
+      <c r="G7" s="17">
+        <f t="shared" si="4"/>
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>35</v>
+      </c>
+      <c r="B9">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>36</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M11" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="N11" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="O11" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="P11" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q11" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="R11" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="S11" s="10" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="D12" s="10">
+        <v>1</v>
+      </c>
+      <c r="E12" s="10">
+        <v>30</v>
+      </c>
+      <c r="F12" s="10"/>
+      <c r="M12" t="s">
+        <v>235</v>
+      </c>
+      <c r="N12" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="O12" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="P12" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q12" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="R12" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="S12" s="9" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" s="9">
+        <v>19</v>
+      </c>
+      <c r="C13" s="9">
+        <f>B13+$B$9*($B$10+1)*B5</f>
+        <v>109</v>
+      </c>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9">
+        <v>109</v>
+      </c>
+      <c r="F13" s="9"/>
+      <c r="M13" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="N13" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="O13" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="P13" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="Q13" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="R13" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="S13" s="9" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" s="9">
+        <v>14</v>
+      </c>
+      <c r="C14" s="9">
+        <f>B14+$B$9*($B$10+1)*B6</f>
+        <v>65</v>
+      </c>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9">
+        <v>65</v>
+      </c>
+      <c r="F14" s="9"/>
+      <c r="M14" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="N14" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="O14" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="P14" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q14" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="R14" s="9" t="s">
+        <v>368</v>
+      </c>
+      <c r="S14" s="9" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B15" s="9">
+        <v>14</v>
+      </c>
+      <c r="C15" s="9">
+        <f>B15+$B$9*($B$10+1)*B7</f>
+        <v>59</v>
+      </c>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9">
+        <v>59</v>
+      </c>
+      <c r="F15" s="9"/>
+      <c r="M15" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="N15" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="O15" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="P15" s="9" t="s">
+        <v>247</v>
+      </c>
+      <c r="Q15" s="9" t="s">
+        <v>369</v>
+      </c>
+      <c r="R15" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="S15" s="9" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16" s="9">
+        <v>172</v>
+      </c>
+      <c r="C16" s="9">
+        <f>ROUNDDOWN(B16+C13*Common!$B$1,0)</f>
+        <v>2134</v>
+      </c>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9">
+        <v>2134</v>
+      </c>
+      <c r="F16" s="9"/>
+      <c r="M16" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="N16" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="O16" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="P16" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q16" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="R16" s="9" t="s">
+        <v>368</v>
+      </c>
+      <c r="S16" s="9" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17" s="9">
+        <v>21</v>
+      </c>
+      <c r="C17" s="9">
+        <f>ROUND(B17+C13+C15*Common!$B$2,0)</f>
+        <v>154</v>
+      </c>
+      <c r="D17" s="9"/>
+      <c r="E17" s="9">
+        <v>154</v>
+      </c>
+      <c r="F17" s="9"/>
+      <c r="M17" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="N17" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="O17" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="P17" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="Q17" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="R17" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="S17" s="9" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18" s="9">
+        <v>0</v>
+      </c>
+      <c r="C18" s="9">
+        <f>ROUND(B18+C14*Common!$B$3,0)</f>
+        <v>156</v>
+      </c>
+      <c r="D18" s="9"/>
+      <c r="E18" s="9">
+        <v>157</v>
+      </c>
+      <c r="F18" s="9"/>
+      <c r="M18" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="N18" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="O18" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="P18" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q18" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="R18" s="9" t="s">
+        <v>368</v>
+      </c>
+      <c r="S18" s="9" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19" s="22">
+        <v>1</v>
+      </c>
+      <c r="C19" s="9">
+        <f>B19+ROUND(C13/7,0)+ROUND(C15/14,0)</f>
+        <v>21</v>
+      </c>
+      <c r="D19" s="9"/>
+      <c r="E19" s="9">
+        <v>21</v>
+      </c>
+      <c r="F19" s="9"/>
+      <c r="M19" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="N19" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="O19" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="P19" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q19" s="9" t="s">
+        <v>369</v>
+      </c>
+      <c r="R19" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="S19" s="9" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B20" s="9">
+        <v>0</v>
+      </c>
+      <c r="C20" s="9">
+        <f>ROUND(C14*Common!$B$4,0)</f>
+        <v>7</v>
+      </c>
+      <c r="D20" s="9"/>
+      <c r="E20" s="9">
+        <v>7</v>
+      </c>
+      <c r="F20" s="9"/>
+      <c r="M20" s="18" t="s">
+        <v>118</v>
+      </c>
+      <c r="N20" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="O20" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="P20" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q20" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="R20" s="9" t="s">
+        <v>368</v>
+      </c>
+      <c r="S20" s="9" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B21" s="9">
+        <v>0</v>
+      </c>
+      <c r="C21" s="9">
+        <f>C15*Common!$B$5</f>
+        <v>23.6</v>
+      </c>
+      <c r="D21" s="9"/>
+      <c r="E21" s="9">
+        <v>23</v>
+      </c>
+      <c r="F21" s="9"/>
+      <c r="M21" s="18" t="s">
+        <v>119</v>
+      </c>
+      <c r="N21" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="O21" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="P21" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q21" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="R21" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="S21" s="9" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A24" s="21" t="s">
+        <v>264</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:S24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
       <selection activeCell="J32" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -2955,7 +4921,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S24"/>
   <sheetViews>
@@ -3621,7 +5587,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S24"/>
   <sheetViews>
@@ -4261,7 +6227,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S24"/>
   <sheetViews>
@@ -4933,7 +6899,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S24"/>
   <sheetViews>
@@ -5599,7 +7565,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
@@ -5611,7 +7577,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
@@ -5623,7 +7589,408 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C52"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="H26" sqref="H26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="21.42578125" customWidth="1"/>
+    <col min="2" max="2" width="18.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="C2" s="11"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="B11" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="5" t="s">
+        <v>285</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="5" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="5" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="5" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="5" t="s">
+        <v>289</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="5" t="s">
+        <v>335</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="5" t="s">
+        <v>325</v>
+      </c>
+      <c r="B22" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="5" t="s">
+        <v>356</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="5" t="s">
+        <v>363</v>
+      </c>
+      <c r="B24" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="5" t="s">
+        <v>367</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="5" t="s">
+        <v>428</v>
+      </c>
+      <c r="B26" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="5" t="s">
+        <v>440</v>
+      </c>
+      <c r="B27" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="24" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="5" t="s">
+        <v>455</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="5" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" s="5" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="5" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="5" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="5" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="24" t="s">
+        <v>461</v>
+      </c>
+      <c r="B35" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" s="5" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" s="5" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" s="5" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" s="5" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" s="5" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" s="5" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" s="5" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" s="5" t="s">
+        <v>469</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" s="5" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" s="5" t="s">
+        <v>471</v>
+      </c>
+      <c r="B45" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" s="5" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" s="5" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" s="5" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" s="5" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" s="24" t="s">
+        <v>476</v>
+      </c>
+      <c r="B50" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" s="5" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" s="24" t="s">
+        <v>504</v>
+      </c>
+      <c r="B52" t="s">
+        <v>484</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" location="Admiral!A1" tooltip="Admiral" display="Admiral"/>
+    <hyperlink ref="A3" location="Chaplain!A1" display="Chaplain!A1"/>
+    <hyperlink ref="A4" location="Emberstar!A1" display="Emberstar!A1"/>
+    <hyperlink ref="A5" location="'Depths Voice'!A1" display="Depths Voice"/>
+    <hyperlink ref="A6" location="'Leaves Shadows'!A1" display="Leaves Shadows"/>
+    <hyperlink ref="A7" location="Rifleman!A1" display="Riflman"/>
+    <hyperlink ref="A8" location="'Lightning Elemental'!A1" display="Ligtning Elemental"/>
+    <hyperlink ref="A9" location="'Lightning Master'!A1" display="Lighting Master"/>
+    <hyperlink ref="A10" location="Necromancer!A1" display="Necromancer"/>
+    <hyperlink ref="A11" location="Ferryman!A1" display="Ferryman"/>
+    <hyperlink ref="A12" location="Silencer!A1" display="Silencer"/>
+    <hyperlink ref="A13" location="Mountain!A1" display="Mountain"/>
+    <hyperlink ref="A14" location="'Frost Mage'!A1" display="Frost Mage"/>
+    <hyperlink ref="A15" location="Psychopath!A1" display="Psychopath"/>
+    <hyperlink ref="A16" location="'Professional Killer'!A1" display="Professional Killer"/>
+    <hyperlink ref="A17" location="'Bear Warrior'!A1" display="Bear Warrior"/>
+    <hyperlink ref="A18" location="Mystic!A1" display="Mystic"/>
+    <hyperlink ref="A19" location="'Psychic Sword'!A1" display="Psychic Sword"/>
+    <hyperlink ref="A20" location="Sniper!A1" display="Sniper"/>
+    <hyperlink ref="A21" location="'Arcane Sapper'!A1" display="Arcane Sapper"/>
+    <hyperlink ref="A22" location="Machinist!A1" display="Machinist"/>
+    <hyperlink ref="A23" location="Cleric!A1" display="Cleric"/>
+    <hyperlink ref="A24" location="Succubus!A1" display="Succubus"/>
+    <hyperlink ref="A25" location="'Shallow Keeper'!A1" display="Shallow Keeper"/>
+    <hyperlink ref="A26" location="'Master Mage'!A1" display="Master Mage"/>
+    <hyperlink ref="A43" location="'Death Mage'!A1" display="Death Mage"/>
+    <hyperlink ref="A45" location="'Drunken Master'!A1" display="Drunken Master"/>
+    <hyperlink ref="A27" location="'Tusked Storm'!A1" display="Tusked Storm"/>
+    <hyperlink ref="A28" location="'Ice Mage'!A1" display="Ice Mage"/>
+    <hyperlink ref="A35" location="'Vengeance Spirit'!A1" display="Vengeance Spirit"/>
+    <hyperlink ref="A50" location="'Vanguard Warrior'!A1" display="Vanguard Warrior"/>
+    <hyperlink ref="A52" location="'Phoenix (China)'!A1" display="Phoenix (China)"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
@@ -5635,7 +8002,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S24"/>
   <sheetViews>
@@ -6309,7 +8676,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S31"/>
   <sheetViews>
@@ -6988,396 +9355,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C52"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A28" sqref="A28"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="21.42578125" customWidth="1"/>
-    <col min="2" max="2" width="18.5703125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="B1" s="10" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="C2" s="11"/>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="5" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="5" t="s">
-        <v>223</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="5" t="s">
-        <v>228</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="5" t="s">
-        <v>229</v>
-      </c>
-      <c r="B11" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="5" t="s">
-        <v>230</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="5" t="s">
-        <v>231</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="5" t="s">
-        <v>232</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="5" t="s">
-        <v>233</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="5" t="s">
-        <v>285</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="5" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="5" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="5" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="5" t="s">
-        <v>289</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="5" t="s">
-        <v>335</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="5" t="s">
-        <v>325</v>
-      </c>
-      <c r="B22" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="5" t="s">
-        <v>356</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="5" t="s">
-        <v>363</v>
-      </c>
-      <c r="B24" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="5" t="s">
-        <v>367</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="5" t="s">
-        <v>428</v>
-      </c>
-      <c r="B26" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="5" t="s">
-        <v>440</v>
-      </c>
-      <c r="B27" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" s="24" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" s="5" t="s">
-        <v>455</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" s="5" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" s="5" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" s="5" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" s="5" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" s="5" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" s="5" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" s="5" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" s="5" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" s="5" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" s="5" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40" s="5" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41" s="5" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42" s="5" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A43" s="5" t="s">
-        <v>469</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A44" s="5" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A45" s="5" t="s">
-        <v>471</v>
-      </c>
-      <c r="B45" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A46" s="5" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A47" s="5" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A48" s="5" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A49" s="5" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A50" s="5" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A51" s="5" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A52" s="5" t="s">
-        <v>504</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A2" location="Admiral!A1" tooltip="Admiral" display="Admiral"/>
-    <hyperlink ref="A3" location="Chaplain!A1" display="Chaplain!A1"/>
-    <hyperlink ref="A4" location="Emberstar!A1" display="Emberstar!A1"/>
-    <hyperlink ref="A5" location="'Depths Voice'!A1" display="Depths Voice"/>
-    <hyperlink ref="A6" location="'Leaves Shadows'!A1" display="Leaves Shadows"/>
-    <hyperlink ref="A7" location="Rifleman!A1" display="Riflman"/>
-    <hyperlink ref="A8" location="'Lightning Elemental'!A1" display="Ligtning Elemental"/>
-    <hyperlink ref="A9" location="'Lightning Master'!A1" display="Lighting Master"/>
-    <hyperlink ref="A10" location="Necromancer!A1" display="Necromancer"/>
-    <hyperlink ref="A11" location="Ferryman!A1" display="Ferryman"/>
-    <hyperlink ref="A12" location="Silencer!A1" display="Silencer"/>
-    <hyperlink ref="A13" location="Mountain!A1" display="Mountain"/>
-    <hyperlink ref="A14" location="'Frost Mage'!A1" display="Frost Mage"/>
-    <hyperlink ref="A15" location="Psychopath!A1" display="Psychopath"/>
-    <hyperlink ref="A16" location="'Professional Killer'!A1" display="Professional Killer"/>
-    <hyperlink ref="A17" location="'Bear Warrior'!A1" display="Bear Warrior"/>
-    <hyperlink ref="A18" location="Mystic!A1" display="Mystic"/>
-    <hyperlink ref="A19" location="'Psychic Sword'!A1" display="Psychic Sword"/>
-    <hyperlink ref="A20" location="Sniper!A1" display="Sniper"/>
-    <hyperlink ref="A21" location="'Arcane Sapper'!A1" display="Arcane Sapper"/>
-    <hyperlink ref="A22" location="Machinist!A1" display="Machinist"/>
-    <hyperlink ref="A23" location="Cleric!A1" display="Cleric"/>
-    <hyperlink ref="A24" location="Succubus!A1" display="Succubus"/>
-    <hyperlink ref="A25" location="'Shallow Keeper'!A1" display="Shallow Keeper"/>
-    <hyperlink ref="A26" location="'Master Mage'!A1" display="Master Mage"/>
-    <hyperlink ref="A43" location="'Death Mage'!A1" display="Death Mage"/>
-    <hyperlink ref="A45" location="'Drunken Master'!A1" display="Drunken Master"/>
-    <hyperlink ref="A27" location="'Tusked Storm'!A1" display="Tusked Storm"/>
-    <hyperlink ref="A28" location="'Ice Mage'!A1" display="Ice Mage"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S22"/>
   <sheetViews>
@@ -8066,7 +10044,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S24"/>
   <sheetViews>
@@ -8754,7 +10732,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S24"/>
   <sheetViews>
@@ -9419,7 +11397,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S33"/>
   <sheetViews>
@@ -10024,7 +12002,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S22"/>
   <sheetViews>
@@ -10714,7 +12692,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S33"/>
   <sheetViews>
@@ -11508,7 +13486,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S26"/>
   <sheetViews>
@@ -12199,7 +14177,507 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:S24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N12" sqref="N12:S21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14" customWidth="1"/>
+    <col min="2" max="2" width="9" customWidth="1"/>
+    <col min="3" max="3" width="11.28515625" customWidth="1"/>
+    <col min="4" max="4" width="8.28515625" customWidth="1"/>
+    <col min="5" max="5" width="9.42578125" customWidth="1"/>
+    <col min="6" max="6" width="10.140625" customWidth="1"/>
+    <col min="7" max="7" width="11.5703125" customWidth="1"/>
+    <col min="8" max="8" width="6.85546875" customWidth="1"/>
+    <col min="9" max="9" width="9" customWidth="1"/>
+    <col min="10" max="10" width="10" customWidth="1"/>
+    <col min="12" max="12" width="8.140625" customWidth="1"/>
+    <col min="13" max="13" width="19.85546875" customWidth="1"/>
+    <col min="14" max="14" width="19.140625" customWidth="1"/>
+    <col min="15" max="15" width="16.7109375" customWidth="1"/>
+    <col min="16" max="16" width="15.28515625" customWidth="1"/>
+    <col min="17" max="17" width="19.28515625" customWidth="1"/>
+    <col min="18" max="18" width="16" customWidth="1"/>
+    <col min="19" max="19" width="17.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M3" t="s">
+        <v>564</v>
+      </c>
+      <c r="N3" s="9"/>
+      <c r="O3" s="9"/>
+      <c r="P3" s="9"/>
+      <c r="Q3" s="9"/>
+      <c r="R3" s="9"/>
+      <c r="S3" s="9"/>
+    </row>
+    <row r="4" spans="1:19" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="M4" s="7" t="s">
+        <v>565</v>
+      </c>
+      <c r="N4" s="9"/>
+      <c r="O4" s="9"/>
+      <c r="P4" s="9"/>
+      <c r="Q4" s="9"/>
+      <c r="R4" s="9"/>
+      <c r="S4" s="9"/>
+    </row>
+    <row r="5" spans="1:19" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="17">
+        <v>1.25</v>
+      </c>
+      <c r="C5" s="17">
+        <f>B5*2</f>
+        <v>2.5</v>
+      </c>
+      <c r="D5" s="17">
+        <f>B5*3</f>
+        <v>3.75</v>
+      </c>
+      <c r="E5" s="17">
+        <f>B5*4</f>
+        <v>5</v>
+      </c>
+      <c r="F5" s="17">
+        <f>B5*5</f>
+        <v>6.25</v>
+      </c>
+      <c r="G5" s="17">
+        <f>B5*6</f>
+        <v>7.5</v>
+      </c>
+      <c r="M5" s="19" t="s">
+        <v>566</v>
+      </c>
+      <c r="N5" s="9"/>
+      <c r="O5" s="9"/>
+      <c r="P5" s="9"/>
+      <c r="Q5" s="9"/>
+      <c r="R5" s="9"/>
+      <c r="S5" s="9"/>
+    </row>
+    <row r="6" spans="1:19" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="17">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="C6" s="17">
+        <f t="shared" ref="C6:C7" si="0">B6*2</f>
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="D6" s="17">
+        <f t="shared" ref="D6:D7" si="1">B6*3</f>
+        <v>3.3000000000000003</v>
+      </c>
+      <c r="E6" s="17">
+        <f t="shared" ref="E6:E7" si="2">B6*4</f>
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="F6" s="17">
+        <f t="shared" ref="F6:F7" si="3">B6*5</f>
+        <v>5.5</v>
+      </c>
+      <c r="G6" s="17">
+        <f t="shared" ref="G6:G7" si="4">B6*6</f>
+        <v>6.6000000000000005</v>
+      </c>
+      <c r="M6" s="18" t="s">
+        <v>567</v>
+      </c>
+      <c r="N6" s="9"/>
+      <c r="O6" s="9"/>
+      <c r="P6" s="9"/>
+      <c r="Q6" s="9"/>
+      <c r="R6" s="9"/>
+      <c r="S6" s="9"/>
+    </row>
+    <row r="7" spans="1:19" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="17">
+        <v>0.65</v>
+      </c>
+      <c r="C7" s="17">
+        <f t="shared" si="0"/>
+        <v>1.3</v>
+      </c>
+      <c r="D7" s="17">
+        <f t="shared" si="1"/>
+        <v>1.9500000000000002</v>
+      </c>
+      <c r="E7" s="17">
+        <f t="shared" si="2"/>
+        <v>2.6</v>
+      </c>
+      <c r="F7" s="17">
+        <f t="shared" si="3"/>
+        <v>3.25</v>
+      </c>
+      <c r="G7" s="17">
+        <f t="shared" si="4"/>
+        <v>3.9000000000000004</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>35</v>
+      </c>
+      <c r="B9">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>36</v>
+      </c>
+      <c r="B10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M11" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="N11" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="O11" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="P11" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q11" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="R11" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="S11" s="10" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="D12" s="10">
+        <v>1</v>
+      </c>
+      <c r="E12" s="10">
+        <v>10</v>
+      </c>
+      <c r="F12" s="10"/>
+      <c r="M12" t="s">
+        <v>235</v>
+      </c>
+      <c r="N12" s="9"/>
+      <c r="O12" s="9"/>
+      <c r="P12" s="9"/>
+      <c r="Q12" s="9"/>
+      <c r="R12" s="9"/>
+      <c r="S12" s="9"/>
+    </row>
+    <row r="13" spans="1:19" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" s="9">
+        <v>20</v>
+      </c>
+      <c r="C13" s="9">
+        <f>B13+$B$9*($B$10+1)*B5</f>
+        <v>95</v>
+      </c>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9">
+        <v>95</v>
+      </c>
+      <c r="F13" s="9"/>
+      <c r="M13" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="N13" s="9"/>
+      <c r="O13" s="9"/>
+      <c r="P13" s="9"/>
+      <c r="Q13" s="9"/>
+      <c r="R13" s="9"/>
+      <c r="S13" s="9"/>
+    </row>
+    <row r="14" spans="1:19" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" s="9">
+        <v>11</v>
+      </c>
+      <c r="C14" s="9">
+        <f>B14+$B$9*($B$10+1)*B6</f>
+        <v>77</v>
+      </c>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9">
+        <v>77</v>
+      </c>
+      <c r="F14" s="9"/>
+      <c r="M14" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="N14" s="9"/>
+      <c r="O14" s="9"/>
+      <c r="P14" s="9"/>
+      <c r="Q14" s="9"/>
+      <c r="R14" s="9"/>
+      <c r="S14" s="9"/>
+    </row>
+    <row r="15" spans="1:19" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B15" s="9">
+        <v>15</v>
+      </c>
+      <c r="C15" s="9">
+        <f>B15+$B$9*($B$10+1)*B7</f>
+        <v>54</v>
+      </c>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9">
+        <v>54</v>
+      </c>
+      <c r="F15" s="9"/>
+      <c r="M15" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="N15" s="9"/>
+      <c r="O15" s="9"/>
+      <c r="P15" s="9"/>
+      <c r="Q15" s="9"/>
+      <c r="R15" s="9"/>
+      <c r="S15" s="9"/>
+    </row>
+    <row r="16" spans="1:19" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16" s="9">
+        <v>176</v>
+      </c>
+      <c r="C16" s="9">
+        <f>ROUNDDOWN(B16+C13*Common!$B$1,0)</f>
+        <v>1886</v>
+      </c>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9">
+        <v>1886</v>
+      </c>
+      <c r="F16" s="9"/>
+      <c r="M16" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="N16" s="9"/>
+      <c r="O16" s="9"/>
+      <c r="P16" s="9"/>
+      <c r="Q16" s="9"/>
+      <c r="R16" s="9"/>
+      <c r="S16" s="9"/>
+    </row>
+    <row r="17" spans="1:19" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17" s="9">
+        <v>22</v>
+      </c>
+      <c r="C17" s="9">
+        <f>ROUND(B17+C13+C15*Common!$B$2,0)</f>
+        <v>139</v>
+      </c>
+      <c r="D17" s="9"/>
+      <c r="E17" s="9">
+        <v>139</v>
+      </c>
+      <c r="F17" s="9"/>
+      <c r="M17" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="N17" s="9"/>
+      <c r="O17" s="9"/>
+      <c r="P17" s="9"/>
+      <c r="Q17" s="9"/>
+      <c r="R17" s="9"/>
+      <c r="S17" s="9"/>
+    </row>
+    <row r="18" spans="1:19" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18" s="9">
+        <v>0</v>
+      </c>
+      <c r="C18" s="9">
+        <f>ROUND(B18+C14*Common!$B$3,0)</f>
+        <v>185</v>
+      </c>
+      <c r="D18" s="9"/>
+      <c r="E18" s="9">
+        <v>185</v>
+      </c>
+      <c r="F18" s="9"/>
+      <c r="M18" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="N18" s="9"/>
+      <c r="O18" s="9"/>
+      <c r="P18" s="9"/>
+      <c r="Q18" s="9"/>
+      <c r="R18" s="9"/>
+      <c r="S18" s="9"/>
+    </row>
+    <row r="19" spans="1:19" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19" s="22">
+        <v>3</v>
+      </c>
+      <c r="C19" s="9">
+        <f>B19+ROUND(C13/7,0)+ROUND(C15/14,0)</f>
+        <v>21</v>
+      </c>
+      <c r="D19" s="9"/>
+      <c r="E19" s="9">
+        <v>18</v>
+      </c>
+      <c r="F19" s="9"/>
+      <c r="M19" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="N19" s="9"/>
+      <c r="O19" s="9"/>
+      <c r="P19" s="9"/>
+      <c r="Q19" s="9"/>
+      <c r="R19" s="9"/>
+      <c r="S19" s="9"/>
+    </row>
+    <row r="20" spans="1:19" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B20" s="9">
+        <v>0</v>
+      </c>
+      <c r="C20" s="9">
+        <f>ROUND(C14*Common!$B$4,0)</f>
+        <v>8</v>
+      </c>
+      <c r="D20" s="9"/>
+      <c r="E20" s="9">
+        <v>8</v>
+      </c>
+      <c r="F20" s="9"/>
+      <c r="M20" s="18" t="s">
+        <v>118</v>
+      </c>
+      <c r="N20" s="9"/>
+      <c r="O20" s="9"/>
+      <c r="P20" s="9"/>
+      <c r="Q20" s="9"/>
+      <c r="R20" s="9"/>
+      <c r="S20" s="9"/>
+    </row>
+    <row r="21" spans="1:19" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B21" s="9">
+        <v>0</v>
+      </c>
+      <c r="C21" s="9">
+        <f>C15*Common!$B$5</f>
+        <v>21.6</v>
+      </c>
+      <c r="D21" s="9"/>
+      <c r="E21" s="9">
+        <v>22</v>
+      </c>
+      <c r="F21" s="9"/>
+      <c r="M21" s="18" t="s">
+        <v>119</v>
+      </c>
+      <c r="N21" s="9"/>
+      <c r="O21" s="9"/>
+      <c r="P21" s="9"/>
+      <c r="Q21" s="9"/>
+      <c r="R21" s="9"/>
+      <c r="S21" s="9"/>
+    </row>
+    <row r="22" spans="1:19" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A24" s="21" t="s">
+        <v>264</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S22"/>
   <sheetViews>
@@ -12858,7 +15336,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S22"/>
   <sheetViews>
@@ -13527,7 +16005,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S60"/>
   <sheetViews>
@@ -14598,684 +17076,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S30"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O3" sqref="O3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="14" customWidth="1"/>
-    <col min="2" max="2" width="9" customWidth="1"/>
-    <col min="3" max="3" width="7.42578125" customWidth="1"/>
-    <col min="4" max="4" width="8.28515625" customWidth="1"/>
-    <col min="5" max="5" width="9.42578125" customWidth="1"/>
-    <col min="6" max="6" width="10.140625" customWidth="1"/>
-    <col min="7" max="7" width="11.5703125" customWidth="1"/>
-    <col min="8" max="8" width="6.85546875" customWidth="1"/>
-    <col min="9" max="9" width="9" customWidth="1"/>
-    <col min="10" max="10" width="10" customWidth="1"/>
-    <col min="12" max="12" width="8.140625" customWidth="1"/>
-    <col min="13" max="13" width="19.85546875" customWidth="1"/>
-    <col min="14" max="14" width="19.140625" customWidth="1"/>
-    <col min="15" max="15" width="16.7109375" customWidth="1"/>
-    <col min="16" max="16" width="12.28515625" customWidth="1"/>
-    <col min="17" max="17" width="13.5703125" customWidth="1"/>
-    <col min="18" max="18" width="16" customWidth="1"/>
-    <col min="19" max="19" width="17.42578125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>13</v>
-      </c>
-      <c r="M1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="M3" s="8" t="s">
-        <v>541</v>
-      </c>
-      <c r="N3" s="9" t="s">
-        <v>273</v>
-      </c>
-      <c r="O3" s="9">
-        <f>7.04*B9</f>
-        <v>140.80000000000001</v>
-      </c>
-      <c r="P3" s="9" t="s">
-        <v>549</v>
-      </c>
-      <c r="Q3" s="9"/>
-      <c r="R3" s="9"/>
-      <c r="S3" s="9"/>
-    </row>
-    <row r="4" spans="1:19" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="C4" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="F4" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="G4" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="M4" s="7" t="s">
-        <v>542</v>
-      </c>
-      <c r="N4" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="O4" s="9">
-        <f>16.5*B9</f>
-        <v>330</v>
-      </c>
-      <c r="P4" s="9" t="s">
-        <v>545</v>
-      </c>
-      <c r="Q4" s="9"/>
-      <c r="R4" s="9"/>
-      <c r="S4" s="9"/>
-    </row>
-    <row r="5" spans="1:19" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="17">
-        <v>0.85</v>
-      </c>
-      <c r="C5" s="17">
-        <f>B5*2</f>
-        <v>1.7</v>
-      </c>
-      <c r="D5" s="17">
-        <f>B5*3</f>
-        <v>2.5499999999999998</v>
-      </c>
-      <c r="E5" s="17">
-        <f>B5*4</f>
-        <v>3.4</v>
-      </c>
-      <c r="F5" s="17">
-        <f>B5*5</f>
-        <v>4.25</v>
-      </c>
-      <c r="G5" s="17">
-        <f>B5*6</f>
-        <v>5.0999999999999996</v>
-      </c>
-      <c r="M5" s="19" t="s">
-        <v>543</v>
-      </c>
-      <c r="N5" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="O5" s="9">
-        <f>9.9*B9</f>
-        <v>198</v>
-      </c>
-      <c r="P5" s="9" t="s">
-        <v>546</v>
-      </c>
-      <c r="Q5" s="9"/>
-      <c r="R5" s="9"/>
-      <c r="S5" s="9"/>
-    </row>
-    <row r="6" spans="1:19" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="17">
-        <v>1.4</v>
-      </c>
-      <c r="C6" s="17">
-        <f t="shared" ref="C6:C7" si="0">B6*2</f>
-        <v>2.8</v>
-      </c>
-      <c r="D6" s="17">
-        <f t="shared" ref="D6:D7" si="1">B6*3</f>
-        <v>4.1999999999999993</v>
-      </c>
-      <c r="E6" s="17">
-        <f t="shared" ref="E6:E7" si="2">B6*4</f>
-        <v>5.6</v>
-      </c>
-      <c r="F6" s="17">
-        <f t="shared" ref="F6:F7" si="3">B6*5</f>
-        <v>7</v>
-      </c>
-      <c r="G6" s="17">
-        <f t="shared" ref="G6:G7" si="4">B6*6</f>
-        <v>8.3999999999999986</v>
-      </c>
-      <c r="M6" s="18" t="s">
-        <v>544</v>
-      </c>
-      <c r="N6" s="9" t="s">
-        <v>548</v>
-      </c>
-      <c r="O6" s="9">
-        <f>3*B9</f>
-        <v>60</v>
-      </c>
-      <c r="P6" s="9" t="s">
-        <v>547</v>
-      </c>
-      <c r="Q6" s="9"/>
-      <c r="R6" s="9"/>
-      <c r="S6" s="9"/>
-    </row>
-    <row r="7" spans="1:19" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" s="17">
-        <v>0.85</v>
-      </c>
-      <c r="C7" s="17">
-        <f t="shared" si="0"/>
-        <v>1.7</v>
-      </c>
-      <c r="D7" s="17">
-        <f t="shared" si="1"/>
-        <v>2.5499999999999998</v>
-      </c>
-      <c r="E7" s="17">
-        <f t="shared" si="2"/>
-        <v>3.4</v>
-      </c>
-      <c r="F7" s="17">
-        <f t="shared" si="3"/>
-        <v>4.25</v>
-      </c>
-      <c r="G7" s="17">
-        <f t="shared" si="4"/>
-        <v>5.0999999999999996</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>35</v>
-      </c>
-      <c r="B9">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>36</v>
-      </c>
-      <c r="B10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="M11" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="N11" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="O11" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="P11" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q11" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="R11" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="S11" s="10" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="12" spans="1:19" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="C12" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="D12" s="10">
-        <v>1</v>
-      </c>
-      <c r="E12" s="10">
-        <v>20</v>
-      </c>
-      <c r="M12" t="s">
-        <v>235</v>
-      </c>
-      <c r="N12" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="O12" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="P12" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="Q12" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="R12" s="9" t="s">
-        <v>245</v>
-      </c>
-      <c r="S12" s="9" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="13" spans="1:19" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13" s="9">
-        <v>14</v>
-      </c>
-      <c r="C13" s="9">
-        <f>B13+$B$9*($B$10+1)*B5</f>
-        <v>65</v>
-      </c>
-      <c r="D13" s="9">
-        <v>17</v>
-      </c>
-      <c r="E13" s="9">
-        <v>65</v>
-      </c>
-      <c r="M13" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="N13" s="9" t="s">
-        <v>131</v>
-      </c>
-      <c r="O13" s="9" t="s">
-        <v>126</v>
-      </c>
-      <c r="P13" s="9" t="s">
-        <v>128</v>
-      </c>
-      <c r="Q13" s="9" t="s">
-        <v>128</v>
-      </c>
-      <c r="R13" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="S13" s="9" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="14" spans="1:19" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14" s="9">
-        <v>18</v>
-      </c>
-      <c r="C14" s="9">
-        <f>B14+$B$9*($B$10+1)*B6</f>
-        <v>102</v>
-      </c>
-      <c r="D14" s="9">
-        <v>22</v>
-      </c>
-      <c r="E14" s="9">
-        <v>102</v>
-      </c>
-      <c r="M14" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="N14" s="9" t="s">
-        <v>534</v>
-      </c>
-      <c r="O14" s="9" t="s">
-        <v>102</v>
-      </c>
-      <c r="P14" s="9" t="s">
-        <v>236</v>
-      </c>
-      <c r="Q14" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="R14" s="9" t="s">
-        <v>128</v>
-      </c>
-      <c r="S14" s="9" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="15" spans="1:19" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="B15" s="9">
-        <v>13</v>
-      </c>
-      <c r="C15" s="9">
-        <f>B15+$B$9*($B$10+1)*B7</f>
-        <v>64</v>
-      </c>
-      <c r="D15" s="9">
-        <v>17</v>
-      </c>
-      <c r="E15" s="9">
-        <v>64</v>
-      </c>
-      <c r="M15" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="N15" s="9" t="s">
-        <v>146</v>
-      </c>
-      <c r="O15" s="9" t="s">
-        <v>535</v>
-      </c>
-      <c r="P15" s="25" t="s">
-        <v>61</v>
-      </c>
-      <c r="Q15" s="9" t="s">
-        <v>127</v>
-      </c>
-      <c r="R15" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="S15" s="9" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="16" spans="1:19" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="B16" s="9">
-        <v>171</v>
-      </c>
-      <c r="C16" s="9">
-        <f>ROUNDDOWN(B16+C13*Common!$B$1,0)</f>
-        <v>1341</v>
-      </c>
-      <c r="D16" s="9">
-        <v>469</v>
-      </c>
-      <c r="E16" s="9">
-        <v>1341</v>
-      </c>
-      <c r="M16" s="19" t="s">
-        <v>50</v>
-      </c>
-      <c r="N16" s="9" t="s">
-        <v>183</v>
-      </c>
-      <c r="O16" s="9" t="s">
-        <v>250</v>
-      </c>
-      <c r="P16" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="Q16" s="9" t="s">
-        <v>128</v>
-      </c>
-      <c r="R16" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="S16" s="9" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="17" spans="1:19" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="B17" s="9">
-        <v>13</v>
-      </c>
-      <c r="C17" s="9">
-        <f>ROUND(B17+C14+C15*Common!$B$2,0)</f>
-        <v>141</v>
-      </c>
-      <c r="D17" s="9">
-        <v>43</v>
-      </c>
-      <c r="E17" s="9">
-        <v>141</v>
-      </c>
-      <c r="M17" s="19" t="s">
-        <v>51</v>
-      </c>
-      <c r="N17" s="9" t="s">
-        <v>144</v>
-      </c>
-      <c r="O17" s="9" t="s">
-        <v>341</v>
-      </c>
-      <c r="P17" s="9" t="s">
-        <v>360</v>
-      </c>
-      <c r="Q17" s="9" t="s">
-        <v>333</v>
-      </c>
-      <c r="R17" s="9" t="s">
-        <v>128</v>
-      </c>
-      <c r="S17" s="9" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="18" spans="1:19" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="B18" s="9">
-        <v>0</v>
-      </c>
-      <c r="C18" s="9">
-        <f>ROUND(B18+C14*Common!$B$3,0)</f>
-        <v>245</v>
-      </c>
-      <c r="D18" s="9">
-        <v>54</v>
-      </c>
-      <c r="E18" s="9">
-        <v>245</v>
-      </c>
-      <c r="M18" s="18" t="s">
-        <v>52</v>
-      </c>
-      <c r="N18" s="9" t="s">
-        <v>536</v>
-      </c>
-      <c r="O18" s="9" t="s">
-        <v>253</v>
-      </c>
-      <c r="P18" s="9" t="s">
-        <v>517</v>
-      </c>
-      <c r="Q18" s="9" t="s">
-        <v>142</v>
-      </c>
-      <c r="R18" s="9" t="s">
-        <v>127</v>
-      </c>
-      <c r="S18" s="9" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="19" spans="1:19" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="B19" s="22">
-        <v>0</v>
-      </c>
-      <c r="C19" s="9">
-        <f>B19+ROUND(C13/7,0)+ROUND(C15/14,0)</f>
-        <v>14</v>
-      </c>
-      <c r="D19" s="9">
-        <v>2</v>
-      </c>
-      <c r="E19" s="9">
-        <v>13</v>
-      </c>
-      <c r="M19" s="18" t="s">
-        <v>53</v>
-      </c>
-      <c r="N19" s="9" t="s">
-        <v>152</v>
-      </c>
-      <c r="O19" s="9" t="s">
-        <v>149</v>
-      </c>
-      <c r="P19" s="9" t="s">
-        <v>538</v>
-      </c>
-      <c r="Q19" s="9" t="s">
-        <v>141</v>
-      </c>
-      <c r="R19" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="S19" s="9" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="20" spans="1:19" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="B20" s="9">
-        <v>0</v>
-      </c>
-      <c r="C20" s="9">
-        <f>ROUND(C14*Common!$B$4,0)</f>
-        <v>10</v>
-      </c>
-      <c r="D20" s="9">
-        <v>2</v>
-      </c>
-      <c r="E20" s="9">
-        <v>10</v>
-      </c>
-      <c r="M20" s="18" t="s">
-        <v>118</v>
-      </c>
-      <c r="N20" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="O20" s="9" t="s">
-        <v>121</v>
-      </c>
-      <c r="P20" s="9" t="s">
-        <v>539</v>
-      </c>
-      <c r="Q20" s="9" t="s">
-        <v>151</v>
-      </c>
-      <c r="R20" s="9" t="s">
-        <v>129</v>
-      </c>
-      <c r="S20" s="9" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="21" spans="1:19" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="B21" s="9">
-        <v>0</v>
-      </c>
-      <c r="C21" s="9">
-        <f>C15*Common!$B$5</f>
-        <v>25.6</v>
-      </c>
-      <c r="D21" s="9">
-        <v>7</v>
-      </c>
-      <c r="E21" s="9">
-        <v>26</v>
-      </c>
-      <c r="M21" s="18" t="s">
-        <v>119</v>
-      </c>
-      <c r="N21" s="9" t="s">
-        <v>115</v>
-      </c>
-      <c r="O21" s="9" t="s">
-        <v>144</v>
-      </c>
-      <c r="P21" s="9" t="s">
-        <v>540</v>
-      </c>
-      <c r="Q21" s="9" t="s">
-        <v>250</v>
-      </c>
-      <c r="R21" s="9" t="s">
-        <v>110</v>
-      </c>
-      <c r="S21" s="9" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="22" spans="1:19" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A24" s="21" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="L27">
-        <v>7.04</v>
-      </c>
-    </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="M29">
-        <v>46</v>
-      </c>
-      <c r="N29">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="M30">
-        <v>323.83999999999997</v>
-      </c>
-      <c r="N30">
-        <v>415.36</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S22"/>
   <sheetViews>
@@ -15918,7 +17719,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S22"/>
   <sheetViews>
@@ -16585,7 +18386,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M23"/>
   <sheetViews>
@@ -16795,7 +18596,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B5"/>
   <sheetViews>
@@ -16858,7 +18659,645 @@
   <dimension ref="A1:S24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="A1:XFD1048576"/>
+      <selection activeCell="E33" sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14" customWidth="1"/>
+    <col min="2" max="2" width="9" customWidth="1"/>
+    <col min="3" max="3" width="11.28515625" customWidth="1"/>
+    <col min="4" max="4" width="8.28515625" customWidth="1"/>
+    <col min="5" max="5" width="9.42578125" customWidth="1"/>
+    <col min="6" max="6" width="10.140625" customWidth="1"/>
+    <col min="7" max="7" width="11.5703125" customWidth="1"/>
+    <col min="8" max="8" width="6.85546875" customWidth="1"/>
+    <col min="9" max="9" width="9" customWidth="1"/>
+    <col min="10" max="10" width="10" customWidth="1"/>
+    <col min="12" max="12" width="8.140625" customWidth="1"/>
+    <col min="13" max="13" width="19.85546875" customWidth="1"/>
+    <col min="14" max="14" width="19.140625" customWidth="1"/>
+    <col min="15" max="15" width="16.7109375" customWidth="1"/>
+    <col min="16" max="16" width="15.28515625" customWidth="1"/>
+    <col min="17" max="17" width="19.28515625" customWidth="1"/>
+    <col min="18" max="18" width="16" customWidth="1"/>
+    <col min="19" max="19" width="17.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M3" t="s">
+        <v>564</v>
+      </c>
+      <c r="N3" s="9"/>
+      <c r="O3" s="9"/>
+      <c r="P3" s="9"/>
+      <c r="Q3" s="9"/>
+      <c r="R3" s="9"/>
+      <c r="S3" s="9"/>
+    </row>
+    <row r="4" spans="1:19" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="M4" s="7" t="s">
+        <v>565</v>
+      </c>
+      <c r="N4" s="9"/>
+      <c r="O4" s="9"/>
+      <c r="P4" s="9"/>
+      <c r="Q4" s="9"/>
+      <c r="R4" s="9"/>
+      <c r="S4" s="9"/>
+    </row>
+    <row r="5" spans="1:19" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="17">
+        <v>1.45</v>
+      </c>
+      <c r="C5" s="17">
+        <f>B5*2</f>
+        <v>2.9</v>
+      </c>
+      <c r="D5" s="17">
+        <f>B5*3</f>
+        <v>4.3499999999999996</v>
+      </c>
+      <c r="E5" s="17">
+        <f>B5*4</f>
+        <v>5.8</v>
+      </c>
+      <c r="F5" s="17">
+        <f>B5*5</f>
+        <v>7.25</v>
+      </c>
+      <c r="G5" s="17">
+        <f>B5*6</f>
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="M5" s="19" t="s">
+        <v>566</v>
+      </c>
+      <c r="N5" s="9"/>
+      <c r="O5" s="9"/>
+      <c r="P5" s="9"/>
+      <c r="Q5" s="9"/>
+      <c r="R5" s="9"/>
+      <c r="S5" s="9"/>
+    </row>
+    <row r="6" spans="1:19" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="17">
+        <v>0.8</v>
+      </c>
+      <c r="C6" s="17">
+        <f t="shared" ref="C6:C7" si="0">B6*2</f>
+        <v>1.6</v>
+      </c>
+      <c r="D6" s="17">
+        <f t="shared" ref="D6:D7" si="1">B6*3</f>
+        <v>2.4000000000000004</v>
+      </c>
+      <c r="E6" s="17">
+        <f t="shared" ref="E6:E7" si="2">B6*4</f>
+        <v>3.2</v>
+      </c>
+      <c r="F6" s="17">
+        <f t="shared" ref="F6:F7" si="3">B6*5</f>
+        <v>4</v>
+      </c>
+      <c r="G6" s="17">
+        <f t="shared" ref="G6:G7" si="4">B6*6</f>
+        <v>4.8000000000000007</v>
+      </c>
+      <c r="M6" s="18" t="s">
+        <v>567</v>
+      </c>
+      <c r="N6" s="9"/>
+      <c r="O6" s="9"/>
+      <c r="P6" s="9"/>
+      <c r="Q6" s="9"/>
+      <c r="R6" s="9"/>
+      <c r="S6" s="9"/>
+    </row>
+    <row r="7" spans="1:19" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="17">
+        <v>0.8</v>
+      </c>
+      <c r="C7" s="17">
+        <f t="shared" si="0"/>
+        <v>1.6</v>
+      </c>
+      <c r="D7" s="17">
+        <f t="shared" si="1"/>
+        <v>2.4000000000000004</v>
+      </c>
+      <c r="E7" s="17">
+        <f t="shared" si="2"/>
+        <v>3.2</v>
+      </c>
+      <c r="F7" s="17">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="G7" s="17">
+        <f t="shared" si="4"/>
+        <v>4.8000000000000007</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>35</v>
+      </c>
+      <c r="B9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>36</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M11" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="N11" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="O11" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="P11" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q11" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="R11" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="S11" s="10" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="D12" s="10">
+        <v>1</v>
+      </c>
+      <c r="E12" s="10">
+        <v>10</v>
+      </c>
+      <c r="F12" s="10"/>
+      <c r="M12" t="s">
+        <v>235</v>
+      </c>
+      <c r="N12" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="O12" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="P12" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q12" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="R12" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="S12" s="9" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" s="9">
+        <v>19</v>
+      </c>
+      <c r="C13" s="9">
+        <f>B13+$B$9*($B$10+1)*B5</f>
+        <v>48</v>
+      </c>
+      <c r="D13" s="9">
+        <v>22</v>
+      </c>
+      <c r="E13" s="9">
+        <v>48</v>
+      </c>
+      <c r="F13" s="9"/>
+      <c r="M13" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="N13" s="9" t="s">
+        <v>556</v>
+      </c>
+      <c r="O13" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="P13" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q13" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="R13" s="9" t="s">
+        <v>249</v>
+      </c>
+      <c r="S13" s="9" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" s="9">
+        <v>12</v>
+      </c>
+      <c r="C14" s="9">
+        <f>B14+$B$9*($B$10+1)*B6</f>
+        <v>28</v>
+      </c>
+      <c r="D14" s="9">
+        <v>14</v>
+      </c>
+      <c r="E14" s="9">
+        <v>28</v>
+      </c>
+      <c r="F14" s="9"/>
+      <c r="M14" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="N14" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="O14" s="9" t="s">
+        <v>557</v>
+      </c>
+      <c r="P14" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="Q14" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="R14" s="9" t="s">
+        <v>558</v>
+      </c>
+      <c r="S14" s="9" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B15" s="9">
+        <v>15</v>
+      </c>
+      <c r="C15" s="9">
+        <f>B15+$B$9*($B$10+1)*B7</f>
+        <v>31</v>
+      </c>
+      <c r="D15" s="9">
+        <v>17</v>
+      </c>
+      <c r="E15" s="9">
+        <v>31</v>
+      </c>
+      <c r="F15" s="9"/>
+      <c r="M15" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="N15" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="O15" s="9" t="s">
+        <v>559</v>
+      </c>
+      <c r="P15" s="9" t="s">
+        <v>560</v>
+      </c>
+      <c r="Q15" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="R15" s="9" t="s">
+        <v>247</v>
+      </c>
+      <c r="S15" s="9" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16" s="9">
+        <v>171</v>
+      </c>
+      <c r="C16" s="9">
+        <f>ROUNDDOWN(B16+C13*Common!$B$1,0)</f>
+        <v>1035</v>
+      </c>
+      <c r="D16" s="9">
+        <v>565</v>
+      </c>
+      <c r="E16" s="9">
+        <v>1035</v>
+      </c>
+      <c r="F16" s="9"/>
+      <c r="M16" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="N16" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="O16" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="P16" s="9" t="s">
+        <v>382</v>
+      </c>
+      <c r="Q16" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="R16" s="9" t="s">
+        <v>558</v>
+      </c>
+      <c r="S16" s="9" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17" s="9">
+        <v>26</v>
+      </c>
+      <c r="C17" s="9">
+        <f>ROUND(B17+C13+C15*Common!$B$2,0)</f>
+        <v>86</v>
+      </c>
+      <c r="D17" s="9">
+        <v>54</v>
+      </c>
+      <c r="E17" s="9">
+        <v>86</v>
+      </c>
+      <c r="F17" s="9"/>
+      <c r="M17" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="N17" s="9" t="s">
+        <v>561</v>
+      </c>
+      <c r="O17" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="P17" s="9" t="s">
+        <v>199</v>
+      </c>
+      <c r="Q17" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="R17" s="9" t="s">
+        <v>246</v>
+      </c>
+      <c r="S17" s="9" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18" s="9">
+        <v>0</v>
+      </c>
+      <c r="C18" s="9">
+        <f>ROUND(B18+C14*Common!$B$3,0)</f>
+        <v>67</v>
+      </c>
+      <c r="D18" s="9">
+        <v>33</v>
+      </c>
+      <c r="E18" s="9">
+        <v>68</v>
+      </c>
+      <c r="F18" s="9"/>
+      <c r="M18" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="N18" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="O18" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="P18" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="Q18" s="9" t="s">
+        <v>198</v>
+      </c>
+      <c r="R18" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="S18" s="9" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19" s="22">
+        <v>3</v>
+      </c>
+      <c r="C19" s="9">
+        <f>B19+ROUND(C13/7,0)+ROUND(C15/14,0)</f>
+        <v>12</v>
+      </c>
+      <c r="D19" s="9">
+        <v>3</v>
+      </c>
+      <c r="E19" s="9">
+        <v>8</v>
+      </c>
+      <c r="F19" s="9"/>
+      <c r="M19" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="N19" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="O19" s="9" t="s">
+        <v>299</v>
+      </c>
+      <c r="P19" s="9" t="s">
+        <v>562</v>
+      </c>
+      <c r="Q19" s="9" t="s">
+        <v>563</v>
+      </c>
+      <c r="R19" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="S19" s="9" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B20" s="9">
+        <v>0</v>
+      </c>
+      <c r="C20" s="9">
+        <f>ROUND(C14*Common!$B$4,0)</f>
+        <v>3</v>
+      </c>
+      <c r="D20" s="9">
+        <v>1</v>
+      </c>
+      <c r="E20" s="9">
+        <v>3</v>
+      </c>
+      <c r="F20" s="9"/>
+      <c r="M20" s="18" t="s">
+        <v>118</v>
+      </c>
+      <c r="N20" s="9" t="s">
+        <v>362</v>
+      </c>
+      <c r="O20" s="9" t="s">
+        <v>342</v>
+      </c>
+      <c r="P20" s="9" t="s">
+        <v>300</v>
+      </c>
+      <c r="Q20" s="9" t="s">
+        <v>448</v>
+      </c>
+      <c r="R20" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="S20" s="9" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B21" s="9">
+        <v>0</v>
+      </c>
+      <c r="C21" s="9">
+        <f>C15*Common!$B$5</f>
+        <v>12.4</v>
+      </c>
+      <c r="D21" s="9">
+        <v>7</v>
+      </c>
+      <c r="E21" s="9">
+        <v>13</v>
+      </c>
+      <c r="F21" s="9"/>
+      <c r="M21" s="18" t="s">
+        <v>119</v>
+      </c>
+      <c r="N21" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="O21" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="P21" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="Q21" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="R21" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="S21" s="9" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A24" s="21" t="s">
+        <v>264</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:S24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16899,23 +19338,16 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>70</v>
+        <v>234</v>
       </c>
     </row>
     <row r="3" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="M3" s="8" t="s">
-        <v>518</v>
-      </c>
-      <c r="N3" s="9" t="s">
-        <v>273</v>
-      </c>
-      <c r="O3" s="9">
-        <f>17.6*B9</f>
-        <v>176</v>
-      </c>
-      <c r="P3" s="9" t="s">
-        <v>527</v>
-      </c>
+        <v>552</v>
+      </c>
+      <c r="N3" s="9"/>
+      <c r="O3" s="9"/>
+      <c r="P3" s="9"/>
       <c r="Q3" s="9"/>
       <c r="R3" s="9"/>
       <c r="S3" s="9"/>
@@ -16940,18 +19372,11 @@
         <v>11</v>
       </c>
       <c r="M4" s="7" t="s">
-        <v>519</v>
-      </c>
-      <c r="N4" s="9" t="s">
-        <v>526</v>
-      </c>
-      <c r="O4" s="9">
-        <f>5*B9</f>
-        <v>50</v>
-      </c>
-      <c r="P4" s="9" t="s">
-        <v>525</v>
-      </c>
+        <v>553</v>
+      </c>
+      <c r="N4" s="9"/>
+      <c r="O4" s="9"/>
+      <c r="P4" s="9"/>
       <c r="Q4" s="9"/>
       <c r="R4" s="9"/>
       <c r="S4" s="9"/>
@@ -16961,41 +19386,34 @@
         <v>4</v>
       </c>
       <c r="B5" s="17">
-        <v>0.95</v>
+        <v>0.85</v>
       </c>
       <c r="C5" s="17">
         <f>B5*2</f>
-        <v>1.9</v>
+        <v>1.7</v>
       </c>
       <c r="D5" s="17">
         <f>B5*3</f>
-        <v>2.8499999999999996</v>
+        <v>2.5499999999999998</v>
       </c>
       <c r="E5" s="17">
         <f>B5*4</f>
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="F5" s="17">
         <f>B5*5</f>
-        <v>4.75</v>
+        <v>4.25</v>
       </c>
       <c r="G5" s="17">
         <f>B5*6</f>
-        <v>5.6999999999999993</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="M5" s="19" t="s">
-        <v>520</v>
-      </c>
-      <c r="N5" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="O5" s="9">
-        <f>11*B9</f>
-        <v>110</v>
-      </c>
-      <c r="P5" s="9" t="s">
-        <v>524</v>
-      </c>
+        <v>554</v>
+      </c>
+      <c r="N5" s="9"/>
+      <c r="O5" s="9"/>
+      <c r="P5" s="9"/>
       <c r="Q5" s="9"/>
       <c r="R5" s="9"/>
       <c r="S5" s="9"/>
@@ -17005,41 +19423,34 @@
         <v>5</v>
       </c>
       <c r="B6" s="17">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="C6" s="17">
         <f t="shared" ref="C6:C7" si="0">B6*2</f>
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="D6" s="17">
         <f t="shared" ref="D6:D7" si="1">B6*3</f>
-        <v>2.5499999999999998</v>
+        <v>2.7</v>
       </c>
       <c r="E6" s="17">
         <f t="shared" ref="E6:E7" si="2">B6*4</f>
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="F6" s="17">
         <f t="shared" ref="F6:F7" si="3">B6*5</f>
-        <v>4.25</v>
+        <v>4.5</v>
       </c>
       <c r="G6" s="17">
         <f t="shared" ref="G6:G7" si="4">B6*6</f>
-        <v>5.0999999999999996</v>
+        <v>5.4</v>
       </c>
       <c r="M6" s="18" t="s">
-        <v>521</v>
-      </c>
-      <c r="N6" s="9" t="s">
-        <v>522</v>
-      </c>
-      <c r="O6" s="9">
-        <f>2*B9</f>
-        <v>20</v>
-      </c>
-      <c r="P6" s="9" t="s">
-        <v>523</v>
-      </c>
+        <v>495</v>
+      </c>
+      <c r="N6" s="9"/>
+      <c r="O6" s="9"/>
+      <c r="P6" s="9"/>
       <c r="Q6" s="9"/>
       <c r="R6" s="9"/>
       <c r="S6" s="9"/>
@@ -17049,27 +19460,27 @@
         <v>6</v>
       </c>
       <c r="B7" s="17">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="C7" s="17">
         <f t="shared" si="0"/>
-        <v>2.8</v>
+        <v>3.1</v>
       </c>
       <c r="D7" s="17">
         <f t="shared" si="1"/>
-        <v>4.1999999999999993</v>
+        <v>4.6500000000000004</v>
       </c>
       <c r="E7" s="17">
         <f t="shared" si="2"/>
-        <v>5.6</v>
+        <v>6.2</v>
       </c>
       <c r="F7" s="17">
         <f t="shared" si="3"/>
-        <v>7</v>
+        <v>7.75</v>
       </c>
       <c r="G7" s="17">
         <f t="shared" si="4"/>
-        <v>8.3999999999999986</v>
+        <v>9.3000000000000007</v>
       </c>
     </row>
     <row r="8" spans="1:19" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
@@ -17086,7 +19497,7 @@
         <v>36</v>
       </c>
       <c r="B10">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:19" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -17135,16 +19546,16 @@
         <v>30</v>
       </c>
       <c r="P12" s="9" t="s">
-        <v>76</v>
+        <v>33</v>
       </c>
       <c r="Q12" s="9" t="s">
-        <v>76</v>
+        <v>33</v>
       </c>
       <c r="R12" s="9" t="s">
-        <v>33</v>
+        <v>75</v>
       </c>
       <c r="S12" s="9" t="s">
-        <v>75</v>
+        <v>31</v>
       </c>
     </row>
     <row r="13" spans="1:19" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -17152,35 +19563,35 @@
         <v>12</v>
       </c>
       <c r="B13" s="9">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C13" s="9">
         <f>B13+$B$9*($B$10+1)*B5</f>
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="D13" s="9">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E13" s="9">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="M13" s="7" t="s">
         <v>47</v>
       </c>
       <c r="N13" s="9" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="O13" s="9" t="s">
         <v>56</v>
       </c>
       <c r="P13" s="9" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
       <c r="Q13" s="9" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="R13" s="9" t="s">
-        <v>249</v>
+        <v>57</v>
       </c>
       <c r="S13" s="9" t="s">
         <v>59</v>
@@ -17191,17 +19602,17 @@
         <v>13</v>
       </c>
       <c r="B14" s="9">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C14" s="9">
         <f>B14+$B$9*($B$10+1)*B6</f>
-        <v>32</v>
+        <v>53</v>
       </c>
       <c r="D14" s="9">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="E14" s="9">
-        <v>32</v>
+        <v>53</v>
       </c>
       <c r="M14" s="7" t="s">
         <v>48</v>
@@ -17210,16 +19621,16 @@
         <v>60</v>
       </c>
       <c r="O14" s="9" t="s">
-        <v>247</v>
+        <v>63</v>
       </c>
       <c r="P14" s="9" t="s">
-        <v>515</v>
+        <v>61</v>
       </c>
       <c r="Q14" s="9" t="s">
-        <v>63</v>
+        <v>189</v>
       </c>
       <c r="R14" s="9" t="s">
-        <v>249</v>
+        <v>56</v>
       </c>
       <c r="S14" s="9" t="s">
         <v>59</v>
@@ -17230,17 +19641,17 @@
         <v>1</v>
       </c>
       <c r="B15" s="9">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C15" s="9">
         <f>B15+$B$9*($B$10+1)*B7</f>
-        <v>45</v>
+        <v>80</v>
       </c>
       <c r="D15" s="9">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E15" s="9">
-        <v>45</v>
+        <v>80</v>
       </c>
       <c r="M15" s="19" t="s">
         <v>49</v>
@@ -17249,19 +19660,19 @@
         <v>67</v>
       </c>
       <c r="O15" s="9" t="s">
-        <v>64</v>
+        <v>111</v>
       </c>
       <c r="P15" s="9" t="s">
-        <v>196</v>
+        <v>138</v>
       </c>
       <c r="Q15" s="9" t="s">
-        <v>97</v>
+        <v>343</v>
       </c>
       <c r="R15" s="9" t="s">
-        <v>190</v>
+        <v>56</v>
       </c>
       <c r="S15" s="9" t="s">
-        <v>104</v>
+        <v>59</v>
       </c>
     </row>
     <row r="16" spans="1:19" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -17269,38 +19680,38 @@
         <v>14</v>
       </c>
       <c r="B16" s="9">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="C16" s="9">
         <f>ROUNDDOWN(B16+C13*Common!$B$1,0)</f>
-        <v>781</v>
+        <v>1001</v>
       </c>
       <c r="D16" s="9">
-        <v>473</v>
+        <v>451</v>
       </c>
       <c r="E16" s="9">
-        <v>781</v>
+        <v>1001</v>
       </c>
       <c r="M16" s="19" t="s">
         <v>50</v>
       </c>
       <c r="N16" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="O16" s="9" t="s">
         <v>110</v>
       </c>
-      <c r="O16" s="9" t="s">
-        <v>111</v>
-      </c>
       <c r="P16" s="9" t="s">
-        <v>193</v>
+        <v>62</v>
       </c>
       <c r="Q16" s="9" t="s">
-        <v>112</v>
+        <v>190</v>
       </c>
       <c r="R16" s="9" t="s">
-        <v>147</v>
+        <v>103</v>
       </c>
       <c r="S16" s="9" t="s">
-        <v>104</v>
+        <v>69</v>
       </c>
     </row>
     <row r="17" spans="1:19" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -17308,35 +19719,35 @@
         <v>15</v>
       </c>
       <c r="B17" s="9">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="C17" s="9">
         <f>ROUND(B17+C15+C15*Common!$B$2,0)</f>
-        <v>69</v>
+        <v>136</v>
       </c>
       <c r="D17" s="9">
-        <v>34</v>
+        <v>58</v>
       </c>
       <c r="E17" s="9">
-        <v>69</v>
+        <v>136</v>
       </c>
       <c r="M17" s="19" t="s">
         <v>51</v>
       </c>
       <c r="N17" s="9" t="s">
-        <v>148</v>
+        <v>194</v>
       </c>
       <c r="O17" s="9" t="s">
-        <v>151</v>
+        <v>193</v>
       </c>
       <c r="P17" s="9" t="s">
-        <v>516</v>
+        <v>64</v>
       </c>
       <c r="Q17" s="9" t="s">
-        <v>515</v>
+        <v>296</v>
       </c>
       <c r="R17" s="9" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S17" s="9" t="s">
         <v>69</v>
@@ -17351,31 +19762,31 @@
       </c>
       <c r="C18" s="9">
         <f>ROUND(B18+C14*Common!$B$3,0)</f>
-        <v>77</v>
+        <v>127</v>
       </c>
       <c r="D18" s="9">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="E18" s="9">
-        <v>78</v>
+        <v>128</v>
       </c>
       <c r="M18" s="18" t="s">
         <v>52</v>
       </c>
       <c r="N18" s="9" t="s">
-        <v>125</v>
+        <v>297</v>
       </c>
       <c r="O18" s="9" t="s">
-        <v>194</v>
+        <v>151</v>
       </c>
       <c r="P18" s="9" t="s">
-        <v>110</v>
+        <v>196</v>
       </c>
       <c r="Q18" s="9" t="s">
-        <v>333</v>
+        <v>190</v>
       </c>
       <c r="R18" s="9" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="S18" s="9" t="s">
         <v>69</v>
@@ -17390,31 +19801,31 @@
       </c>
       <c r="C19" s="9">
         <f>B19+ROUND(C13/7,0)+ROUND(C15/14,0)</f>
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D19" s="9">
         <v>3</v>
       </c>
       <c r="E19" s="9">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="M19" s="18" t="s">
         <v>53</v>
       </c>
       <c r="N19" s="9" t="s">
-        <v>200</v>
+        <v>550</v>
       </c>
       <c r="O19" s="9" t="s">
-        <v>113</v>
+        <v>194</v>
       </c>
       <c r="P19" s="9" t="s">
-        <v>316</v>
+        <v>151</v>
       </c>
       <c r="Q19" s="9" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="R19" s="9" t="s">
-        <v>56</v>
+        <v>112</v>
       </c>
       <c r="S19" s="9" t="s">
         <v>114</v>
@@ -17429,31 +19840,31 @@
       </c>
       <c r="C20" s="9">
         <f>ROUND(C14*Common!$B$4,0)</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D20" s="9">
         <v>2</v>
       </c>
       <c r="E20" s="9">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M20" s="18" t="s">
         <v>118</v>
       </c>
       <c r="N20" s="9" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="O20" s="9" t="s">
-        <v>188</v>
+        <v>125</v>
       </c>
       <c r="P20" s="9" t="s">
-        <v>318</v>
+        <v>151</v>
       </c>
       <c r="Q20" s="9" t="s">
+        <v>196</v>
+      </c>
+      <c r="R20" s="9" t="s">
         <v>97</v>
-      </c>
-      <c r="R20" s="9" t="s">
-        <v>66</v>
       </c>
       <c r="S20" s="9" t="s">
         <v>114</v>
@@ -17468,31 +19879,31 @@
       </c>
       <c r="C21" s="9">
         <f>C15*Common!$B$5</f>
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="D21" s="9">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E21" s="9">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="M21" s="18" t="s">
         <v>119</v>
       </c>
       <c r="N21" s="9" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="O21" s="9" t="s">
-        <v>160</v>
+        <v>188</v>
       </c>
       <c r="P21" s="9" t="s">
-        <v>297</v>
+        <v>121</v>
       </c>
       <c r="Q21" s="9" t="s">
-        <v>517</v>
+        <v>551</v>
       </c>
       <c r="R21" s="9" t="s">
-        <v>382</v>
+        <v>110</v>
       </c>
       <c r="S21" s="9" t="s">
         <v>114</v>
@@ -17509,12 +19920,1345 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:S30"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O3" sqref="O3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14" customWidth="1"/>
+    <col min="2" max="2" width="9" customWidth="1"/>
+    <col min="3" max="3" width="7.42578125" customWidth="1"/>
+    <col min="4" max="4" width="8.28515625" customWidth="1"/>
+    <col min="5" max="5" width="9.42578125" customWidth="1"/>
+    <col min="6" max="6" width="10.140625" customWidth="1"/>
+    <col min="7" max="7" width="11.5703125" customWidth="1"/>
+    <col min="8" max="8" width="6.85546875" customWidth="1"/>
+    <col min="9" max="9" width="9" customWidth="1"/>
+    <col min="10" max="10" width="10" customWidth="1"/>
+    <col min="12" max="12" width="8.140625" customWidth="1"/>
+    <col min="13" max="13" width="19.85546875" customWidth="1"/>
+    <col min="14" max="14" width="19.140625" customWidth="1"/>
+    <col min="15" max="15" width="16.7109375" customWidth="1"/>
+    <col min="16" max="16" width="12.28515625" customWidth="1"/>
+    <col min="17" max="17" width="13.5703125" customWidth="1"/>
+    <col min="18" max="18" width="16" customWidth="1"/>
+    <col min="19" max="19" width="17.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>13</v>
+      </c>
+      <c r="M1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M3" s="8" t="s">
+        <v>541</v>
+      </c>
+      <c r="N3" s="9" t="s">
+        <v>273</v>
+      </c>
+      <c r="O3" s="9">
+        <f>7.04*B9</f>
+        <v>140.80000000000001</v>
+      </c>
+      <c r="P3" s="9" t="s">
+        <v>549</v>
+      </c>
+      <c r="Q3" s="9"/>
+      <c r="R3" s="9"/>
+      <c r="S3" s="9"/>
+    </row>
+    <row r="4" spans="1:19" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="M4" s="7" t="s">
+        <v>542</v>
+      </c>
+      <c r="N4" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="O4" s="9">
+        <f>16.5*B9</f>
+        <v>330</v>
+      </c>
+      <c r="P4" s="9" t="s">
+        <v>545</v>
+      </c>
+      <c r="Q4" s="9"/>
+      <c r="R4" s="9"/>
+      <c r="S4" s="9"/>
+    </row>
+    <row r="5" spans="1:19" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="17">
+        <v>0.85</v>
+      </c>
+      <c r="C5" s="17">
+        <f>B5*2</f>
+        <v>1.7</v>
+      </c>
+      <c r="D5" s="17">
+        <f>B5*3</f>
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="E5" s="17">
+        <f>B5*4</f>
+        <v>3.4</v>
+      </c>
+      <c r="F5" s="17">
+        <f>B5*5</f>
+        <v>4.25</v>
+      </c>
+      <c r="G5" s="17">
+        <f>B5*6</f>
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="M5" s="19" t="s">
+        <v>543</v>
+      </c>
+      <c r="N5" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="O5" s="9">
+        <f>9.9*B9</f>
+        <v>198</v>
+      </c>
+      <c r="P5" s="9" t="s">
+        <v>546</v>
+      </c>
+      <c r="Q5" s="9"/>
+      <c r="R5" s="9"/>
+      <c r="S5" s="9"/>
+    </row>
+    <row r="6" spans="1:19" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="17">
+        <v>1.4</v>
+      </c>
+      <c r="C6" s="17">
+        <f t="shared" ref="C6:C7" si="0">B6*2</f>
+        <v>2.8</v>
+      </c>
+      <c r="D6" s="17">
+        <f t="shared" ref="D6:D7" si="1">B6*3</f>
+        <v>4.1999999999999993</v>
+      </c>
+      <c r="E6" s="17">
+        <f t="shared" ref="E6:E7" si="2">B6*4</f>
+        <v>5.6</v>
+      </c>
+      <c r="F6" s="17">
+        <f t="shared" ref="F6:F7" si="3">B6*5</f>
+        <v>7</v>
+      </c>
+      <c r="G6" s="17">
+        <f t="shared" ref="G6:G7" si="4">B6*6</f>
+        <v>8.3999999999999986</v>
+      </c>
+      <c r="M6" s="18" t="s">
+        <v>544</v>
+      </c>
+      <c r="N6" s="9" t="s">
+        <v>548</v>
+      </c>
+      <c r="O6" s="9">
+        <f>3*B9</f>
+        <v>60</v>
+      </c>
+      <c r="P6" s="9" t="s">
+        <v>547</v>
+      </c>
+      <c r="Q6" s="9"/>
+      <c r="R6" s="9"/>
+      <c r="S6" s="9"/>
+    </row>
+    <row r="7" spans="1:19" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="17">
+        <v>0.85</v>
+      </c>
+      <c r="C7" s="17">
+        <f t="shared" si="0"/>
+        <v>1.7</v>
+      </c>
+      <c r="D7" s="17">
+        <f t="shared" si="1"/>
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="E7" s="17">
+        <f t="shared" si="2"/>
+        <v>3.4</v>
+      </c>
+      <c r="F7" s="17">
+        <f t="shared" si="3"/>
+        <v>4.25</v>
+      </c>
+      <c r="G7" s="17">
+        <f t="shared" si="4"/>
+        <v>5.0999999999999996</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>35</v>
+      </c>
+      <c r="B9">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>36</v>
+      </c>
+      <c r="B10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M11" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="N11" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="O11" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="P11" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q11" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="R11" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="S11" s="10" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="D12" s="10">
+        <v>1</v>
+      </c>
+      <c r="E12" s="10">
+        <v>20</v>
+      </c>
+      <c r="M12" t="s">
+        <v>235</v>
+      </c>
+      <c r="N12" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="O12" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="P12" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q12" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="R12" s="9" t="s">
+        <v>245</v>
+      </c>
+      <c r="S12" s="9" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" s="9">
+        <v>14</v>
+      </c>
+      <c r="C13" s="9">
+        <f>B13+$B$9*($B$10+1)*B5</f>
+        <v>65</v>
+      </c>
+      <c r="D13" s="9">
+        <v>17</v>
+      </c>
+      <c r="E13" s="9">
+        <v>65</v>
+      </c>
+      <c r="M13" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="N13" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="O13" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="P13" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="Q13" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="R13" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="S13" s="9" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" s="9">
+        <v>18</v>
+      </c>
+      <c r="C14" s="9">
+        <f>B14+$B$9*($B$10+1)*B6</f>
+        <v>102</v>
+      </c>
+      <c r="D14" s="9">
+        <v>22</v>
+      </c>
+      <c r="E14" s="9">
+        <v>102</v>
+      </c>
+      <c r="M14" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="N14" s="9" t="s">
+        <v>534</v>
+      </c>
+      <c r="O14" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="P14" s="9" t="s">
+        <v>236</v>
+      </c>
+      <c r="Q14" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="R14" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="S14" s="9" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B15" s="9">
+        <v>13</v>
+      </c>
+      <c r="C15" s="9">
+        <f>B15+$B$9*($B$10+1)*B7</f>
+        <v>64</v>
+      </c>
+      <c r="D15" s="9">
+        <v>17</v>
+      </c>
+      <c r="E15" s="9">
+        <v>64</v>
+      </c>
+      <c r="M15" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="N15" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="O15" s="9" t="s">
+        <v>535</v>
+      </c>
+      <c r="P15" s="25" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q15" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="R15" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="S15" s="9" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16" s="9">
+        <v>171</v>
+      </c>
+      <c r="C16" s="9">
+        <f>ROUNDDOWN(B16+C13*Common!$B$1,0)</f>
+        <v>1341</v>
+      </c>
+      <c r="D16" s="9">
+        <v>469</v>
+      </c>
+      <c r="E16" s="9">
+        <v>1341</v>
+      </c>
+      <c r="M16" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="N16" s="9" t="s">
+        <v>183</v>
+      </c>
+      <c r="O16" s="9" t="s">
+        <v>250</v>
+      </c>
+      <c r="P16" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q16" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="R16" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="S16" s="9" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17" s="9">
+        <v>13</v>
+      </c>
+      <c r="C17" s="9">
+        <f>ROUND(B17+C14+C15*Common!$B$2,0)</f>
+        <v>141</v>
+      </c>
+      <c r="D17" s="9">
+        <v>43</v>
+      </c>
+      <c r="E17" s="9">
+        <v>141</v>
+      </c>
+      <c r="M17" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="N17" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="O17" s="9" t="s">
+        <v>341</v>
+      </c>
+      <c r="P17" s="9" t="s">
+        <v>360</v>
+      </c>
+      <c r="Q17" s="9" t="s">
+        <v>333</v>
+      </c>
+      <c r="R17" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="S17" s="9" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18" s="9">
+        <v>0</v>
+      </c>
+      <c r="C18" s="9">
+        <f>ROUND(B18+C14*Common!$B$3,0)</f>
+        <v>245</v>
+      </c>
+      <c r="D18" s="9">
+        <v>54</v>
+      </c>
+      <c r="E18" s="9">
+        <v>245</v>
+      </c>
+      <c r="M18" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="N18" s="9" t="s">
+        <v>536</v>
+      </c>
+      <c r="O18" s="9" t="s">
+        <v>253</v>
+      </c>
+      <c r="P18" s="9" t="s">
+        <v>517</v>
+      </c>
+      <c r="Q18" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="R18" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="S18" s="9" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19" s="22">
+        <v>0</v>
+      </c>
+      <c r="C19" s="9">
+        <f>B19+ROUND(C13/7,0)+ROUND(C15/14,0)</f>
+        <v>14</v>
+      </c>
+      <c r="D19" s="9">
+        <v>2</v>
+      </c>
+      <c r="E19" s="9">
+        <v>13</v>
+      </c>
+      <c r="M19" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="N19" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="O19" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="P19" s="9" t="s">
+        <v>538</v>
+      </c>
+      <c r="Q19" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="R19" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="S19" s="9" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B20" s="9">
+        <v>0</v>
+      </c>
+      <c r="C20" s="9">
+        <f>ROUND(C14*Common!$B$4,0)</f>
+        <v>10</v>
+      </c>
+      <c r="D20" s="9">
+        <v>2</v>
+      </c>
+      <c r="E20" s="9">
+        <v>10</v>
+      </c>
+      <c r="M20" s="18" t="s">
+        <v>118</v>
+      </c>
+      <c r="N20" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="O20" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="P20" s="9" t="s">
+        <v>539</v>
+      </c>
+      <c r="Q20" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="R20" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="S20" s="9" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B21" s="9">
+        <v>0</v>
+      </c>
+      <c r="C21" s="9">
+        <f>C15*Common!$B$5</f>
+        <v>25.6</v>
+      </c>
+      <c r="D21" s="9">
+        <v>7</v>
+      </c>
+      <c r="E21" s="9">
+        <v>26</v>
+      </c>
+      <c r="M21" s="18" t="s">
+        <v>119</v>
+      </c>
+      <c r="N21" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="O21" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="P21" s="9" t="s">
+        <v>540</v>
+      </c>
+      <c r="Q21" s="9" t="s">
+        <v>250</v>
+      </c>
+      <c r="R21" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="S21" s="9" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A24" s="21" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="L27">
+        <v>7.04</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="M29">
+        <v>46</v>
+      </c>
+      <c r="N29">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="M30">
+        <v>323.83999999999997</v>
+      </c>
+      <c r="N30">
+        <v>415.36</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+      <selection activeCell="I20" sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14" customWidth="1"/>
+    <col min="2" max="2" width="9" customWidth="1"/>
+    <col min="3" max="3" width="7.42578125" customWidth="1"/>
+    <col min="4" max="4" width="8.28515625" customWidth="1"/>
+    <col min="5" max="5" width="9.42578125" customWidth="1"/>
+    <col min="6" max="6" width="10.140625" customWidth="1"/>
+    <col min="7" max="7" width="11.5703125" customWidth="1"/>
+    <col min="8" max="8" width="6.85546875" customWidth="1"/>
+    <col min="9" max="9" width="9" customWidth="1"/>
+    <col min="10" max="10" width="10" customWidth="1"/>
+    <col min="12" max="12" width="8.140625" customWidth="1"/>
+    <col min="13" max="13" width="19.85546875" customWidth="1"/>
+    <col min="14" max="14" width="19.140625" customWidth="1"/>
+    <col min="15" max="15" width="16.7109375" customWidth="1"/>
+    <col min="16" max="16" width="12.28515625" customWidth="1"/>
+    <col min="17" max="17" width="13.5703125" customWidth="1"/>
+    <col min="18" max="18" width="16" customWidth="1"/>
+    <col min="19" max="19" width="17.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>441</v>
+      </c>
+      <c r="M1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M3" s="8" t="s">
+        <v>518</v>
+      </c>
+      <c r="N3" s="9" t="s">
+        <v>273</v>
+      </c>
+      <c r="O3" s="9">
+        <f>17.6*B9</f>
+        <v>176</v>
+      </c>
+      <c r="P3" s="9" t="s">
+        <v>527</v>
+      </c>
+      <c r="Q3" s="9"/>
+      <c r="R3" s="9"/>
+      <c r="S3" s="9"/>
+    </row>
+    <row r="4" spans="1:19" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="M4" s="7" t="s">
+        <v>519</v>
+      </c>
+      <c r="N4" s="9" t="s">
+        <v>526</v>
+      </c>
+      <c r="O4" s="9">
+        <f>5*B9</f>
+        <v>50</v>
+      </c>
+      <c r="P4" s="9" t="s">
+        <v>525</v>
+      </c>
+      <c r="Q4" s="9"/>
+      <c r="R4" s="9"/>
+      <c r="S4" s="9"/>
+    </row>
+    <row r="5" spans="1:19" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="17">
+        <v>0.95</v>
+      </c>
+      <c r="C5" s="17">
+        <f>B5*2</f>
+        <v>1.9</v>
+      </c>
+      <c r="D5" s="17">
+        <f>B5*3</f>
+        <v>2.8499999999999996</v>
+      </c>
+      <c r="E5" s="17">
+        <f>B5*4</f>
+        <v>3.8</v>
+      </c>
+      <c r="F5" s="17">
+        <f>B5*5</f>
+        <v>4.75</v>
+      </c>
+      <c r="G5" s="17">
+        <f>B5*6</f>
+        <v>5.6999999999999993</v>
+      </c>
+      <c r="M5" s="19" t="s">
+        <v>520</v>
+      </c>
+      <c r="N5" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="O5" s="9">
+        <f>11*B9</f>
+        <v>110</v>
+      </c>
+      <c r="P5" s="9" t="s">
+        <v>524</v>
+      </c>
+      <c r="Q5" s="9"/>
+      <c r="R5" s="9"/>
+      <c r="S5" s="9"/>
+    </row>
+    <row r="6" spans="1:19" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="17">
+        <v>0.85</v>
+      </c>
+      <c r="C6" s="17">
+        <f t="shared" ref="C6:C7" si="0">B6*2</f>
+        <v>1.7</v>
+      </c>
+      <c r="D6" s="17">
+        <f t="shared" ref="D6:D7" si="1">B6*3</f>
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="E6" s="17">
+        <f t="shared" ref="E6:E7" si="2">B6*4</f>
+        <v>3.4</v>
+      </c>
+      <c r="F6" s="17">
+        <f t="shared" ref="F6:F7" si="3">B6*5</f>
+        <v>4.25</v>
+      </c>
+      <c r="G6" s="17">
+        <f t="shared" ref="G6:G7" si="4">B6*6</f>
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="M6" s="18" t="s">
+        <v>521</v>
+      </c>
+      <c r="N6" s="9" t="s">
+        <v>522</v>
+      </c>
+      <c r="O6" s="9">
+        <f>2*B9</f>
+        <v>20</v>
+      </c>
+      <c r="P6" s="9" t="s">
+        <v>523</v>
+      </c>
+      <c r="Q6" s="9"/>
+      <c r="R6" s="9"/>
+      <c r="S6" s="9"/>
+    </row>
+    <row r="7" spans="1:19" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="17">
+        <v>1.4</v>
+      </c>
+      <c r="C7" s="17">
+        <f t="shared" si="0"/>
+        <v>2.8</v>
+      </c>
+      <c r="D7" s="17">
+        <f t="shared" si="1"/>
+        <v>4.1999999999999993</v>
+      </c>
+      <c r="E7" s="17">
+        <f t="shared" si="2"/>
+        <v>5.6</v>
+      </c>
+      <c r="F7" s="17">
+        <f t="shared" si="3"/>
+        <v>7</v>
+      </c>
+      <c r="G7" s="17">
+        <f t="shared" si="4"/>
+        <v>8.3999999999999986</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>35</v>
+      </c>
+      <c r="B9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>36</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M11" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="N11" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="O11" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="P11" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q11" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="R11" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="S11" s="10" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="D12" s="10">
+        <v>1</v>
+      </c>
+      <c r="E12" s="10">
+        <v>10</v>
+      </c>
+      <c r="M12" t="s">
+        <v>235</v>
+      </c>
+      <c r="N12" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="O12" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="P12" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q12" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="R12" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="S12" s="9" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" s="9">
+        <v>15</v>
+      </c>
+      <c r="C13" s="9">
+        <f>B13+$B$9*($B$10+1)*B5</f>
+        <v>34</v>
+      </c>
+      <c r="D13" s="9">
+        <v>17</v>
+      </c>
+      <c r="E13" s="9">
+        <v>34</v>
+      </c>
+      <c r="M13" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="N13" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="O13" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="P13" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q13" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="R13" s="9" t="s">
+        <v>249</v>
+      </c>
+      <c r="S13" s="9" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" s="9">
+        <v>15</v>
+      </c>
+      <c r="C14" s="9">
+        <f>B14+$B$9*($B$10+1)*B6</f>
+        <v>32</v>
+      </c>
+      <c r="D14" s="9">
+        <v>17</v>
+      </c>
+      <c r="E14" s="9">
+        <v>32</v>
+      </c>
+      <c r="M14" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="N14" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="O14" s="9" t="s">
+        <v>247</v>
+      </c>
+      <c r="P14" s="9" t="s">
+        <v>515</v>
+      </c>
+      <c r="Q14" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="R14" s="9" t="s">
+        <v>249</v>
+      </c>
+      <c r="S14" s="9" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B15" s="9">
+        <v>17</v>
+      </c>
+      <c r="C15" s="9">
+        <f>B15+$B$9*($B$10+1)*B7</f>
+        <v>45</v>
+      </c>
+      <c r="D15" s="9">
+        <v>20</v>
+      </c>
+      <c r="E15" s="9">
+        <v>45</v>
+      </c>
+      <c r="M15" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="N15" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="O15" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="P15" s="9" t="s">
+        <v>196</v>
+      </c>
+      <c r="Q15" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="R15" s="9" t="s">
+        <v>190</v>
+      </c>
+      <c r="S15" s="9" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16" s="9">
+        <v>169</v>
+      </c>
+      <c r="C16" s="9">
+        <f>ROUNDDOWN(B16+C13*Common!$B$1,0)</f>
+        <v>781</v>
+      </c>
+      <c r="D16" s="9">
+        <v>473</v>
+      </c>
+      <c r="E16" s="9">
+        <v>781</v>
+      </c>
+      <c r="M16" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="N16" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="O16" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="P16" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="Q16" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="R16" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="S16" s="9" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17" s="9">
+        <v>6</v>
+      </c>
+      <c r="C17" s="9">
+        <f>ROUND(B17+C15+C15*Common!$B$2,0)</f>
+        <v>69</v>
+      </c>
+      <c r="D17" s="9">
+        <v>34</v>
+      </c>
+      <c r="E17" s="9">
+        <v>69</v>
+      </c>
+      <c r="M17" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="N17" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="O17" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="P17" s="9" t="s">
+        <v>516</v>
+      </c>
+      <c r="Q17" s="9" t="s">
+        <v>515</v>
+      </c>
+      <c r="R17" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="S17" s="9" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18" s="9">
+        <v>0</v>
+      </c>
+      <c r="C18" s="9">
+        <f>ROUND(B18+C14*Common!$B$3,0)</f>
+        <v>77</v>
+      </c>
+      <c r="D18" s="9">
+        <v>41</v>
+      </c>
+      <c r="E18" s="9">
+        <v>78</v>
+      </c>
+      <c r="M18" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="N18" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="O18" s="9" t="s">
+        <v>194</v>
+      </c>
+      <c r="P18" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q18" s="9" t="s">
+        <v>333</v>
+      </c>
+      <c r="R18" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="S18" s="9" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19" s="22">
+        <v>0</v>
+      </c>
+      <c r="C19" s="9">
+        <f>B19+ROUND(C13/7,0)+ROUND(C15/14,0)</f>
+        <v>8</v>
+      </c>
+      <c r="D19" s="9">
+        <v>3</v>
+      </c>
+      <c r="E19" s="9">
+        <v>7</v>
+      </c>
+      <c r="M19" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="N19" s="9" t="s">
+        <v>200</v>
+      </c>
+      <c r="O19" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="P19" s="9" t="s">
+        <v>316</v>
+      </c>
+      <c r="Q19" s="9" t="s">
+        <v>199</v>
+      </c>
+      <c r="R19" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="S19" s="9" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B20" s="9">
+        <v>0</v>
+      </c>
+      <c r="C20" s="9">
+        <f>ROUND(C14*Common!$B$4,0)</f>
+        <v>3</v>
+      </c>
+      <c r="D20" s="9">
+        <v>2</v>
+      </c>
+      <c r="E20" s="9">
+        <v>3</v>
+      </c>
+      <c r="M20" s="18" t="s">
+        <v>118</v>
+      </c>
+      <c r="N20" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="O20" s="9" t="s">
+        <v>188</v>
+      </c>
+      <c r="P20" s="9" t="s">
+        <v>318</v>
+      </c>
+      <c r="Q20" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="R20" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="S20" s="9" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B21" s="9">
+        <v>0</v>
+      </c>
+      <c r="C21" s="9">
+        <f>C15*Common!$B$5</f>
+        <v>18</v>
+      </c>
+      <c r="D21" s="9">
+        <v>8</v>
+      </c>
+      <c r="E21" s="9">
+        <v>18</v>
+      </c>
+      <c r="M21" s="18" t="s">
+        <v>119</v>
+      </c>
+      <c r="N21" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="O21" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="P21" s="9" t="s">
+        <v>297</v>
+      </c>
+      <c r="Q21" s="9" t="s">
+        <v>517</v>
+      </c>
+      <c r="R21" s="9" t="s">
+        <v>382</v>
+      </c>
+      <c r="S21" s="9" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A24" s="21" t="s">
+        <v>264</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:S24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I13" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18079,7 +21823,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S24"/>
   <sheetViews>
@@ -18722,1913 +22466,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S24"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="14" customWidth="1"/>
-    <col min="2" max="2" width="9" customWidth="1"/>
-    <col min="3" max="3" width="11.28515625" customWidth="1"/>
-    <col min="4" max="4" width="8.28515625" customWidth="1"/>
-    <col min="5" max="5" width="9.42578125" customWidth="1"/>
-    <col min="6" max="6" width="10.140625" customWidth="1"/>
-    <col min="7" max="7" width="11.5703125" customWidth="1"/>
-    <col min="8" max="8" width="6.85546875" customWidth="1"/>
-    <col min="9" max="9" width="9" customWidth="1"/>
-    <col min="10" max="10" width="10" customWidth="1"/>
-    <col min="12" max="12" width="8.140625" customWidth="1"/>
-    <col min="13" max="13" width="19.85546875" customWidth="1"/>
-    <col min="14" max="14" width="19.140625" customWidth="1"/>
-    <col min="15" max="15" width="16.7109375" customWidth="1"/>
-    <col min="16" max="16" width="12.28515625" customWidth="1"/>
-    <col min="17" max="17" width="13.5703125" customWidth="1"/>
-    <col min="18" max="18" width="16" customWidth="1"/>
-    <col min="19" max="19" width="17.42578125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>441</v>
-      </c>
-      <c r="M1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="M3" t="s">
-        <v>442</v>
-      </c>
-      <c r="N3" s="9" t="s">
-        <v>529</v>
-      </c>
-      <c r="O3" s="9">
-        <f>5*B9</f>
-        <v>50</v>
-      </c>
-      <c r="P3" s="9" t="s">
-        <v>528</v>
-      </c>
-      <c r="Q3" s="9"/>
-      <c r="R3" s="9"/>
-      <c r="S3" s="9"/>
-    </row>
-    <row r="4" spans="1:19" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="C4" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="F4" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="G4" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="M4" s="7" t="s">
-        <v>443</v>
-      </c>
-      <c r="N4" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="O4" s="9">
-        <f>10.5*B9</f>
-        <v>105</v>
-      </c>
-      <c r="P4" s="9" t="s">
-        <v>530</v>
-      </c>
-      <c r="Q4" s="9"/>
-      <c r="R4" s="9"/>
-      <c r="S4" s="9"/>
-    </row>
-    <row r="5" spans="1:19" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="17">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="C5" s="17">
-        <f>B5*2</f>
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="D5" s="17">
-        <f>B5*3</f>
-        <v>3.3000000000000003</v>
-      </c>
-      <c r="E5" s="17">
-        <f>B5*4</f>
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="F5" s="17">
-        <f>B5*5</f>
-        <v>5.5</v>
-      </c>
-      <c r="G5" s="17">
-        <f>B5*6</f>
-        <v>6.6000000000000005</v>
-      </c>
-      <c r="M5" s="19" t="s">
-        <v>444</v>
-      </c>
-      <c r="N5" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="O5" s="9">
-        <f>12*B9</f>
-        <v>120</v>
-      </c>
-      <c r="P5" s="9" t="s">
-        <v>533</v>
-      </c>
-      <c r="Q5" s="9"/>
-      <c r="R5" s="9"/>
-      <c r="S5" s="9"/>
-    </row>
-    <row r="6" spans="1:19" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="17">
-        <v>0.5</v>
-      </c>
-      <c r="C6" s="17">
-        <f t="shared" ref="C6:C7" si="0">B6*2</f>
-        <v>1</v>
-      </c>
-      <c r="D6" s="17">
-        <f t="shared" ref="D6:D7" si="1">B6*3</f>
-        <v>1.5</v>
-      </c>
-      <c r="E6" s="17">
-        <f t="shared" ref="E6:E7" si="2">B6*4</f>
-        <v>2</v>
-      </c>
-      <c r="F6" s="17">
-        <f t="shared" ref="F6:F7" si="3">B6*5</f>
-        <v>2.5</v>
-      </c>
-      <c r="G6" s="17">
-        <f t="shared" ref="G6:G7" si="4">B6*6</f>
-        <v>3</v>
-      </c>
-      <c r="M6" s="18" t="s">
-        <v>445</v>
-      </c>
-      <c r="N6" s="9" t="s">
-        <v>532</v>
-      </c>
-      <c r="O6" s="9">
-        <f>0.5*B9</f>
-        <v>5</v>
-      </c>
-      <c r="P6" s="9" t="s">
-        <v>531</v>
-      </c>
-      <c r="Q6" s="9"/>
-      <c r="R6" s="9"/>
-      <c r="S6" s="9"/>
-    </row>
-    <row r="7" spans="1:19" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" s="17">
-        <v>1.4</v>
-      </c>
-      <c r="C7" s="17">
-        <f t="shared" si="0"/>
-        <v>2.8</v>
-      </c>
-      <c r="D7" s="17">
-        <f t="shared" si="1"/>
-        <v>4.1999999999999993</v>
-      </c>
-      <c r="E7" s="17">
-        <f t="shared" si="2"/>
-        <v>5.6</v>
-      </c>
-      <c r="F7" s="17">
-        <f t="shared" si="3"/>
-        <v>7</v>
-      </c>
-      <c r="G7" s="17">
-        <f t="shared" si="4"/>
-        <v>8.3999999999999986</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>35</v>
-      </c>
-      <c r="B9">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>36</v>
-      </c>
-      <c r="B10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="M11" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="N11" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="O11" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="P11" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q11" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="R11" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="S11" s="10" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="12" spans="1:19" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="C12" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="D12" s="10">
-        <v>1</v>
-      </c>
-      <c r="E12" s="10">
-        <v>10</v>
-      </c>
-      <c r="F12" s="10"/>
-      <c r="M12" t="s">
-        <v>235</v>
-      </c>
-      <c r="N12" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="O12" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="P12" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q12" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="R12" s="9" t="s">
-        <v>446</v>
-      </c>
-      <c r="S12" s="9" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="13" spans="1:19" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13" s="9">
-        <v>15</v>
-      </c>
-      <c r="C13" s="9">
-        <f>B13+$B$9*($B$10+1)*B5</f>
-        <v>37</v>
-      </c>
-      <c r="D13" s="9">
-        <v>17</v>
-      </c>
-      <c r="E13" s="9">
-        <v>37</v>
-      </c>
-      <c r="F13" s="9"/>
-      <c r="M13" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="N13" s="9" t="s">
-        <v>189</v>
-      </c>
-      <c r="O13" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="P13" s="9" t="s">
-        <v>447</v>
-      </c>
-      <c r="Q13" s="9" t="s">
-        <v>447</v>
-      </c>
-      <c r="R13" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="S13" s="9" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="14" spans="1:19" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14" s="9">
-        <v>12</v>
-      </c>
-      <c r="C14" s="9">
-        <f>B14+$B$9*($B$10+1)*B6</f>
-        <v>22</v>
-      </c>
-      <c r="D14" s="9">
-        <v>13</v>
-      </c>
-      <c r="E14" s="9">
-        <v>22</v>
-      </c>
-      <c r="F14" s="9"/>
-      <c r="M14" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="N14" s="9" t="s">
-        <v>337</v>
-      </c>
-      <c r="O14" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="P14" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="Q14" s="9" t="s">
-        <v>147</v>
-      </c>
-      <c r="R14" s="9" t="s">
-        <v>249</v>
-      </c>
-      <c r="S14" s="9" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="15" spans="1:19" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="B15" s="9">
-        <v>18</v>
-      </c>
-      <c r="C15" s="9">
-        <f>B15+$B$9*($B$10+1)*B7</f>
-        <v>46</v>
-      </c>
-      <c r="D15" s="9">
-        <v>21</v>
-      </c>
-      <c r="E15" s="9">
-        <v>46</v>
-      </c>
-      <c r="F15" s="9"/>
-      <c r="M15" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="N15" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="O15" s="9" t="s">
-        <v>448</v>
-      </c>
-      <c r="P15" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="Q15" s="9" t="s">
-        <v>192</v>
-      </c>
-      <c r="R15" s="9" t="s">
-        <v>368</v>
-      </c>
-      <c r="S15" s="9" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="16" spans="1:19" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="B16" s="9">
-        <v>163</v>
-      </c>
-      <c r="C16" s="9">
-        <f>ROUNDDOWN(B16+C13*Common!$B$1,0)</f>
-        <v>829</v>
-      </c>
-      <c r="D16" s="9">
-        <v>473</v>
-      </c>
-      <c r="E16" s="9">
-        <v>829</v>
-      </c>
-      <c r="F16" s="9"/>
-      <c r="M16" s="19" t="s">
-        <v>50</v>
-      </c>
-      <c r="N16" s="9" t="s">
-        <v>299</v>
-      </c>
-      <c r="O16" s="9" t="s">
-        <v>333</v>
-      </c>
-      <c r="P16" s="9" t="s">
-        <v>110</v>
-      </c>
-      <c r="Q16" s="9" t="s">
-        <v>369</v>
-      </c>
-      <c r="R16" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="S16" s="9" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="17" spans="1:19" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="B17" s="9">
-        <v>18</v>
-      </c>
-      <c r="C17" s="9">
-        <f>ROUND(B17+C15+C15*Common!$B$2,0)</f>
-        <v>82</v>
-      </c>
-      <c r="D17" s="9">
-        <v>47</v>
-      </c>
-      <c r="E17" s="9">
-        <v>82</v>
-      </c>
-      <c r="F17" s="9"/>
-      <c r="M17" s="19" t="s">
-        <v>51</v>
-      </c>
-      <c r="N17" s="9" t="s">
-        <v>194</v>
-      </c>
-      <c r="O17" s="9" t="s">
-        <v>193</v>
-      </c>
-      <c r="P17" s="9" t="s">
-        <v>105</v>
-      </c>
-      <c r="Q17" s="9" t="s">
-        <v>334</v>
-      </c>
-      <c r="R17" s="9" t="s">
-        <v>112</v>
-      </c>
-      <c r="S17" s="9" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="18" spans="1:19" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="B18" s="9">
-        <v>0</v>
-      </c>
-      <c r="C18" s="9">
-        <f>ROUND(B18+C14*Common!$B$3,0)</f>
-        <v>53</v>
-      </c>
-      <c r="D18" s="9">
-        <v>31</v>
-      </c>
-      <c r="E18" s="9">
-        <v>53</v>
-      </c>
-      <c r="F18" s="9"/>
-      <c r="M18" s="18" t="s">
-        <v>52</v>
-      </c>
-      <c r="N18" s="9" t="s">
-        <v>148</v>
-      </c>
-      <c r="O18" s="9" t="s">
-        <v>113</v>
-      </c>
-      <c r="P18" s="9" t="s">
-        <v>340</v>
-      </c>
-      <c r="Q18" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="R18" s="9" t="s">
-        <v>449</v>
-      </c>
-      <c r="S18" s="9" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="19" spans="1:19" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="B19" s="22"/>
-      <c r="C19" s="9">
-        <f>B19+ROUND(C13/7,0)+ROUND(C15/14,0)</f>
-        <v>8</v>
-      </c>
-      <c r="D19" s="9">
-        <v>3</v>
-      </c>
-      <c r="E19" s="9">
-        <v>8</v>
-      </c>
-      <c r="F19" s="9"/>
-      <c r="M19" s="18" t="s">
-        <v>53</v>
-      </c>
-      <c r="N19" s="9" t="s">
-        <v>200</v>
-      </c>
-      <c r="O19" s="9" t="s">
-        <v>106</v>
-      </c>
-      <c r="P19" s="9" t="s">
-        <v>193</v>
-      </c>
-      <c r="Q19" s="9" t="s">
-        <v>448</v>
-      </c>
-      <c r="R19" s="9" t="s">
-        <v>199</v>
-      </c>
-      <c r="S19" s="9" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="20" spans="1:19" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="B20" s="9">
-        <v>0</v>
-      </c>
-      <c r="C20" s="9">
-        <f>ROUND(C14*Common!$B$4,0)</f>
-        <v>2</v>
-      </c>
-      <c r="D20" s="9">
-        <v>1</v>
-      </c>
-      <c r="E20" s="9">
-        <v>2</v>
-      </c>
-      <c r="F20" s="9"/>
-      <c r="M20" s="18" t="s">
-        <v>118</v>
-      </c>
-      <c r="N20" s="9" t="s">
-        <v>300</v>
-      </c>
-      <c r="O20" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="P20" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="Q20" s="9" t="s">
-        <v>196</v>
-      </c>
-      <c r="R20" s="9" t="s">
-        <v>334</v>
-      </c>
-      <c r="S20" s="9" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="21" spans="1:19" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="B21" s="9">
-        <v>0</v>
-      </c>
-      <c r="C21" s="9">
-        <f>C15*Common!$B$5</f>
-        <v>18.400000000000002</v>
-      </c>
-      <c r="D21" s="9">
-        <v>8</v>
-      </c>
-      <c r="E21" s="9">
-        <v>18</v>
-      </c>
-      <c r="F21" s="9"/>
-      <c r="M21" s="18" t="s">
-        <v>119</v>
-      </c>
-      <c r="N21" s="9" t="s">
-        <v>120</v>
-      </c>
-      <c r="O21" s="9" t="s">
-        <v>115</v>
-      </c>
-      <c r="P21" s="9" t="s">
-        <v>281</v>
-      </c>
-      <c r="Q21" s="9" t="s">
-        <v>110</v>
-      </c>
-      <c r="R21" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="S21" s="9" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="22" spans="1:19" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A24" s="21" t="s">
-        <v>264</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S24"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K32" sqref="F29:K32"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="14" customWidth="1"/>
-    <col min="2" max="2" width="9" customWidth="1"/>
-    <col min="3" max="3" width="11.28515625" customWidth="1"/>
-    <col min="4" max="4" width="8.28515625" customWidth="1"/>
-    <col min="5" max="5" width="9.42578125" customWidth="1"/>
-    <col min="6" max="6" width="10.140625" customWidth="1"/>
-    <col min="7" max="7" width="11.5703125" customWidth="1"/>
-    <col min="8" max="8" width="6.85546875" customWidth="1"/>
-    <col min="9" max="9" width="9" customWidth="1"/>
-    <col min="10" max="10" width="10" customWidth="1"/>
-    <col min="12" max="12" width="8.140625" customWidth="1"/>
-    <col min="13" max="13" width="19.85546875" customWidth="1"/>
-    <col min="14" max="14" width="19.140625" customWidth="1"/>
-    <col min="15" max="15" width="16.7109375" customWidth="1"/>
-    <col min="16" max="16" width="12.28515625" customWidth="1"/>
-    <col min="17" max="17" width="13.5703125" customWidth="1"/>
-    <col min="18" max="18" width="16" customWidth="1"/>
-    <col min="19" max="19" width="17.42578125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>13</v>
-      </c>
-      <c r="M1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="M3" t="s">
-        <v>429</v>
-      </c>
-      <c r="N3" s="9" t="s">
-        <v>257</v>
-      </c>
-      <c r="O3" s="9">
-        <f>B9*26.4</f>
-        <v>924</v>
-      </c>
-      <c r="P3" s="9" t="s">
-        <v>436</v>
-      </c>
-      <c r="Q3" s="9"/>
-      <c r="R3" s="9"/>
-      <c r="S3" s="9"/>
-    </row>
-    <row r="4" spans="1:19" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="C4" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="F4" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="G4" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="M4" s="7" t="s">
-        <v>430</v>
-      </c>
-      <c r="N4" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="O4" s="9">
-        <f>14.3*B9</f>
-        <v>500.5</v>
-      </c>
-      <c r="P4" s="9" t="s">
-        <v>435</v>
-      </c>
-      <c r="Q4" s="9"/>
-      <c r="R4" s="9"/>
-      <c r="S4" s="9"/>
-    </row>
-    <row r="5" spans="1:19" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="17">
-        <v>0.8</v>
-      </c>
-      <c r="C5" s="17">
-        <f>B5*2</f>
-        <v>1.6</v>
-      </c>
-      <c r="D5" s="17">
-        <f>B5*3</f>
-        <v>2.4000000000000004</v>
-      </c>
-      <c r="E5" s="17">
-        <f>B5*4</f>
-        <v>3.2</v>
-      </c>
-      <c r="F5" s="17">
-        <f>B5*5</f>
-        <v>4</v>
-      </c>
-      <c r="G5" s="17">
-        <f>B5*6</f>
-        <v>4.8000000000000007</v>
-      </c>
-      <c r="M5" s="19" t="s">
-        <v>431</v>
-      </c>
-      <c r="N5" s="9" t="s">
-        <v>452</v>
-      </c>
-      <c r="O5" s="9">
-        <f>0.03*B9+4.97</f>
-        <v>6.02</v>
-      </c>
-      <c r="P5" s="9" t="s">
-        <v>451</v>
-      </c>
-      <c r="Q5" s="9"/>
-      <c r="R5" s="9"/>
-      <c r="S5" s="9"/>
-    </row>
-    <row r="6" spans="1:19" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="17">
-        <v>1.5</v>
-      </c>
-      <c r="C6" s="17">
-        <f t="shared" ref="C6:C7" si="0">B6*2</f>
-        <v>3</v>
-      </c>
-      <c r="D6" s="17">
-        <f t="shared" ref="D6:D7" si="1">B6*3</f>
-        <v>4.5</v>
-      </c>
-      <c r="E6" s="17">
-        <f t="shared" ref="E6:E7" si="2">B6*4</f>
-        <v>6</v>
-      </c>
-      <c r="F6" s="17">
-        <f t="shared" ref="F6:F7" si="3">B6*5</f>
-        <v>7.5</v>
-      </c>
-      <c r="G6" s="17">
-        <f t="shared" ref="G6:G7" si="4">B6*6</f>
-        <v>9</v>
-      </c>
-      <c r="M6" s="18" t="s">
-        <v>432</v>
-      </c>
-      <c r="N6" s="9" t="s">
-        <v>434</v>
-      </c>
-      <c r="O6" s="9">
-        <f>B9*3</f>
-        <v>105</v>
-      </c>
-      <c r="P6" s="9" t="s">
-        <v>433</v>
-      </c>
-      <c r="Q6" s="9"/>
-      <c r="R6" s="9"/>
-      <c r="S6" s="9"/>
-    </row>
-    <row r="7" spans="1:19" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" s="17">
-        <v>0.85</v>
-      </c>
-      <c r="C7" s="17">
-        <f t="shared" si="0"/>
-        <v>1.7</v>
-      </c>
-      <c r="D7" s="17">
-        <f t="shared" si="1"/>
-        <v>2.5499999999999998</v>
-      </c>
-      <c r="E7" s="17">
-        <f t="shared" si="2"/>
-        <v>3.4</v>
-      </c>
-      <c r="F7" s="17">
-        <f t="shared" si="3"/>
-        <v>4.25</v>
-      </c>
-      <c r="G7" s="17">
-        <f t="shared" si="4"/>
-        <v>5.0999999999999996</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>35</v>
-      </c>
-      <c r="B9">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>36</v>
-      </c>
-      <c r="B10">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="M11" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="N11" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="O11" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="P11" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q11" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="R11" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="S11" s="10" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="12" spans="1:19" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="C12" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="D12" s="10">
-        <v>1</v>
-      </c>
-      <c r="E12" s="10">
-        <v>10</v>
-      </c>
-      <c r="F12" s="10"/>
-      <c r="M12" t="s">
-        <v>235</v>
-      </c>
-      <c r="N12" s="9" t="s">
-        <v>438</v>
-      </c>
-      <c r="O12" s="9" t="s">
-        <v>438</v>
-      </c>
-      <c r="P12" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="Q12" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="R12" s="9" t="s">
-        <v>245</v>
-      </c>
-      <c r="S12" s="9" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="13" spans="1:19" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13" s="9">
-        <v>17</v>
-      </c>
-      <c r="C13" s="9">
-        <f>B13+$B$9*($B$10+1)*B5</f>
-        <v>129</v>
-      </c>
-      <c r="D13" s="9">
-        <v>20</v>
-      </c>
-      <c r="E13" s="9">
-        <v>49</v>
-      </c>
-      <c r="F13" s="9"/>
-      <c r="M13" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="N13" s="9" t="s">
-        <v>131</v>
-      </c>
-      <c r="O13" s="9" t="s">
-        <v>131</v>
-      </c>
-      <c r="P13" s="9" t="s">
-        <v>128</v>
-      </c>
-      <c r="Q13" s="9" t="s">
-        <v>128</v>
-      </c>
-      <c r="R13" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="S13" s="9" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="14" spans="1:19" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14" s="9">
-        <v>23</v>
-      </c>
-      <c r="C14" s="9">
-        <f>B14+$B$9*($B$10+1)*B6</f>
-        <v>233</v>
-      </c>
-      <c r="D14" s="9">
-        <v>29</v>
-      </c>
-      <c r="E14" s="9">
-        <v>83</v>
-      </c>
-      <c r="F14" s="9"/>
-      <c r="M14" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="N14" s="9" t="s">
-        <v>129</v>
-      </c>
-      <c r="O14" s="9" t="s">
-        <v>130</v>
-      </c>
-      <c r="P14" s="9" t="s">
-        <v>128</v>
-      </c>
-      <c r="Q14" s="9" t="s">
-        <v>128</v>
-      </c>
-      <c r="R14" s="9" t="s">
-        <v>127</v>
-      </c>
-      <c r="S14" s="9" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="15" spans="1:19" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="B15" s="9">
-        <v>22</v>
-      </c>
-      <c r="C15" s="9">
-        <f>B15+$B$9*($B$10+1)*B7</f>
-        <v>141</v>
-      </c>
-      <c r="D15" s="9">
-        <v>25</v>
-      </c>
-      <c r="E15" s="9">
-        <v>56</v>
-      </c>
-      <c r="F15" s="9"/>
-      <c r="M15" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="N15" s="9" t="s">
-        <v>146</v>
-      </c>
-      <c r="O15" s="9" t="s">
-        <v>129</v>
-      </c>
-      <c r="P15" s="9" t="s">
-        <v>128</v>
-      </c>
-      <c r="Q15" s="9" t="s">
-        <v>128</v>
-      </c>
-      <c r="R15" s="9"/>
-      <c r="S15" s="9" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="16" spans="1:19" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="B16" s="9">
-        <v>171</v>
-      </c>
-      <c r="C16" s="9">
-        <f>ROUNDDOWN(B16+C13*Common!$B$1,0)</f>
-        <v>2493</v>
-      </c>
-      <c r="D16" s="9">
-        <v>534</v>
-      </c>
-      <c r="E16" s="9">
-        <v>1053</v>
-      </c>
-      <c r="F16" s="9"/>
-      <c r="M16" s="19" t="s">
-        <v>50</v>
-      </c>
-      <c r="N16" s="9"/>
-      <c r="O16" s="9"/>
-      <c r="P16" s="9"/>
-      <c r="Q16" s="9"/>
-      <c r="R16" s="9"/>
-      <c r="S16" s="9"/>
-    </row>
-    <row r="17" spans="1:19" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="B17" s="9">
-        <v>21</v>
-      </c>
-      <c r="C17" s="9">
-        <f>ROUND(B17+C14+C15*Common!$B$2,0)</f>
-        <v>310</v>
-      </c>
-      <c r="D17" s="9">
-        <v>59</v>
-      </c>
-      <c r="E17" s="9">
-        <v>126</v>
-      </c>
-      <c r="F17" s="9"/>
-      <c r="M17" s="19" t="s">
-        <v>51</v>
-      </c>
-      <c r="N17" s="9"/>
-      <c r="O17" s="9"/>
-      <c r="P17" s="9"/>
-      <c r="Q17" s="9"/>
-      <c r="R17" s="9"/>
-      <c r="S17" s="9"/>
-    </row>
-    <row r="18" spans="1:19" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="B18" s="9">
-        <v>0</v>
-      </c>
-      <c r="C18" s="9">
-        <f>ROUND(B18+C14*Common!$B$3,0)</f>
-        <v>559</v>
-      </c>
-      <c r="D18" s="9">
-        <v>69</v>
-      </c>
-      <c r="E18" s="9">
-        <v>198</v>
-      </c>
-      <c r="F18" s="9"/>
-      <c r="M18" s="18" t="s">
-        <v>52</v>
-      </c>
-      <c r="N18" s="9"/>
-      <c r="O18" s="9"/>
-      <c r="P18" s="9"/>
-      <c r="Q18" s="9"/>
-      <c r="R18" s="9"/>
-      <c r="S18" s="9"/>
-    </row>
-    <row r="19" spans="1:19" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="B19" s="22">
-        <v>1</v>
-      </c>
-      <c r="C19" s="9">
-        <f>B19+ROUND(C13/7,0)+ROUND(C15/14,0)</f>
-        <v>29</v>
-      </c>
-      <c r="D19" s="9">
-        <v>6</v>
-      </c>
-      <c r="E19" s="9">
-        <v>13</v>
-      </c>
-      <c r="F19" s="9"/>
-      <c r="M19" s="18" t="s">
-        <v>53</v>
-      </c>
-      <c r="N19" s="9"/>
-      <c r="O19" s="9"/>
-      <c r="P19" s="9"/>
-      <c r="Q19" s="9"/>
-      <c r="R19" s="9"/>
-      <c r="S19" s="9"/>
-    </row>
-    <row r="20" spans="1:19" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="B20" s="9">
-        <v>0</v>
-      </c>
-      <c r="C20" s="9">
-        <f>ROUND(C14*Common!$B$4,0)</f>
-        <v>23</v>
-      </c>
-      <c r="D20" s="9">
-        <v>3</v>
-      </c>
-      <c r="E20" s="9">
-        <v>8</v>
-      </c>
-      <c r="F20" s="9"/>
-      <c r="M20" s="18" t="s">
-        <v>118</v>
-      </c>
-      <c r="N20" s="9"/>
-      <c r="O20" s="9"/>
-      <c r="P20" s="9"/>
-      <c r="Q20" s="9"/>
-      <c r="R20" s="9"/>
-      <c r="S20" s="9"/>
-    </row>
-    <row r="21" spans="1:19" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="B21" s="9">
-        <v>0</v>
-      </c>
-      <c r="C21" s="9">
-        <f>C15*Common!$B$5</f>
-        <v>56.400000000000006</v>
-      </c>
-      <c r="D21" s="9">
-        <v>10</v>
-      </c>
-      <c r="E21" s="9">
-        <v>22</v>
-      </c>
-      <c r="F21" s="9"/>
-      <c r="M21" s="18" t="s">
-        <v>119</v>
-      </c>
-      <c r="N21" s="9"/>
-      <c r="O21" s="9"/>
-      <c r="P21" s="9"/>
-      <c r="Q21" s="9"/>
-      <c r="R21" s="9"/>
-      <c r="S21" s="9"/>
-    </row>
-    <row r="22" spans="1:19" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A24" s="21" t="s">
-        <v>264</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S24"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F32" sqref="A1:XFD1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="14" customWidth="1"/>
-    <col min="2" max="2" width="9" customWidth="1"/>
-    <col min="3" max="3" width="11.28515625" customWidth="1"/>
-    <col min="4" max="4" width="8.28515625" customWidth="1"/>
-    <col min="5" max="5" width="9.42578125" customWidth="1"/>
-    <col min="6" max="6" width="10.140625" customWidth="1"/>
-    <col min="7" max="7" width="11.5703125" customWidth="1"/>
-    <col min="8" max="8" width="6.85546875" customWidth="1"/>
-    <col min="9" max="9" width="9" customWidth="1"/>
-    <col min="10" max="10" width="10" customWidth="1"/>
-    <col min="12" max="12" width="8.140625" customWidth="1"/>
-    <col min="13" max="13" width="19.85546875" customWidth="1"/>
-    <col min="14" max="14" width="19.140625" customWidth="1"/>
-    <col min="15" max="15" width="16.7109375" customWidth="1"/>
-    <col min="16" max="16" width="12.28515625" customWidth="1"/>
-    <col min="17" max="17" width="13.5703125" customWidth="1"/>
-    <col min="18" max="18" width="16" customWidth="1"/>
-    <col min="19" max="19" width="17.42578125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>12</v>
-      </c>
-      <c r="M1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="M3" t="s">
-        <v>371</v>
-      </c>
-      <c r="N3" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="O3" s="9">
-        <f>12*B9</f>
-        <v>360</v>
-      </c>
-      <c r="P3" s="9" t="s">
-        <v>375</v>
-      </c>
-      <c r="Q3" s="9"/>
-      <c r="R3" s="9"/>
-      <c r="S3" s="9"/>
-    </row>
-    <row r="4" spans="1:19" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="C4" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="F4" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="G4" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="M4" s="7" t="s">
-        <v>372</v>
-      </c>
-      <c r="N4" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="O4" s="9">
-        <f>12*B9</f>
-        <v>360</v>
-      </c>
-      <c r="P4" s="9" t="s">
-        <v>377</v>
-      </c>
-      <c r="Q4" s="9">
-        <f>B9</f>
-        <v>30</v>
-      </c>
-      <c r="R4" s="9" t="s">
-        <v>376</v>
-      </c>
-      <c r="S4" s="9"/>
-    </row>
-    <row r="5" spans="1:19" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="17">
-        <v>1.5</v>
-      </c>
-      <c r="C5" s="17">
-        <f>B5*2</f>
-        <v>3</v>
-      </c>
-      <c r="D5" s="17">
-        <f>B5*3</f>
-        <v>4.5</v>
-      </c>
-      <c r="E5" s="17">
-        <f>B5*4</f>
-        <v>6</v>
-      </c>
-      <c r="F5" s="17">
-        <f>B5*5</f>
-        <v>7.5</v>
-      </c>
-      <c r="G5" s="17">
-        <f>B5*6</f>
-        <v>9</v>
-      </c>
-      <c r="M5" s="19" t="s">
-        <v>373</v>
-      </c>
-      <c r="N5" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="O5" s="9">
-        <f>6*B9</f>
-        <v>180</v>
-      </c>
-      <c r="P5" s="9" t="s">
-        <v>378</v>
-      </c>
-      <c r="Q5" s="9"/>
-      <c r="R5" s="9"/>
-      <c r="S5" s="9"/>
-    </row>
-    <row r="6" spans="1:19" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="17">
-        <v>0.85</v>
-      </c>
-      <c r="C6" s="17">
-        <f t="shared" ref="C6:C7" si="0">B6*2</f>
-        <v>1.7</v>
-      </c>
-      <c r="D6" s="17">
-        <f t="shared" ref="D6:D7" si="1">B6*3</f>
-        <v>2.5499999999999998</v>
-      </c>
-      <c r="E6" s="17">
-        <f t="shared" ref="E6:E7" si="2">B6*4</f>
-        <v>3.4</v>
-      </c>
-      <c r="F6" s="17">
-        <f t="shared" ref="F6:F7" si="3">B6*5</f>
-        <v>4.25</v>
-      </c>
-      <c r="G6" s="17">
-        <f t="shared" ref="G6:G7" si="4">B6*6</f>
-        <v>5.0999999999999996</v>
-      </c>
-      <c r="M6" s="18" t="s">
-        <v>374</v>
-      </c>
-      <c r="N6" s="9" t="s">
-        <v>380</v>
-      </c>
-      <c r="O6" s="9">
-        <f>2*B9</f>
-        <v>60</v>
-      </c>
-      <c r="P6" s="9" t="s">
-        <v>379</v>
-      </c>
-      <c r="Q6" s="9"/>
-      <c r="R6" s="9"/>
-      <c r="S6" s="9"/>
-    </row>
-    <row r="7" spans="1:19" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" s="17">
-        <v>0.75</v>
-      </c>
-      <c r="C7" s="17">
-        <f t="shared" si="0"/>
-        <v>1.5</v>
-      </c>
-      <c r="D7" s="17">
-        <f t="shared" si="1"/>
-        <v>2.25</v>
-      </c>
-      <c r="E7" s="17">
-        <f t="shared" si="2"/>
-        <v>3</v>
-      </c>
-      <c r="F7" s="17">
-        <f t="shared" si="3"/>
-        <v>3.75</v>
-      </c>
-      <c r="G7" s="17">
-        <f t="shared" si="4"/>
-        <v>4.5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>35</v>
-      </c>
-      <c r="B9">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>36</v>
-      </c>
-      <c r="B10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="M11" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="N11" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="O11" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="P11" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q11" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="R11" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="S11" s="10" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="12" spans="1:19" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="C12" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="D12" s="10">
-        <v>1</v>
-      </c>
-      <c r="E12" s="10">
-        <v>30</v>
-      </c>
-      <c r="F12" s="10"/>
-      <c r="M12" t="s">
-        <v>235</v>
-      </c>
-      <c r="N12" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="O12" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="P12" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="Q12" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="R12" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="S12" s="9" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="13" spans="1:19" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13" s="9">
-        <v>19</v>
-      </c>
-      <c r="C13" s="9">
-        <f>B13+$B$9*($B$10+1)*B5</f>
-        <v>109</v>
-      </c>
-      <c r="D13" s="9"/>
-      <c r="E13" s="9">
-        <v>109</v>
-      </c>
-      <c r="F13" s="9"/>
-      <c r="M13" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="N13" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="O13" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="P13" s="9" t="s">
-        <v>147</v>
-      </c>
-      <c r="Q13" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="R13" s="9" t="s">
-        <v>156</v>
-      </c>
-      <c r="S13" s="9" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="14" spans="1:19" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14" s="9">
-        <v>14</v>
-      </c>
-      <c r="C14" s="9">
-        <f>B14+$B$9*($B$10+1)*B6</f>
-        <v>65</v>
-      </c>
-      <c r="D14" s="9"/>
-      <c r="E14" s="9">
-        <v>65</v>
-      </c>
-      <c r="F14" s="9"/>
-      <c r="M14" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="N14" s="9" t="s">
-        <v>112</v>
-      </c>
-      <c r="O14" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="P14" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="Q14" s="9" t="s">
-        <v>140</v>
-      </c>
-      <c r="R14" s="9" t="s">
-        <v>368</v>
-      </c>
-      <c r="S14" s="9" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="15" spans="1:19" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="B15" s="9">
-        <v>14</v>
-      </c>
-      <c r="C15" s="9">
-        <f>B15+$B$9*($B$10+1)*B7</f>
-        <v>59</v>
-      </c>
-      <c r="D15" s="9"/>
-      <c r="E15" s="9">
-        <v>59</v>
-      </c>
-      <c r="F15" s="9"/>
-      <c r="M15" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="N15" s="9" t="s">
-        <v>107</v>
-      </c>
-      <c r="O15" s="9" t="s">
-        <v>139</v>
-      </c>
-      <c r="P15" s="9" t="s">
-        <v>247</v>
-      </c>
-      <c r="Q15" s="9" t="s">
-        <v>369</v>
-      </c>
-      <c r="R15" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="S15" s="9" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="16" spans="1:19" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="B16" s="9">
-        <v>172</v>
-      </c>
-      <c r="C16" s="9">
-        <f>ROUNDDOWN(B16+C13*Common!$B$1,0)</f>
-        <v>2134</v>
-      </c>
-      <c r="D16" s="9"/>
-      <c r="E16" s="9">
-        <v>2134</v>
-      </c>
-      <c r="F16" s="9"/>
-      <c r="M16" s="19" t="s">
-        <v>50</v>
-      </c>
-      <c r="N16" s="9" t="s">
-        <v>105</v>
-      </c>
-      <c r="O16" s="9" t="s">
-        <v>110</v>
-      </c>
-      <c r="P16" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="Q16" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="R16" s="9" t="s">
-        <v>368</v>
-      </c>
-      <c r="S16" s="9" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="17" spans="1:19" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="B17" s="9">
-        <v>21</v>
-      </c>
-      <c r="C17" s="9">
-        <f>ROUND(B17+C13+C15*Common!$B$2,0)</f>
-        <v>154</v>
-      </c>
-      <c r="D17" s="9"/>
-      <c r="E17" s="9">
-        <v>154</v>
-      </c>
-      <c r="F17" s="9"/>
-      <c r="M17" s="19" t="s">
-        <v>51</v>
-      </c>
-      <c r="N17" s="9" t="s">
-        <v>109</v>
-      </c>
-      <c r="O17" s="9" t="s">
-        <v>106</v>
-      </c>
-      <c r="P17" s="9" t="s">
-        <v>147</v>
-      </c>
-      <c r="Q17" s="9" t="s">
-        <v>147</v>
-      </c>
-      <c r="R17" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="S17" s="9" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="18" spans="1:19" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="B18" s="9">
-        <v>0</v>
-      </c>
-      <c r="C18" s="9">
-        <f>ROUND(B18+C14*Common!$B$3,0)</f>
-        <v>156</v>
-      </c>
-      <c r="D18" s="9"/>
-      <c r="E18" s="9">
-        <v>157</v>
-      </c>
-      <c r="F18" s="9"/>
-      <c r="M18" s="18" t="s">
-        <v>52</v>
-      </c>
-      <c r="N18" s="9" t="s">
-        <v>121</v>
-      </c>
-      <c r="O18" s="9" t="s">
-        <v>110</v>
-      </c>
-      <c r="P18" s="9" t="s">
-        <v>112</v>
-      </c>
-      <c r="Q18" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="R18" s="9" t="s">
-        <v>368</v>
-      </c>
-      <c r="S18" s="9" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="19" spans="1:19" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="B19" s="22">
-        <v>1</v>
-      </c>
-      <c r="C19" s="9">
-        <f>B19+ROUND(C13/7,0)+ROUND(C15/14,0)</f>
-        <v>21</v>
-      </c>
-      <c r="D19" s="9"/>
-      <c r="E19" s="9">
-        <v>21</v>
-      </c>
-      <c r="F19" s="9"/>
-      <c r="M19" s="18" t="s">
-        <v>53</v>
-      </c>
-      <c r="N19" s="9" t="s">
-        <v>152</v>
-      </c>
-      <c r="O19" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="P19" s="9" t="s">
-        <v>112</v>
-      </c>
-      <c r="Q19" s="9" t="s">
-        <v>369</v>
-      </c>
-      <c r="R19" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="S19" s="9" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="20" spans="1:19" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="B20" s="9">
-        <v>0</v>
-      </c>
-      <c r="C20" s="9">
-        <f>ROUND(C14*Common!$B$4,0)</f>
-        <v>7</v>
-      </c>
-      <c r="D20" s="9"/>
-      <c r="E20" s="9">
-        <v>7</v>
-      </c>
-      <c r="F20" s="9"/>
-      <c r="M20" s="18" t="s">
-        <v>118</v>
-      </c>
-      <c r="N20" s="9" t="s">
-        <v>115</v>
-      </c>
-      <c r="O20" s="9" t="s">
-        <v>123</v>
-      </c>
-      <c r="P20" s="9" t="s">
-        <v>105</v>
-      </c>
-      <c r="Q20" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="R20" s="9" t="s">
-        <v>368</v>
-      </c>
-      <c r="S20" s="9" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="21" spans="1:19" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="B21" s="9">
-        <v>0</v>
-      </c>
-      <c r="C21" s="9">
-        <f>C15*Common!$B$5</f>
-        <v>23.6</v>
-      </c>
-      <c r="D21" s="9"/>
-      <c r="E21" s="9">
-        <v>23</v>
-      </c>
-      <c r="F21" s="9"/>
-      <c r="M21" s="18" t="s">
-        <v>119</v>
-      </c>
-      <c r="N21" s="9" t="s">
-        <v>115</v>
-      </c>
-      <c r="O21" s="9" t="s">
-        <v>124</v>
-      </c>
-      <c r="P21" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="Q21" s="9" t="s">
-        <v>110</v>
-      </c>
-      <c r="R21" s="9" t="s">
-        <v>107</v>
-      </c>
-      <c r="S21" s="9" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="22" spans="1:19" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A24" s="21" t="s">
-        <v>264</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/excel/heroes.xlsx
+++ b/excel/heroes.xlsx
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3455" uniqueCount="570">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4013" uniqueCount="644">
   <si>
     <t>Type</t>
   </si>
@@ -1508,275 +1508,497 @@
     <t>Gorgieran Glaive</t>
   </si>
   <si>
+    <t>Skills+Gears</t>
+  </si>
+  <si>
+    <t>Summon Wraiths</t>
+  </si>
+  <si>
+    <t>Swarm of Bats</t>
+  </si>
+  <si>
+    <t>Siniser Aspect</t>
+  </si>
+  <si>
+    <t>Total damage per attack</t>
+  </si>
+  <si>
+    <t>AOE Magic damage per attack per lvl 6,82</t>
+  </si>
+  <si>
+    <t>AOE Magic damage 14,3 per lvl</t>
+  </si>
+  <si>
+    <t>Silence lvl</t>
+  </si>
+  <si>
+    <t>Energy Void</t>
+  </si>
+  <si>
+    <t>Energy Burn</t>
+  </si>
+  <si>
+    <t>Agile Blade</t>
+  </si>
+  <si>
+    <t>Anti-Mage Shield</t>
+  </si>
+  <si>
+    <t>AOE magic damage per lvl 11</t>
+  </si>
+  <si>
+    <t>magic damage 9,8 ,lose 40+ 0.5 energy per lvl</t>
+  </si>
+  <si>
+    <t>Energy lose</t>
+  </si>
+  <si>
+    <t>Inc agile by 3 per lvl</t>
+  </si>
+  <si>
+    <t>Total inc agile</t>
+  </si>
+  <si>
+    <t>Inc magic resist by 1 per lvl</t>
+  </si>
+  <si>
+    <t>Total magic resist</t>
+  </si>
+  <si>
+    <t>Soulhunter</t>
+  </si>
+  <si>
+    <t>Phoenix (China)</t>
+  </si>
+  <si>
+    <t>Armor of Spirit</t>
+  </si>
+  <si>
+    <t>Divine Light</t>
+  </si>
+  <si>
+    <t>Counter Curse</t>
+  </si>
+  <si>
+    <t>Blessing</t>
+  </si>
+  <si>
+    <t>Reduce incoming phy damage for whole team by 0,1 per lvl</t>
+  </si>
+  <si>
+    <t>total reduce</t>
+  </si>
+  <si>
+    <t>Heal by 8 per lvl</t>
+  </si>
+  <si>
+    <t>Absorb 60 phy damage per lvl</t>
+  </si>
+  <si>
+    <t>Total absorb</t>
+  </si>
+  <si>
+    <t>Absorb 50 magic damage per lvl</t>
+  </si>
+  <si>
+    <t>Sansdiroan Warden Helm</t>
+  </si>
+  <si>
+    <t>Kreln masher</t>
+  </si>
+  <si>
+    <t>jachin's Ruby</t>
+  </si>
+  <si>
+    <t>Meteor Shwer</t>
+  </si>
+  <si>
+    <t>Inspiration</t>
+  </si>
+  <si>
+    <t>Overdraw</t>
+  </si>
+  <si>
+    <t>Motivate</t>
+  </si>
+  <si>
+    <t>Inc team agi</t>
+  </si>
+  <si>
+    <t>inc team agi by 2 per lvl</t>
+  </si>
+  <si>
+    <t>Magic damage 11 per lvl, stun=lvl</t>
+  </si>
+  <si>
+    <t>inc team phi/magic power by 5 per lvl</t>
+  </si>
+  <si>
+    <t>Total inc</t>
+  </si>
+  <si>
+    <t>Magic damage 17,6 per lvl ,up to 5 meteors</t>
+  </si>
+  <si>
+    <t>Team buff psy and magic by 5 per lvl</t>
+  </si>
+  <si>
+    <t>total buf</t>
+  </si>
+  <si>
+    <t>Damage per lvl=10,5</t>
+  </si>
+  <si>
+    <t>int attack speed by 0,5% per lvl</t>
+  </si>
+  <si>
+    <t>Total attack speed</t>
+  </si>
+  <si>
+    <t>Damage per lvl=12,AOE</t>
+  </si>
+  <si>
+    <t>Bulwak war-Drum</t>
+  </si>
+  <si>
+    <t>jachin's Stone Rod</t>
+  </si>
+  <si>
+    <t>Ball Lighning</t>
+  </si>
+  <si>
+    <t>hazad'ar boots</t>
+  </si>
+  <si>
+    <t>jachin's Ruby lv2</t>
+  </si>
+  <si>
+    <t>jachin's Ruby lv3</t>
+  </si>
+  <si>
+    <t>jachin's Ruby lv4</t>
+  </si>
+  <si>
+    <t>Hunting the Maiden</t>
+  </si>
+  <si>
+    <t>Cocoon of Ice</t>
+  </si>
+  <si>
+    <t>Ice Prison</t>
+  </si>
+  <si>
+    <t>Sigin of Arctus</t>
+  </si>
+  <si>
+    <t>Magic damage 16,5 per lvl, freez</t>
+  </si>
+  <si>
+    <t>AOE Magic damage 9,9 per lvl</t>
+  </si>
+  <si>
+    <t>revocer team energy by 3 per lvl</t>
+  </si>
+  <si>
+    <t>total recovery</t>
+  </si>
+  <si>
+    <t>Magic damage 7,04 per wave pre lvl</t>
+  </si>
+  <si>
+    <t>Kleln Leaf</t>
+  </si>
+  <si>
+    <t>Stainles Axe</t>
+  </si>
+  <si>
+    <t>Petrify</t>
+  </si>
+  <si>
+    <t>Split Arrow</t>
+  </si>
+  <si>
+    <t>Theft of Essence</t>
+  </si>
+  <si>
+    <t>Wal=dol Blade</t>
+  </si>
+  <si>
+    <t>War Siget of Kreln</t>
+  </si>
+  <si>
+    <t>death kite</t>
+  </si>
+  <si>
+    <t>War Signet of Krelm</t>
+  </si>
+  <si>
+    <t>Transmer of Anums</t>
+  </si>
+  <si>
+    <t>Glo'can Tir</t>
+  </si>
+  <si>
+    <t>Nedan Bone Cest</t>
+  </si>
+  <si>
+    <t>Chest sPlate</t>
+  </si>
+  <si>
+    <t>Kellosian Crusher</t>
+  </si>
+  <si>
+    <t>Phase Bash</t>
+  </si>
+  <si>
+    <t>Charge of Valor</t>
+  </si>
+  <si>
+    <t>Heavier Bash</t>
+  </si>
+  <si>
+    <t>Concentration</t>
+  </si>
+  <si>
+    <t>pendant of Kenaris</t>
+  </si>
+  <si>
+    <t>Jachin's Sone Rod</t>
+  </si>
+  <si>
+    <t>hazad'ar Acolyte mask</t>
+  </si>
+  <si>
+    <t>Concussive Blow</t>
+  </si>
+  <si>
+    <t>Drunken Haze</t>
+  </si>
+  <si>
+    <t>Shaking Strike</t>
+  </si>
+  <si>
+    <t>Elemental Forces</t>
+  </si>
+  <si>
+    <t>Damage per attack</t>
+  </si>
+  <si>
+    <t>Damager per lvl per attack 6</t>
+  </si>
+  <si>
+    <t>Phy damage 10,2 per lvl, stun</t>
+  </si>
+  <si>
+    <t>Magic damage 9 per lvl,  drunked</t>
+  </si>
+  <si>
+    <t>Inc str</t>
+  </si>
+  <si>
+    <t>inc str by 3 per lvl</t>
+  </si>
+  <si>
+    <t>Maul</t>
+  </si>
+  <si>
+    <t>Shockwave</t>
+  </si>
+  <si>
+    <t>Ursine Focus</t>
+  </si>
+  <si>
+    <t>Spirit of Ursa</t>
+  </si>
+  <si>
+    <t>Total inc. attack</t>
+  </si>
+  <si>
+    <t>inc. attack by 8 per lvl</t>
+  </si>
+  <si>
+    <t>inc phy crit by 3 per lvl</t>
+  </si>
+  <si>
+    <t>AOE phy damage 10 per lvl</t>
+  </si>
+  <si>
+    <t>Each attack damage 7 per lvl</t>
+  </si>
+  <si>
+    <t>Total each attack damage</t>
+  </si>
+  <si>
+    <t>Purple+4</t>
+  </si>
+  <si>
+    <t>Orange</t>
+  </si>
+  <si>
+    <t>Crusade Shield</t>
+  </si>
+  <si>
+    <t>Titan's Axe</t>
+  </si>
+  <si>
+    <t>All Around Shoes</t>
+  </si>
+  <si>
     <t>?</t>
   </si>
   <si>
-    <t>Skills+Gears</t>
-  </si>
-  <si>
-    <t>Summon Wraiths</t>
-  </si>
-  <si>
-    <t>Swarm of Bats</t>
-  </si>
-  <si>
-    <t>Siniser Aspect</t>
-  </si>
-  <si>
-    <t>Total damage per attack</t>
-  </si>
-  <si>
-    <t>AOE Magic damage per attack per lvl 6,82</t>
-  </si>
-  <si>
-    <t>AOE Magic damage 14,3 per lvl</t>
-  </si>
-  <si>
-    <t>Silence lvl</t>
-  </si>
-  <si>
-    <t>Energy Void</t>
-  </si>
-  <si>
-    <t>Energy Burn</t>
-  </si>
-  <si>
-    <t>Agile Blade</t>
-  </si>
-  <si>
-    <t>Anti-Mage Shield</t>
-  </si>
-  <si>
-    <t>AOE magic damage per lvl 11</t>
-  </si>
-  <si>
-    <t>magic damage 9,8 ,lose 40+ 0.5 energy per lvl</t>
-  </si>
-  <si>
-    <t>Energy lose</t>
-  </si>
-  <si>
-    <t>Inc agile by 3 per lvl</t>
-  </si>
-  <si>
-    <t>Total inc agile</t>
-  </si>
-  <si>
-    <t>Inc magic resist by 1 per lvl</t>
-  </si>
-  <si>
-    <t>Total magic resist</t>
-  </si>
-  <si>
-    <t>Soulhunter</t>
-  </si>
-  <si>
-    <t>Phoenix (China)</t>
-  </si>
-  <si>
-    <t>Armor of Spirit</t>
-  </si>
-  <si>
-    <t>Divine Light</t>
-  </si>
-  <si>
-    <t>Counter Curse</t>
-  </si>
-  <si>
-    <t>Blessing</t>
-  </si>
-  <si>
-    <t>Reduce incoming phy damage for whole team by 0,1 per lvl</t>
-  </si>
-  <si>
-    <t>total reduce</t>
-  </si>
-  <si>
-    <t>Heal by 8 per lvl</t>
-  </si>
-  <si>
-    <t>Absorb 60 phy damage per lvl</t>
-  </si>
-  <si>
-    <t>Total absorb</t>
-  </si>
-  <si>
-    <t>Absorb 50 magic damage per lvl</t>
-  </si>
-  <si>
-    <t>Sansdiroan Warden Helm</t>
-  </si>
-  <si>
-    <t>Kreln masher</t>
-  </si>
-  <si>
-    <t>jachin's Ruby</t>
-  </si>
-  <si>
-    <t>Meteor Shwer</t>
-  </si>
-  <si>
-    <t>Inspiration</t>
-  </si>
-  <si>
-    <t>Overdraw</t>
-  </si>
-  <si>
-    <t>Motivate</t>
-  </si>
-  <si>
-    <t>Inc team agi</t>
-  </si>
-  <si>
-    <t>inc team agi by 2 per lvl</t>
-  </si>
-  <si>
-    <t>Magic damage 11 per lvl, stun=lvl</t>
-  </si>
-  <si>
-    <t>inc team phi/magic power by 5 per lvl</t>
-  </si>
-  <si>
-    <t>Total inc</t>
-  </si>
-  <si>
-    <t>Magic damage 17,6 per lvl ,up to 5 meteors</t>
-  </si>
-  <si>
-    <t>Team buff psy and magic by 5 per lvl</t>
-  </si>
-  <si>
-    <t>total buf</t>
-  </si>
-  <si>
-    <t>Damage per lvl=10,5</t>
-  </si>
-  <si>
-    <t>int attack speed by 0,5% per lvl</t>
-  </si>
-  <si>
-    <t>Total attack speed</t>
-  </si>
-  <si>
-    <t>Damage per lvl=12,AOE</t>
-  </si>
-  <si>
-    <t>Bulwak war-Drum</t>
-  </si>
-  <si>
-    <t>jachin's Stone Rod</t>
-  </si>
-  <si>
-    <t>Ball Lighning</t>
-  </si>
-  <si>
-    <t>hazad'ar boots</t>
-  </si>
-  <si>
-    <t>jachin's Ruby lv2</t>
-  </si>
-  <si>
-    <t>jachin's Ruby lv3</t>
-  </si>
-  <si>
-    <t>jachin's Ruby lv4</t>
-  </si>
-  <si>
-    <t>Hunting the Maiden</t>
-  </si>
-  <si>
-    <t>Cocoon of Ice</t>
-  </si>
-  <si>
-    <t>Ice Prison</t>
-  </si>
-  <si>
-    <t>Sigin of Arctus</t>
-  </si>
-  <si>
-    <t>Magic damage 16,5 per lvl, freez</t>
-  </si>
-  <si>
-    <t>AOE Magic damage 9,9 per lvl</t>
-  </si>
-  <si>
-    <t>revocer team energy by 3 per lvl</t>
-  </si>
-  <si>
-    <t>total recovery</t>
-  </si>
-  <si>
-    <t>Magic damage 7,04 per wave pre lvl</t>
-  </si>
-  <si>
-    <t>Kleln Leaf</t>
-  </si>
-  <si>
-    <t>Stainles Axe</t>
-  </si>
-  <si>
-    <t>Petrify</t>
-  </si>
-  <si>
-    <t>Split Arrow</t>
-  </si>
-  <si>
-    <t>Theft of Essence</t>
-  </si>
-  <si>
-    <t>Wal=dol Blade</t>
-  </si>
-  <si>
-    <t>War Siget of Kreln</t>
-  </si>
-  <si>
-    <t>death kite</t>
-  </si>
-  <si>
-    <t>War Signet of Krelm</t>
-  </si>
-  <si>
-    <t>Transmer of Anums</t>
-  </si>
-  <si>
-    <t>Glo'can Tir</t>
-  </si>
-  <si>
-    <t>Nedan Bone Cest</t>
-  </si>
-  <si>
-    <t>Chest sPlate</t>
-  </si>
-  <si>
-    <t>Kellosian Crusher</t>
-  </si>
-  <si>
-    <t>Phase Bash</t>
-  </si>
-  <si>
-    <t>Charge of Valor</t>
-  </si>
-  <si>
-    <t>Heavier Bash</t>
-  </si>
-  <si>
-    <t>Concentration</t>
-  </si>
-  <si>
-    <t>pendant of Kenaris</t>
-  </si>
-  <si>
-    <t>Jachin's Sone Rod</t>
-  </si>
-  <si>
-    <t>hazad'ar Acolyte mask</t>
+    <t>Immortal Guardian</t>
+  </si>
+  <si>
+    <t>Dragon's Scale</t>
+  </si>
+  <si>
+    <t>Emerald pendant</t>
+  </si>
+  <si>
+    <t>Holy Garment</t>
+  </si>
+  <si>
+    <t>Crystal Tower</t>
+  </si>
+  <si>
+    <t>Crystal Ball</t>
+  </si>
+  <si>
+    <t>Wizard's Hat</t>
+  </si>
+  <si>
+    <t>Dark Moon Amulet</t>
+  </si>
+  <si>
+    <t>Queen's Dress</t>
+  </si>
+  <si>
+    <t>Emerald Pendant</t>
+  </si>
+  <si>
+    <t>Nightless Staff</t>
+  </si>
+  <si>
+    <t>Emerald Ring</t>
+  </si>
+  <si>
+    <t>Void Crystal</t>
+  </si>
+  <si>
+    <t>Deceiver's Sword</t>
+  </si>
+  <si>
+    <t>Eagle Ring</t>
+  </si>
+  <si>
+    <t>Shadow Book</t>
+  </si>
+  <si>
+    <t>Marksman's Ring</t>
+  </si>
+  <si>
+    <t>Thunder Sword</t>
+  </si>
+  <si>
+    <t>Angel's Sword</t>
+  </si>
+  <si>
+    <t>Star Shield</t>
+  </si>
+  <si>
+    <t>Demon's Arrow</t>
+  </si>
+  <si>
+    <t>Silver Lance</t>
+  </si>
+  <si>
+    <t>Earth hammer</t>
+  </si>
+  <si>
+    <t>Wizad's hat</t>
+  </si>
+  <si>
+    <t>Destruction Amulet</t>
+  </si>
+  <si>
+    <t>emerald Ring</t>
+  </si>
+  <si>
+    <t>ball Lightning</t>
+  </si>
+  <si>
+    <t>Eternal Icicle</t>
+  </si>
+  <si>
+    <t>Cullak Aertahn</t>
+  </si>
+  <si>
+    <t>ce Staff</t>
+  </si>
+  <si>
+    <t>Angels Sword</t>
+  </si>
+  <si>
+    <t>Fanged Harp</t>
+  </si>
+  <si>
+    <t>Silver lance</t>
+  </si>
+  <si>
+    <t>Titaln's Axe</t>
+  </si>
+  <si>
+    <t>Wizard's Book</t>
+  </si>
+  <si>
+    <t>Heaven's halberd</t>
+  </si>
+  <si>
+    <t>Corgieran Glaive</t>
+  </si>
+  <si>
+    <t>Book of the Sun</t>
+  </si>
+  <si>
+    <t>Titan Axe</t>
+  </si>
+  <si>
+    <t>Crystall ball</t>
+  </si>
+  <si>
+    <t>Crystal ball</t>
+  </si>
+  <si>
+    <t>ball Ligtning</t>
+  </si>
+  <si>
+    <t>Shazed'amok</t>
+  </si>
+  <si>
+    <t>Wizzard Hat</t>
+  </si>
+  <si>
+    <t>Earth Hammer</t>
+  </si>
+  <si>
+    <t>Fanged harp</t>
+  </si>
+  <si>
+    <t>Wizard's hat</t>
+  </si>
+  <si>
+    <t>Restruction Amulet</t>
+  </si>
+  <si>
+    <t>Crusde Shield</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1853,8 +2075,15 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="13">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1919,6 +2148,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1998,7 +2233,7 @@
     <xf numFmtId="0" fontId="6" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="3"/>
@@ -2032,6 +2267,8 @@
     <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="5" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="5" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="5" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="2" xfId="7" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="8">
     <cellStyle name="Вывод" xfId="4" builtinId="21"/>
@@ -2383,7 +2620,7 @@
   <dimension ref="A1:S24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="Q9" sqref="Q9"/>
+      <selection activeCell="M22" sqref="M22:S23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2429,17 +2666,17 @@
     </row>
     <row r="3" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="M3" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="N3" s="9" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="O3" s="9">
         <f>6.82*B9</f>
         <v>388.74</v>
       </c>
       <c r="P3" s="9" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="Q3" s="9"/>
       <c r="R3" s="9"/>
@@ -2465,7 +2702,7 @@
         <v>11</v>
       </c>
       <c r="M4" s="7" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="N4" s="9" t="s">
         <v>54</v>
@@ -2475,7 +2712,7 @@
         <v>815.1</v>
       </c>
       <c r="P4" s="9" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="Q4" s="9"/>
       <c r="R4" s="9"/>
@@ -2512,7 +2749,7 @@
         <v>203</v>
       </c>
       <c r="N5" s="9" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="O5" s="9">
         <f>B9</f>
@@ -2551,7 +2788,7 @@
         <v>9</v>
       </c>
       <c r="M6" s="18" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="N6" s="9" t="s">
         <v>226</v>
@@ -3012,7 +3249,52 @@
         <v>450</v>
       </c>
     </row>
-    <row r="22" spans="1:19" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="22" spans="1:19" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="M22" s="18" t="s">
+        <v>589</v>
+      </c>
+      <c r="N22" s="9" t="s">
+        <v>605</v>
+      </c>
+      <c r="O22" s="9" t="s">
+        <v>600</v>
+      </c>
+      <c r="P22" s="23" t="s">
+        <v>152</v>
+      </c>
+      <c r="Q22" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="R22" s="23" t="s">
+        <v>641</v>
+      </c>
+      <c r="S22" s="9" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="M23" s="25" t="s">
+        <v>590</v>
+      </c>
+      <c r="N23" s="9" t="s">
+        <v>594</v>
+      </c>
+      <c r="O23" s="9" t="s">
+        <v>620</v>
+      </c>
+      <c r="P23" s="9" t="s">
+        <v>642</v>
+      </c>
+      <c r="Q23" s="9" t="s">
+        <v>603</v>
+      </c>
+      <c r="R23" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="S23" s="9" t="s">
+        <v>593</v>
+      </c>
+    </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A24" s="21" t="s">
         <v>264</v>
@@ -3028,7 +3310,7 @@
   <dimension ref="A1:S24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+      <selection activeCell="M22" sqref="M22:S23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3077,14 +3359,14 @@
         <v>442</v>
       </c>
       <c r="N3" s="9" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="O3" s="9">
         <f>5*B9</f>
         <v>50</v>
       </c>
       <c r="P3" s="9" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="Q3" s="9"/>
       <c r="R3" s="9"/>
@@ -3120,7 +3402,7 @@
         <v>105</v>
       </c>
       <c r="P4" s="9" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="Q4" s="9"/>
       <c r="R4" s="9"/>
@@ -3164,7 +3446,7 @@
         <v>120</v>
       </c>
       <c r="P5" s="9" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="Q5" s="9"/>
       <c r="R5" s="9"/>
@@ -3201,14 +3483,14 @@
         <v>445</v>
       </c>
       <c r="N6" s="9" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="O6" s="9">
         <f>0.5*B9</f>
         <v>5</v>
       </c>
       <c r="P6" s="9" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="Q6" s="9"/>
       <c r="R6" s="9"/>
@@ -3676,7 +3958,52 @@
         <v>450</v>
       </c>
     </row>
-    <row r="22" spans="1:19" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="22" spans="1:19" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="M22" s="18" t="s">
+        <v>589</v>
+      </c>
+      <c r="N22" s="9" t="s">
+        <v>608</v>
+      </c>
+      <c r="O22" s="9" t="s">
+        <v>609</v>
+      </c>
+      <c r="P22" s="23" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q22" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="R22" s="23" t="s">
+        <v>611</v>
+      </c>
+      <c r="S22" s="9" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="M23" s="25" t="s">
+        <v>590</v>
+      </c>
+      <c r="N23" s="9" t="s">
+        <v>594</v>
+      </c>
+      <c r="O23" s="9" t="s">
+        <v>612</v>
+      </c>
+      <c r="P23" s="9" t="s">
+        <v>613</v>
+      </c>
+      <c r="Q23" s="9" t="s">
+        <v>186</v>
+      </c>
+      <c r="R23" s="9" t="s">
+        <v>615</v>
+      </c>
+      <c r="S23" s="9" t="s">
+        <v>593</v>
+      </c>
+    </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A24" s="21" t="s">
         <v>264</v>
@@ -3692,7 +4019,7 @@
   <dimension ref="A1:S24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="S21" sqref="S21"/>
+      <selection activeCell="M22" sqref="M22:S23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4342,7 +4669,52 @@
         <v>114</v>
       </c>
     </row>
-    <row r="22" spans="1:19" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="22" spans="1:19" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="M22" s="18" t="s">
+        <v>589</v>
+      </c>
+      <c r="N22" s="9" t="s">
+        <v>605</v>
+      </c>
+      <c r="O22" s="9" t="s">
+        <v>634</v>
+      </c>
+      <c r="P22" s="23" t="s">
+        <v>603</v>
+      </c>
+      <c r="Q22" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="R22" s="23" t="s">
+        <v>188</v>
+      </c>
+      <c r="S22" s="9" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="M23" s="25" t="s">
+        <v>590</v>
+      </c>
+      <c r="N23" s="9" t="s">
+        <v>594</v>
+      </c>
+      <c r="O23" s="9" t="s">
+        <v>602</v>
+      </c>
+      <c r="P23" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="Q23" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="R23" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="S23" s="9" t="s">
+        <v>593</v>
+      </c>
+    </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A24" s="21" t="s">
         <v>264</v>
@@ -4358,7 +4730,7 @@
   <dimension ref="A1:S24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F32" sqref="A1:XFD1048576"/>
+      <selection activeCell="M22" sqref="M22:S23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4995,7 +5367,52 @@
         <v>114</v>
       </c>
     </row>
-    <row r="22" spans="1:19" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="22" spans="1:19" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="M22" s="18" t="s">
+        <v>589</v>
+      </c>
+      <c r="N22" s="9" t="s">
+        <v>591</v>
+      </c>
+      <c r="O22" s="9" t="s">
+        <v>633</v>
+      </c>
+      <c r="P22" s="23" t="s">
+        <v>596</v>
+      </c>
+      <c r="Q22" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="R22" s="23" t="s">
+        <v>194</v>
+      </c>
+      <c r="S22" s="9" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="M23" s="25" t="s">
+        <v>590</v>
+      </c>
+      <c r="N23" s="9" t="s">
+        <v>594</v>
+      </c>
+      <c r="O23" s="9" t="s">
+        <v>595</v>
+      </c>
+      <c r="P23" s="9" t="s">
+        <v>300</v>
+      </c>
+      <c r="Q23" s="9" t="s">
+        <v>186</v>
+      </c>
+      <c r="R23" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="S23" s="9" t="s">
+        <v>593</v>
+      </c>
+    </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A24" s="21" t="s">
         <v>264</v>
@@ -5011,7 +5428,7 @@
   <dimension ref="A1:S24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J32" sqref="A1:XFD1048576"/>
+      <selection activeCell="M22" sqref="M22:S23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5635,7 +6052,52 @@
         <v>114</v>
       </c>
     </row>
-    <row r="22" spans="1:19" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="22" spans="1:19" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="M22" s="18" t="s">
+        <v>589</v>
+      </c>
+      <c r="N22" s="9" t="s">
+        <v>605</v>
+      </c>
+      <c r="O22" s="9" t="s">
+        <v>600</v>
+      </c>
+      <c r="P22" s="23" t="s">
+        <v>603</v>
+      </c>
+      <c r="Q22" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="R22" s="23" t="s">
+        <v>144</v>
+      </c>
+      <c r="S22" s="9" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="M23" s="25" t="s">
+        <v>590</v>
+      </c>
+      <c r="N23" s="9" t="s">
+        <v>594</v>
+      </c>
+      <c r="O23" s="9" t="s">
+        <v>606</v>
+      </c>
+      <c r="P23" s="9" t="s">
+        <v>601</v>
+      </c>
+      <c r="Q23" s="9" t="s">
+        <v>619</v>
+      </c>
+      <c r="R23" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="S23" s="9" t="s">
+        <v>593</v>
+      </c>
+    </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A24" s="21" t="s">
         <v>264</v>
@@ -5651,7 +6113,7 @@
   <dimension ref="A1:S24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
+      <selection activeCell="M22" sqref="M22:S23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5697,17 +6159,17 @@
     </row>
     <row r="3" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="M3" s="8" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="N3" s="9" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="O3" s="9">
         <f>200+50*B9</f>
         <v>3450</v>
       </c>
       <c r="P3" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="Q3" s="9"/>
       <c r="R3" s="9"/>
@@ -5733,7 +6195,7 @@
         <v>11</v>
       </c>
       <c r="M4" s="7" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="N4" s="9" t="s">
         <v>173</v>
@@ -5743,7 +6205,7 @@
         <v>520</v>
       </c>
       <c r="P4" s="9" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="Q4" s="9"/>
       <c r="R4" s="9"/>
@@ -5777,17 +6239,17 @@
         <v>8.1000000000000014</v>
       </c>
       <c r="M5" s="19" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="N5" s="9" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="O5" s="9">
         <f>60*B9</f>
         <v>3900</v>
       </c>
       <c r="P5" s="9" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="Q5" s="9"/>
       <c r="R5" s="9"/>
@@ -5821,17 +6283,17 @@
         <v>5.4</v>
       </c>
       <c r="M6" s="18" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="N6" s="9" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="O6" s="9">
         <f>0.1*B9</f>
         <v>6.5</v>
       </c>
       <c r="P6" s="9" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="Q6" s="9"/>
       <c r="R6" s="9"/>
@@ -6301,7 +6763,52 @@
         <v>114</v>
       </c>
     </row>
-    <row r="22" spans="1:19" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="22" spans="1:19" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="M22" s="18" t="s">
+        <v>589</v>
+      </c>
+      <c r="N22" s="9" t="s">
+        <v>599</v>
+      </c>
+      <c r="O22" s="9" t="s">
+        <v>592</v>
+      </c>
+      <c r="P22" s="23" t="s">
+        <v>596</v>
+      </c>
+      <c r="Q22" s="9" t="s">
+        <v>603</v>
+      </c>
+      <c r="R22" s="23" t="s">
+        <v>340</v>
+      </c>
+      <c r="S22" s="9" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="M23" s="25" t="s">
+        <v>590</v>
+      </c>
+      <c r="N23" s="9" t="s">
+        <v>594</v>
+      </c>
+      <c r="O23" s="9" t="s">
+        <v>595</v>
+      </c>
+      <c r="P23" s="9" t="s">
+        <v>610</v>
+      </c>
+      <c r="Q23" s="9" t="s">
+        <v>598</v>
+      </c>
+      <c r="R23" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="S23" s="9" t="s">
+        <v>593</v>
+      </c>
+    </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A24" s="21" t="s">
         <v>264</v>
@@ -6317,7 +6824,7 @@
   <dimension ref="A1:S24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O13" sqref="O13"/>
+      <selection activeCell="M22" sqref="M22:S23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6941,7 +7448,52 @@
         <v>114</v>
       </c>
     </row>
-    <row r="22" spans="1:19" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="22" spans="1:19" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="M22" s="18" t="s">
+        <v>589</v>
+      </c>
+      <c r="N22" s="9" t="s">
+        <v>605</v>
+      </c>
+      <c r="O22" s="9" t="s">
+        <v>600</v>
+      </c>
+      <c r="P22" s="23" t="s">
+        <v>144</v>
+      </c>
+      <c r="Q22" s="9" t="s">
+        <v>619</v>
+      </c>
+      <c r="R22" s="23" t="s">
+        <v>149</v>
+      </c>
+      <c r="S22" s="9" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="M23" s="25" t="s">
+        <v>590</v>
+      </c>
+      <c r="N23" s="9" t="s">
+        <v>594</v>
+      </c>
+      <c r="O23" s="9" t="s">
+        <v>602</v>
+      </c>
+      <c r="P23" s="9" t="s">
+        <v>603</v>
+      </c>
+      <c r="Q23" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="R23" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="S23" s="9" t="s">
+        <v>593</v>
+      </c>
+    </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A24" s="21" t="s">
         <v>264</v>
@@ -6957,7 +7509,7 @@
   <dimension ref="A1:S24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J22" sqref="J22"/>
+      <selection activeCell="M22" sqref="M22:S23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7003,7 +7555,7 @@
     </row>
     <row r="3" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="M3" s="8" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="N3" s="9" t="s">
         <v>54</v>
@@ -7015,7 +7567,7 @@
       <c r="P3" s="9"/>
       <c r="Q3" s="9"/>
       <c r="R3" s="9" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="S3" s="9"/>
     </row>
@@ -7039,7 +7591,7 @@
         <v>11</v>
       </c>
       <c r="M4" s="7" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="N4" s="9" t="s">
         <v>54</v>
@@ -7049,14 +7601,14 @@
         <v>98</v>
       </c>
       <c r="P4" s="9" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="Q4" s="9">
         <f>40+0.5*B9</f>
         <v>45</v>
       </c>
       <c r="R4" s="9" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="S4" s="9"/>
     </row>
@@ -7088,10 +7640,10 @@
         <v>3.5999999999999996</v>
       </c>
       <c r="M5" s="19" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="N5" s="9" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="O5" s="9">
         <f>3*B9</f>
@@ -7100,7 +7652,7 @@
       <c r="P5" s="9"/>
       <c r="Q5" s="9"/>
       <c r="R5" s="9" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="S5" s="9"/>
     </row>
@@ -7132,10 +7684,10 @@
         <v>5.4</v>
       </c>
       <c r="M6" s="18" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="N6" s="9" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="O6" s="9">
         <f>2+B9</f>
@@ -7144,7 +7696,7 @@
       <c r="P6" s="9"/>
       <c r="Q6" s="9"/>
       <c r="R6" s="9" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="S6" s="9"/>
     </row>
@@ -7613,7 +8165,52 @@
         <v>114</v>
       </c>
     </row>
-    <row r="22" spans="1:19" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="22" spans="1:19" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="M22" s="18" t="s">
+        <v>589</v>
+      </c>
+      <c r="N22" s="9" t="s">
+        <v>591</v>
+      </c>
+      <c r="O22" s="9" t="s">
+        <v>592</v>
+      </c>
+      <c r="P22" s="23" t="s">
+        <v>151</v>
+      </c>
+      <c r="Q22" s="9" t="s">
+        <v>631</v>
+      </c>
+      <c r="R22" s="23" t="s">
+        <v>340</v>
+      </c>
+      <c r="S22" s="9" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="M23" s="25" t="s">
+        <v>590</v>
+      </c>
+      <c r="N23" s="9" t="s">
+        <v>594</v>
+      </c>
+      <c r="O23" s="9" t="s">
+        <v>632</v>
+      </c>
+      <c r="P23" s="9" t="s">
+        <v>194</v>
+      </c>
+      <c r="Q23" s="9" t="s">
+        <v>616</v>
+      </c>
+      <c r="R23" s="9" t="s">
+        <v>615</v>
+      </c>
+      <c r="S23" s="9" t="s">
+        <v>593</v>
+      </c>
+    </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A24" s="21" t="s">
         <v>264</v>
@@ -7629,7 +8226,7 @@
   <dimension ref="A1:S24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+      <selection activeCell="M22" sqref="M22:S23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8279,7 +8876,52 @@
         <v>114</v>
       </c>
     </row>
-    <row r="22" spans="1:19" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="22" spans="1:19" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="M22" s="18" t="s">
+        <v>589</v>
+      </c>
+      <c r="N22" s="9" t="s">
+        <v>614</v>
+      </c>
+      <c r="O22" s="9" t="s">
+        <v>609</v>
+      </c>
+      <c r="P22" s="23" t="s">
+        <v>625</v>
+      </c>
+      <c r="Q22" s="9" t="s">
+        <v>629</v>
+      </c>
+      <c r="R22" s="23" t="s">
+        <v>630</v>
+      </c>
+      <c r="S22" s="9" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="M23" s="25" t="s">
+        <v>590</v>
+      </c>
+      <c r="N23" s="9" t="s">
+        <v>594</v>
+      </c>
+      <c r="O23" s="9" t="s">
+        <v>612</v>
+      </c>
+      <c r="P23" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q23" s="9" t="s">
+        <v>342</v>
+      </c>
+      <c r="R23" s="9" t="s">
+        <v>340</v>
+      </c>
+      <c r="S23" s="9" t="s">
+        <v>593</v>
+      </c>
+    </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A24" s="21" t="s">
         <v>264</v>
@@ -8307,7 +8949,7 @@
   <dimension ref="A1:C52"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="M33" sqref="M33"/>
+      <selection activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8446,6 +9088,9 @@
       <c r="A17" s="5" t="s">
         <v>286</v>
       </c>
+      <c r="B17" s="1" t="s">
+        <v>216</v>
+      </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
@@ -8517,7 +9162,7 @@
       <c r="A27" s="5" t="s">
         <v>440</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B27" s="1" t="s">
         <v>216</v>
       </c>
     </row>
@@ -8525,9 +9170,12 @@
       <c r="A28" s="5" t="s">
         <v>453</v>
       </c>
+      <c r="B28" s="1" t="s">
+        <v>216</v>
+      </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" s="5" t="s">
+      <c r="A29" s="26" t="s">
         <v>454</v>
       </c>
       <c r="B29" s="1" t="s">
@@ -8623,7 +9271,7 @@
         <v>470</v>
       </c>
       <c r="B45" t="s">
-        <v>483</v>
+        <v>216</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
@@ -8656,15 +9304,15 @@
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" s="5" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" s="5" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="B52" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
   </sheetData>
@@ -8702,6 +9350,7 @@
     <hyperlink ref="A50" location="'Vanguard Warrior'!A1" display="Vanguard Warrior"/>
     <hyperlink ref="A52" location="'Phoenix (China)'!A1" display="Phoenix (China)"/>
     <hyperlink ref="A33" location="'Old Curse'!A1" display="Old Curse"/>
+    <hyperlink ref="A29" location="Commando!A1" display="Commando"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -8721,22 +9370,10 @@
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+      <selection activeCell="M22" sqref="M22:S23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8777,30 +9414,25 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>70</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="M3" s="8" t="s">
-        <v>290</v>
+        <v>579</v>
       </c>
       <c r="N3" s="9" t="s">
-        <v>302</v>
+        <v>588</v>
       </c>
       <c r="O3" s="9">
-        <f>60*B9</f>
-        <v>600</v>
+        <f>7*B9</f>
+        <v>70</v>
       </c>
       <c r="P3" t="s">
-        <v>303</v>
-      </c>
-      <c r="Q3" s="9">
-        <f>B9*6</f>
-        <v>60</v>
-      </c>
-      <c r="R3" s="9" t="s">
-        <v>301</v>
-      </c>
+        <v>587</v>
+      </c>
+      <c r="Q3" s="9"/>
+      <c r="R3" s="9"/>
       <c r="S3" s="9"/>
     </row>
     <row r="4" spans="1:19" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -8823,17 +9455,17 @@
         <v>11</v>
       </c>
       <c r="M4" s="7" t="s">
-        <v>291</v>
+        <v>580</v>
       </c>
       <c r="N4" s="9" t="s">
         <v>305</v>
       </c>
       <c r="O4" s="9">
-        <f>14*B9</f>
-        <v>140</v>
+        <f>10*B9</f>
+        <v>100</v>
       </c>
       <c r="P4" s="9" t="s">
-        <v>304</v>
+        <v>586</v>
       </c>
       <c r="Q4" s="9"/>
       <c r="R4" s="9"/>
@@ -8844,40 +9476,40 @@
         <v>4</v>
       </c>
       <c r="B5" s="17">
-        <v>0.8</v>
+        <v>1.575</v>
       </c>
       <c r="C5" s="17">
         <f>B5*2</f>
-        <v>1.6</v>
+        <v>3.15</v>
       </c>
       <c r="D5" s="17">
         <f>B5*3</f>
-        <v>2.4000000000000004</v>
+        <v>4.7249999999999996</v>
       </c>
       <c r="E5" s="17">
         <f>B5*4</f>
-        <v>3.2</v>
+        <v>6.3</v>
       </c>
       <c r="F5" s="17">
         <f>B5*5</f>
-        <v>4</v>
+        <v>7.875</v>
       </c>
       <c r="G5" s="17">
         <f>B5*6</f>
-        <v>4.8000000000000007</v>
+        <v>9.4499999999999993</v>
       </c>
       <c r="M5" s="19" t="s">
-        <v>292</v>
+        <v>581</v>
       </c>
       <c r="N5" s="9" t="s">
         <v>307</v>
       </c>
       <c r="O5" s="9">
-        <f>B9</f>
-        <v>10</v>
+        <f>B9*3</f>
+        <v>30</v>
       </c>
       <c r="P5" s="9" t="s">
-        <v>306</v>
+        <v>585</v>
       </c>
       <c r="Q5" s="9"/>
       <c r="R5" s="9"/>
@@ -8888,40 +9520,40 @@
         <v>5</v>
       </c>
       <c r="B6" s="17">
-        <v>0.8</v>
+        <v>0.52500000000000002</v>
       </c>
       <c r="C6" s="17">
         <f t="shared" ref="C6:C7" si="0">B6*2</f>
-        <v>1.6</v>
+        <v>1.05</v>
       </c>
       <c r="D6" s="17">
         <f t="shared" ref="D6:D7" si="1">B6*3</f>
-        <v>2.4000000000000004</v>
+        <v>1.5750000000000002</v>
       </c>
       <c r="E6" s="17">
         <f t="shared" ref="E6:E7" si="2">B6*4</f>
-        <v>3.2</v>
+        <v>2.1</v>
       </c>
       <c r="F6" s="17">
         <f t="shared" ref="F6:F7" si="3">B6*5</f>
-        <v>4</v>
+        <v>2.625</v>
       </c>
       <c r="G6" s="17">
         <f t="shared" ref="G6:G7" si="4">B6*6</f>
-        <v>4.8000000000000007</v>
+        <v>3.1500000000000004</v>
       </c>
       <c r="M6" s="18" t="s">
-        <v>293</v>
+        <v>582</v>
       </c>
       <c r="N6" s="9" t="s">
-        <v>309</v>
+        <v>583</v>
       </c>
       <c r="O6" s="9">
-        <f>2*B9</f>
-        <v>20</v>
+        <f>8*B9</f>
+        <v>80</v>
       </c>
       <c r="P6" s="9" t="s">
-        <v>308</v>
+        <v>584</v>
       </c>
       <c r="Q6" s="9"/>
       <c r="R6" s="9"/>
@@ -8932,27 +9564,27 @@
         <v>6</v>
       </c>
       <c r="B7" s="17">
-        <v>1.4</v>
+        <v>1.2749999999999999</v>
       </c>
       <c r="C7" s="17">
         <f t="shared" si="0"/>
-        <v>2.8</v>
+        <v>2.5499999999999998</v>
       </c>
       <c r="D7" s="17">
         <f t="shared" si="1"/>
-        <v>4.1999999999999993</v>
+        <v>3.8249999999999997</v>
       </c>
       <c r="E7" s="17">
         <f t="shared" si="2"/>
-        <v>5.6</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="F7" s="17">
         <f t="shared" si="3"/>
-        <v>7</v>
+        <v>6.375</v>
       </c>
       <c r="G7" s="17">
         <f t="shared" si="4"/>
-        <v>8.3999999999999986</v>
+        <v>7.6499999999999995</v>
       </c>
     </row>
     <row r="8" spans="1:19" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
@@ -9025,10 +9657,10 @@
         <v>33</v>
       </c>
       <c r="R12" s="9" t="s">
-        <v>74</v>
+        <v>32</v>
       </c>
       <c r="S12" s="9" t="s">
-        <v>126</v>
+        <v>31</v>
       </c>
     </row>
     <row r="13" spans="1:19" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -9036,36 +9668,36 @@
         <v>12</v>
       </c>
       <c r="B13" s="9">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="C13" s="9">
         <f>B13+$B$9*($B$10+1)*B5</f>
-        <v>45</v>
+        <v>83</v>
       </c>
       <c r="D13" s="9">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="E13" s="9">
-        <v>45</v>
+        <v>83</v>
       </c>
       <c r="F13" s="9"/>
       <c r="M13" s="7" t="s">
         <v>47</v>
       </c>
       <c r="N13" s="9" t="s">
-        <v>294</v>
+        <v>189</v>
       </c>
       <c r="O13" s="9" t="s">
-        <v>294</v>
+        <v>58</v>
       </c>
       <c r="P13" s="9" t="s">
-        <v>190</v>
+        <v>56</v>
       </c>
       <c r="Q13" s="9" t="s">
-        <v>75</v>
+        <v>56</v>
       </c>
       <c r="R13" s="9" t="s">
-        <v>156</v>
+        <v>29</v>
       </c>
       <c r="S13" s="9" t="s">
         <v>59</v>
@@ -9076,39 +9708,39 @@
         <v>13</v>
       </c>
       <c r="B14" s="9">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C14" s="9">
         <f>B14+$B$9*($B$10+1)*B6</f>
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="D14" s="9">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E14" s="9">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="F14" s="9"/>
       <c r="M14" s="7" t="s">
         <v>48</v>
       </c>
       <c r="N14" s="9" t="s">
-        <v>192</v>
+        <v>334</v>
       </c>
       <c r="O14" s="9" t="s">
-        <v>153</v>
+        <v>140</v>
       </c>
       <c r="P14" s="9" t="s">
-        <v>295</v>
+        <v>61</v>
       </c>
       <c r="Q14" s="9" t="s">
-        <v>190</v>
+        <v>147</v>
       </c>
       <c r="R14" s="9" t="s">
-        <v>156</v>
+        <v>249</v>
       </c>
       <c r="S14" s="9" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
     </row>
     <row r="15" spans="1:19" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -9116,39 +9748,39 @@
         <v>1</v>
       </c>
       <c r="B15" s="9">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C15" s="9">
         <f>B15+$B$9*($B$10+1)*B7</f>
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="D15" s="9">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E15" s="9">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="F15" s="9"/>
       <c r="M15" s="19" t="s">
         <v>49</v>
       </c>
       <c r="N15" s="9" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="O15" s="9" t="s">
-        <v>153</v>
+        <v>448</v>
       </c>
       <c r="P15" s="9" t="s">
-        <v>296</v>
+        <v>68</v>
       </c>
       <c r="Q15" s="9" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="R15" s="9" t="s">
-        <v>294</v>
+        <v>368</v>
       </c>
       <c r="S15" s="9" t="s">
-        <v>69</v>
+        <v>104</v>
       </c>
     </row>
     <row r="16" spans="1:19" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -9156,39 +9788,39 @@
         <v>14</v>
       </c>
       <c r="B16" s="9">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="C16" s="9">
         <f>ROUNDDOWN(B16+C13*Common!$B$1,0)</f>
-        <v>982</v>
+        <v>1669</v>
       </c>
       <c r="D16" s="9">
-        <v>464</v>
+        <v>648</v>
       </c>
       <c r="E16" s="9">
-        <v>982</v>
+        <v>1669</v>
       </c>
       <c r="F16" s="9"/>
       <c r="M16" s="19" t="s">
         <v>50</v>
       </c>
       <c r="N16" s="9" t="s">
+        <v>299</v>
+      </c>
+      <c r="O16" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="P16" s="9" t="s">
         <v>110</v>
       </c>
-      <c r="O16" s="9" t="s">
-        <v>193</v>
-      </c>
-      <c r="P16" s="9" t="s">
-        <v>153</v>
-      </c>
       <c r="Q16" s="9" t="s">
-        <v>65</v>
+        <v>369</v>
       </c>
       <c r="R16" s="9" t="s">
-        <v>294</v>
+        <v>63</v>
       </c>
       <c r="S16" s="9" t="s">
-        <v>69</v>
+        <v>104</v>
       </c>
     </row>
     <row r="17" spans="1:19" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -9196,39 +9828,39 @@
         <v>15</v>
       </c>
       <c r="B17" s="9">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C17" s="9">
         <f>ROUND(B17+C15+C15*Common!$B$2,0)</f>
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="D17" s="9">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E17" s="9">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="F17" s="9"/>
       <c r="M17" s="19" t="s">
         <v>51</v>
       </c>
       <c r="N17" s="9" t="s">
-        <v>161</v>
+        <v>194</v>
       </c>
       <c r="O17" s="9" t="s">
-        <v>151</v>
+        <v>110</v>
       </c>
       <c r="P17" s="9" t="s">
-        <v>196</v>
+        <v>105</v>
       </c>
       <c r="Q17" s="9" t="s">
-        <v>62</v>
+        <v>337</v>
       </c>
       <c r="R17" s="9" t="s">
-        <v>156</v>
+        <v>112</v>
       </c>
       <c r="S17" s="9" t="s">
-        <v>69</v>
+        <v>104</v>
       </c>
     </row>
     <row r="18" spans="1:19" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -9240,35 +9872,35 @@
       </c>
       <c r="C18" s="9">
         <f>ROUND(B18+C14*Common!$B$3,0)</f>
-        <v>110</v>
+        <v>86</v>
       </c>
       <c r="D18" s="9">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E18" s="9">
-        <v>111</v>
+        <v>85</v>
       </c>
       <c r="F18" s="9"/>
       <c r="M18" s="18" t="s">
         <v>52</v>
       </c>
       <c r="N18" s="9" t="s">
-        <v>188</v>
+        <v>109</v>
       </c>
       <c r="O18" s="9" t="s">
-        <v>144</v>
+        <v>534</v>
       </c>
       <c r="P18" s="9" t="s">
-        <v>105</v>
+        <v>68</v>
       </c>
       <c r="Q18" s="9" t="s">
-        <v>61</v>
+        <v>103</v>
       </c>
       <c r="R18" s="9" t="s">
-        <v>56</v>
+        <v>140</v>
       </c>
       <c r="S18" s="9" t="s">
-        <v>114</v>
+        <v>450</v>
       </c>
     </row>
     <row r="19" spans="1:19" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -9276,17 +9908,17 @@
         <v>17</v>
       </c>
       <c r="B19" s="12">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C19" s="13">
         <f>B19+ROUND(C13/7,0)+ROUND(C15/14,0)</f>
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="D19" s="13">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="E19" s="13">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="F19" s="13"/>
       <c r="G19" s="3"/>
@@ -9296,22 +9928,22 @@
         <v>53</v>
       </c>
       <c r="N19" s="9" t="s">
-        <v>200</v>
+        <v>115</v>
       </c>
       <c r="O19" s="9" t="s">
-        <v>297</v>
+        <v>106</v>
       </c>
       <c r="P19" s="9" t="s">
         <v>110</v>
       </c>
       <c r="Q19" s="9" t="s">
-        <v>190</v>
+        <v>448</v>
       </c>
       <c r="R19" s="9" t="s">
-        <v>56</v>
+        <v>147</v>
       </c>
       <c r="S19" s="9" t="s">
-        <v>114</v>
+        <v>450</v>
       </c>
     </row>
     <row r="20" spans="1:19" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -9323,35 +9955,35 @@
       </c>
       <c r="C20" s="9">
         <f>ROUND(C14*Common!$B$4,0)</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D20" s="9">
         <v>2</v>
       </c>
       <c r="E20" s="9">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F20" s="9"/>
       <c r="M20" s="18" t="s">
         <v>118</v>
       </c>
       <c r="N20" s="9" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="O20" s="9" t="s">
-        <v>148</v>
+        <v>116</v>
       </c>
       <c r="P20" s="9" t="s">
-        <v>299</v>
+        <v>100</v>
       </c>
       <c r="Q20" s="9" t="s">
-        <v>97</v>
+        <v>196</v>
       </c>
       <c r="R20" s="9" t="s">
-        <v>112</v>
+        <v>334</v>
       </c>
       <c r="S20" s="9" t="s">
-        <v>114</v>
+        <v>450</v>
       </c>
     </row>
     <row r="21" spans="1:19" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -9363,38 +9995,83 @@
       </c>
       <c r="C21" s="9">
         <f>C15*Common!$B$5</f>
-        <v>30</v>
+        <v>26.8</v>
       </c>
       <c r="D21" s="9">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E21" s="9">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F21" s="9"/>
       <c r="M21" s="18" t="s">
         <v>119</v>
       </c>
       <c r="N21" s="9" t="s">
-        <v>300</v>
+        <v>115</v>
       </c>
       <c r="O21" s="9" t="s">
-        <v>123</v>
+        <v>200</v>
       </c>
       <c r="P21" s="9" t="s">
-        <v>194</v>
+        <v>534</v>
       </c>
       <c r="Q21" s="9" t="s">
         <v>110</v>
       </c>
       <c r="R21" s="9" t="s">
-        <v>192</v>
+        <v>68</v>
       </c>
       <c r="S21" s="9" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="22" spans="1:19" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+        <v>450</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="M22" s="18" t="s">
+        <v>589</v>
+      </c>
+      <c r="N22" s="9" t="s">
+        <v>608</v>
+      </c>
+      <c r="O22" s="9" t="s">
+        <v>628</v>
+      </c>
+      <c r="P22" s="23" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q22" s="9" t="s">
+        <v>300</v>
+      </c>
+      <c r="R22" s="23" t="s">
+        <v>611</v>
+      </c>
+      <c r="S22" s="9" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="M23" s="25" t="s">
+        <v>590</v>
+      </c>
+      <c r="N23" s="9" t="s">
+        <v>594</v>
+      </c>
+      <c r="O23" s="9" t="s">
+        <v>612</v>
+      </c>
+      <c r="P23" s="9" t="s">
+        <v>613</v>
+      </c>
+      <c r="Q23" s="9" t="s">
+        <v>194</v>
+      </c>
+      <c r="R23" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="S23" s="9" t="s">
+        <v>593</v>
+      </c>
+    </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A24" s="21" t="s">
         <v>264</v>
@@ -9405,12 +10082,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S31"/>
+  <dimension ref="A1:S24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+      <selection activeCell="M22" sqref="M22:S23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9440,6 +10117,725 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="M1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M3" s="8" t="s">
+        <v>290</v>
+      </c>
+      <c r="N3" s="9" t="s">
+        <v>302</v>
+      </c>
+      <c r="O3" s="9">
+        <f>60*B9</f>
+        <v>600</v>
+      </c>
+      <c r="P3" t="s">
+        <v>303</v>
+      </c>
+      <c r="Q3" s="9">
+        <f>B9*6</f>
+        <v>60</v>
+      </c>
+      <c r="R3" s="9" t="s">
+        <v>301</v>
+      </c>
+      <c r="S3" s="9"/>
+    </row>
+    <row r="4" spans="1:19" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="M4" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="N4" s="9" t="s">
+        <v>305</v>
+      </c>
+      <c r="O4" s="9">
+        <f>14*B9</f>
+        <v>140</v>
+      </c>
+      <c r="P4" s="9" t="s">
+        <v>304</v>
+      </c>
+      <c r="Q4" s="9"/>
+      <c r="R4" s="9"/>
+      <c r="S4" s="9"/>
+    </row>
+    <row r="5" spans="1:19" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="17">
+        <v>0.8</v>
+      </c>
+      <c r="C5" s="17">
+        <f>B5*2</f>
+        <v>1.6</v>
+      </c>
+      <c r="D5" s="17">
+        <f>B5*3</f>
+        <v>2.4000000000000004</v>
+      </c>
+      <c r="E5" s="17">
+        <f>B5*4</f>
+        <v>3.2</v>
+      </c>
+      <c r="F5" s="17">
+        <f>B5*5</f>
+        <v>4</v>
+      </c>
+      <c r="G5" s="17">
+        <f>B5*6</f>
+        <v>4.8000000000000007</v>
+      </c>
+      <c r="M5" s="19" t="s">
+        <v>292</v>
+      </c>
+      <c r="N5" s="9" t="s">
+        <v>307</v>
+      </c>
+      <c r="O5" s="9">
+        <f>B9</f>
+        <v>10</v>
+      </c>
+      <c r="P5" s="9" t="s">
+        <v>306</v>
+      </c>
+      <c r="Q5" s="9"/>
+      <c r="R5" s="9"/>
+      <c r="S5" s="9"/>
+    </row>
+    <row r="6" spans="1:19" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="17">
+        <v>0.8</v>
+      </c>
+      <c r="C6" s="17">
+        <f t="shared" ref="C6:C7" si="0">B6*2</f>
+        <v>1.6</v>
+      </c>
+      <c r="D6" s="17">
+        <f t="shared" ref="D6:D7" si="1">B6*3</f>
+        <v>2.4000000000000004</v>
+      </c>
+      <c r="E6" s="17">
+        <f t="shared" ref="E6:E7" si="2">B6*4</f>
+        <v>3.2</v>
+      </c>
+      <c r="F6" s="17">
+        <f t="shared" ref="F6:F7" si="3">B6*5</f>
+        <v>4</v>
+      </c>
+      <c r="G6" s="17">
+        <f t="shared" ref="G6:G7" si="4">B6*6</f>
+        <v>4.8000000000000007</v>
+      </c>
+      <c r="M6" s="18" t="s">
+        <v>293</v>
+      </c>
+      <c r="N6" s="9" t="s">
+        <v>309</v>
+      </c>
+      <c r="O6" s="9">
+        <f>2*B9</f>
+        <v>20</v>
+      </c>
+      <c r="P6" s="9" t="s">
+        <v>308</v>
+      </c>
+      <c r="Q6" s="9"/>
+      <c r="R6" s="9"/>
+      <c r="S6" s="9"/>
+    </row>
+    <row r="7" spans="1:19" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="17">
+        <v>1.4</v>
+      </c>
+      <c r="C7" s="17">
+        <f t="shared" si="0"/>
+        <v>2.8</v>
+      </c>
+      <c r="D7" s="17">
+        <f t="shared" si="1"/>
+        <v>4.1999999999999993</v>
+      </c>
+      <c r="E7" s="17">
+        <f t="shared" si="2"/>
+        <v>5.6</v>
+      </c>
+      <c r="F7" s="17">
+        <f t="shared" si="3"/>
+        <v>7</v>
+      </c>
+      <c r="G7" s="17">
+        <f t="shared" si="4"/>
+        <v>8.3999999999999986</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>35</v>
+      </c>
+      <c r="B9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>36</v>
+      </c>
+      <c r="B10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M11" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="N11" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="O11" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="P11" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q11" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="R11" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="S11" s="10" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="D12" s="10">
+        <v>1</v>
+      </c>
+      <c r="E12" s="10">
+        <v>10</v>
+      </c>
+      <c r="F12" s="10"/>
+      <c r="M12" t="s">
+        <v>235</v>
+      </c>
+      <c r="N12" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="O12" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="P12" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q12" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="R12" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="S12" s="9" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" s="9">
+        <v>13</v>
+      </c>
+      <c r="C13" s="9">
+        <f>B13+$B$9*($B$10+1)*B5</f>
+        <v>45</v>
+      </c>
+      <c r="D13" s="9">
+        <v>17</v>
+      </c>
+      <c r="E13" s="9">
+        <v>45</v>
+      </c>
+      <c r="F13" s="9"/>
+      <c r="M13" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="N13" s="9" t="s">
+        <v>294</v>
+      </c>
+      <c r="O13" s="9" t="s">
+        <v>294</v>
+      </c>
+      <c r="P13" s="9" t="s">
+        <v>190</v>
+      </c>
+      <c r="Q13" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="R13" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="S13" s="9" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" s="9">
+        <v>14</v>
+      </c>
+      <c r="C14" s="9">
+        <f>B14+$B$9*($B$10+1)*B6</f>
+        <v>46</v>
+      </c>
+      <c r="D14" s="9">
+        <v>18</v>
+      </c>
+      <c r="E14" s="9">
+        <v>46</v>
+      </c>
+      <c r="F14" s="9"/>
+      <c r="M14" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="N14" s="9" t="s">
+        <v>192</v>
+      </c>
+      <c r="O14" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="P14" s="9" t="s">
+        <v>295</v>
+      </c>
+      <c r="Q14" s="9" t="s">
+        <v>190</v>
+      </c>
+      <c r="R14" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="S14" s="9" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B15" s="9">
+        <v>19</v>
+      </c>
+      <c r="C15" s="9">
+        <f>B15+$B$9*($B$10+1)*B7</f>
+        <v>75</v>
+      </c>
+      <c r="D15" s="9">
+        <v>25</v>
+      </c>
+      <c r="E15" s="9">
+        <v>75</v>
+      </c>
+      <c r="F15" s="9"/>
+      <c r="M15" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="N15" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="O15" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="P15" s="9" t="s">
+        <v>296</v>
+      </c>
+      <c r="Q15" s="9" t="s">
+        <v>190</v>
+      </c>
+      <c r="R15" s="9" t="s">
+        <v>294</v>
+      </c>
+      <c r="S15" s="9" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16" s="9">
+        <v>172</v>
+      </c>
+      <c r="C16" s="9">
+        <f>ROUNDDOWN(B16+C13*Common!$B$1,0)</f>
+        <v>982</v>
+      </c>
+      <c r="D16" s="9">
+        <v>464</v>
+      </c>
+      <c r="E16" s="9">
+        <v>982</v>
+      </c>
+      <c r="F16" s="9"/>
+      <c r="M16" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="N16" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="O16" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="P16" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="Q16" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="R16" s="9" t="s">
+        <v>294</v>
+      </c>
+      <c r="S16" s="9" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17" s="9">
+        <v>9</v>
+      </c>
+      <c r="C17" s="9">
+        <f>ROUND(B17+C15+C15*Common!$B$2,0)</f>
+        <v>114</v>
+      </c>
+      <c r="D17" s="9">
+        <v>44</v>
+      </c>
+      <c r="E17" s="9">
+        <v>114</v>
+      </c>
+      <c r="F17" s="9"/>
+      <c r="M17" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="N17" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="O17" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="P17" s="9" t="s">
+        <v>196</v>
+      </c>
+      <c r="Q17" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="R17" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="S17" s="9" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18" s="9">
+        <v>0</v>
+      </c>
+      <c r="C18" s="9">
+        <f>ROUND(B18+C14*Common!$B$3,0)</f>
+        <v>110</v>
+      </c>
+      <c r="D18" s="9">
+        <v>42</v>
+      </c>
+      <c r="E18" s="9">
+        <v>111</v>
+      </c>
+      <c r="F18" s="9"/>
+      <c r="M18" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="N18" s="9" t="s">
+        <v>188</v>
+      </c>
+      <c r="O18" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="P18" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q18" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="R18" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="S18" s="9" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19" s="12">
+        <v>0</v>
+      </c>
+      <c r="C19" s="13">
+        <f>B19+ROUND(C13/7,0)+ROUND(C15/14,0)</f>
+        <v>11</v>
+      </c>
+      <c r="D19" s="13">
+        <v>3</v>
+      </c>
+      <c r="E19" s="13">
+        <v>12</v>
+      </c>
+      <c r="F19" s="13"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+      <c r="M19" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="N19" s="9" t="s">
+        <v>200</v>
+      </c>
+      <c r="O19" s="9" t="s">
+        <v>297</v>
+      </c>
+      <c r="P19" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q19" s="9" t="s">
+        <v>190</v>
+      </c>
+      <c r="R19" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="S19" s="9" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B20" s="9">
+        <v>0</v>
+      </c>
+      <c r="C20" s="9">
+        <f>ROUND(C14*Common!$B$4,0)</f>
+        <v>5</v>
+      </c>
+      <c r="D20" s="9">
+        <v>2</v>
+      </c>
+      <c r="E20" s="9">
+        <v>5</v>
+      </c>
+      <c r="F20" s="9"/>
+      <c r="M20" s="18" t="s">
+        <v>118</v>
+      </c>
+      <c r="N20" s="9" t="s">
+        <v>298</v>
+      </c>
+      <c r="O20" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="P20" s="9" t="s">
+        <v>299</v>
+      </c>
+      <c r="Q20" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="R20" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="S20" s="9" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B21" s="9">
+        <v>0</v>
+      </c>
+      <c r="C21" s="9">
+        <f>C15*Common!$B$5</f>
+        <v>30</v>
+      </c>
+      <c r="D21" s="9">
+        <v>10</v>
+      </c>
+      <c r="E21" s="9">
+        <v>30</v>
+      </c>
+      <c r="F21" s="9"/>
+      <c r="M21" s="18" t="s">
+        <v>119</v>
+      </c>
+      <c r="N21" s="9" t="s">
+        <v>300</v>
+      </c>
+      <c r="O21" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="P21" s="9" t="s">
+        <v>194</v>
+      </c>
+      <c r="Q21" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="R21" s="9" t="s">
+        <v>192</v>
+      </c>
+      <c r="S21" s="9" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="M22" s="18" t="s">
+        <v>589</v>
+      </c>
+      <c r="N22" s="9" t="s">
+        <v>614</v>
+      </c>
+      <c r="O22" s="9" t="s">
+        <v>609</v>
+      </c>
+      <c r="P22" s="23" t="s">
+        <v>625</v>
+      </c>
+      <c r="Q22" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="R22" s="23" t="s">
+        <v>116</v>
+      </c>
+      <c r="S22" s="9" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="M23" s="25" t="s">
+        <v>590</v>
+      </c>
+      <c r="N23" s="9" t="s">
+        <v>594</v>
+      </c>
+      <c r="O23" s="9" t="s">
+        <v>612</v>
+      </c>
+      <c r="P23" s="9" t="s">
+        <v>626</v>
+      </c>
+      <c r="Q23" s="9" t="s">
+        <v>627</v>
+      </c>
+      <c r="R23" s="9" t="s">
+        <v>297</v>
+      </c>
+      <c r="S23" s="9" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A24" s="21" t="s">
+        <v>264</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:S31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M22" sqref="M22:S23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14" customWidth="1"/>
+    <col min="2" max="2" width="9" customWidth="1"/>
+    <col min="3" max="3" width="11.28515625" customWidth="1"/>
+    <col min="4" max="4" width="8.28515625" customWidth="1"/>
+    <col min="5" max="5" width="9.42578125" customWidth="1"/>
+    <col min="6" max="6" width="10.140625" customWidth="1"/>
+    <col min="7" max="7" width="11.5703125" customWidth="1"/>
+    <col min="8" max="8" width="6.85546875" customWidth="1"/>
+    <col min="9" max="9" width="9" customWidth="1"/>
+    <col min="10" max="10" width="10" customWidth="1"/>
+    <col min="12" max="12" width="8.140625" customWidth="1"/>
+    <col min="13" max="13" width="19.85546875" customWidth="1"/>
+    <col min="14" max="14" width="19.140625" customWidth="1"/>
+    <col min="15" max="15" width="16.7109375" customWidth="1"/>
+    <col min="16" max="16" width="12.28515625" customWidth="1"/>
+    <col min="17" max="17" width="13.5703125" customWidth="1"/>
+    <col min="18" max="18" width="16" customWidth="1"/>
+    <col min="19" max="19" width="17.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
         <v>71</v>
       </c>
       <c r="M1" t="s">
@@ -10058,7 +11454,52 @@
         <v>114</v>
       </c>
     </row>
-    <row r="22" spans="1:19" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="22" spans="1:19" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="M22" s="18" t="s">
+        <v>589</v>
+      </c>
+      <c r="N22" s="9" t="s">
+        <v>591</v>
+      </c>
+      <c r="O22" s="9" t="s">
+        <v>600</v>
+      </c>
+      <c r="P22" s="23" t="s">
+        <v>149</v>
+      </c>
+      <c r="Q22" s="9" t="s">
+        <v>603</v>
+      </c>
+      <c r="R22" s="23" t="s">
+        <v>619</v>
+      </c>
+      <c r="S22" s="9" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="M23" s="25" t="s">
+        <v>590</v>
+      </c>
+      <c r="N23" s="9" t="s">
+        <v>594</v>
+      </c>
+      <c r="O23" s="9" t="s">
+        <v>606</v>
+      </c>
+      <c r="P23" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="Q23" s="9" t="s">
+        <v>186</v>
+      </c>
+      <c r="R23" s="9" t="s">
+        <v>604</v>
+      </c>
+      <c r="S23" s="9" t="s">
+        <v>593</v>
+      </c>
+    </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A24" s="21" t="s">
         <v>264</v>
@@ -10086,10 +11527,10 @@
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S22"/>
+  <dimension ref="A1:S23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O3" sqref="O3"/>
+      <selection activeCell="M22" sqref="M22:S23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10767,7 +12208,52 @@
         <v>252</v>
       </c>
     </row>
-    <row r="22" spans="1:19" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="22" spans="1:19" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="M22" s="18" t="s">
+        <v>589</v>
+      </c>
+      <c r="N22" s="9" t="s">
+        <v>605</v>
+      </c>
+      <c r="O22" s="9" t="s">
+        <v>600</v>
+      </c>
+      <c r="P22" s="9" t="s">
+        <v>603</v>
+      </c>
+      <c r="Q22" s="9" t="s">
+        <v>601</v>
+      </c>
+      <c r="R22" s="23" t="s">
+        <v>619</v>
+      </c>
+      <c r="S22" s="9" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="M23" s="25" t="s">
+        <v>590</v>
+      </c>
+      <c r="N23" s="9" t="s">
+        <v>594</v>
+      </c>
+      <c r="O23" s="9" t="s">
+        <v>602</v>
+      </c>
+      <c r="P23" s="9" t="s">
+        <v>624</v>
+      </c>
+      <c r="Q23" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="R23" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="S23" s="9" t="s">
+        <v>593</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -10778,7 +12264,7 @@
   <dimension ref="A1:S24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K30" sqref="A1:XFD1048576"/>
+      <selection activeCell="M22" sqref="M22:S23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11450,7 +12936,52 @@
         <v>114</v>
       </c>
     </row>
-    <row r="22" spans="1:19" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="22" spans="1:19" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="M22" s="18" t="s">
+        <v>589</v>
+      </c>
+      <c r="N22" s="9" t="s">
+        <v>591</v>
+      </c>
+      <c r="O22" s="9" t="s">
+        <v>592</v>
+      </c>
+      <c r="P22" s="9" t="s">
+        <v>623</v>
+      </c>
+      <c r="Q22" s="9" t="s">
+        <v>601</v>
+      </c>
+      <c r="R22" s="23" t="s">
+        <v>121</v>
+      </c>
+      <c r="S22" s="9" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="M23" s="25" t="s">
+        <v>590</v>
+      </c>
+      <c r="N23" s="9" t="s">
+        <v>594</v>
+      </c>
+      <c r="O23" s="9" t="s">
+        <v>595</v>
+      </c>
+      <c r="P23" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q23" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="R23" s="9" t="s">
+        <v>340</v>
+      </c>
+      <c r="S23" s="9" t="s">
+        <v>593</v>
+      </c>
+    </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A24" s="21" t="s">
         <v>264</v>
@@ -11466,7 +12997,7 @@
   <dimension ref="A1:S24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+      <selection activeCell="M22" sqref="M22:S23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12115,7 +13646,52 @@
         <v>114</v>
       </c>
     </row>
-    <row r="22" spans="1:19" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="22" spans="1:19" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="M22" s="18" t="s">
+        <v>589</v>
+      </c>
+      <c r="N22" s="9" t="s">
+        <v>605</v>
+      </c>
+      <c r="O22" s="9" t="s">
+        <v>600</v>
+      </c>
+      <c r="P22" s="9" t="s">
+        <v>603</v>
+      </c>
+      <c r="Q22" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="R22" s="23" t="s">
+        <v>361</v>
+      </c>
+      <c r="S22" s="9" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="M23" s="25" t="s">
+        <v>590</v>
+      </c>
+      <c r="N23" s="9" t="s">
+        <v>594</v>
+      </c>
+      <c r="O23" s="9" t="s">
+        <v>602</v>
+      </c>
+      <c r="P23" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q23" s="9" t="s">
+        <v>601</v>
+      </c>
+      <c r="R23" s="9" t="s">
+        <v>622</v>
+      </c>
+      <c r="S23" s="9" t="s">
+        <v>593</v>
+      </c>
+    </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A24" s="21" t="s">
         <v>264</v>
@@ -12130,9 +13706,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -12733,10 +14307,10 @@
 
 <file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S22"/>
+  <dimension ref="A1:S23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+      <selection activeCell="M22" sqref="M22:S23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13414,7 +14988,52 @@
         <v>114</v>
       </c>
     </row>
-    <row r="22" spans="1:19" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="22" spans="1:19" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="M22" s="18" t="s">
+        <v>589</v>
+      </c>
+      <c r="N22" s="9" t="s">
+        <v>591</v>
+      </c>
+      <c r="O22" s="9" t="s">
+        <v>592</v>
+      </c>
+      <c r="P22" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q22" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="R22" s="9" t="s">
+        <v>186</v>
+      </c>
+      <c r="S22" s="9" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="M23" s="25" t="s">
+        <v>590</v>
+      </c>
+      <c r="N23" s="9" t="s">
+        <v>594</v>
+      </c>
+      <c r="O23" s="9" t="s">
+        <v>595</v>
+      </c>
+      <c r="P23" s="9" t="s">
+        <v>596</v>
+      </c>
+      <c r="Q23" s="9" t="s">
+        <v>597</v>
+      </c>
+      <c r="R23" s="9" t="s">
+        <v>598</v>
+      </c>
+      <c r="S23" s="9" t="s">
+        <v>593</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -13426,7 +15045,7 @@
   <dimension ref="A1:S33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="M22" sqref="M22:S23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14070,7 +15689,52 @@
         <v>114</v>
       </c>
     </row>
-    <row r="22" spans="1:19" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="22" spans="1:19" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="M22" s="18" t="s">
+        <v>589</v>
+      </c>
+      <c r="N22" s="9" t="s">
+        <v>599</v>
+      </c>
+      <c r="O22" s="9" t="s">
+        <v>600</v>
+      </c>
+      <c r="P22" s="9" t="s">
+        <v>601</v>
+      </c>
+      <c r="Q22" s="9" t="s">
+        <v>186</v>
+      </c>
+      <c r="R22" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="S22" s="9" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="M23" s="25" t="s">
+        <v>590</v>
+      </c>
+      <c r="N23" s="9" t="s">
+        <v>594</v>
+      </c>
+      <c r="O23" s="9" t="s">
+        <v>602</v>
+      </c>
+      <c r="P23" s="9" t="s">
+        <v>603</v>
+      </c>
+      <c r="Q23" s="9" t="s">
+        <v>604</v>
+      </c>
+      <c r="R23" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="S23" s="9" t="s">
+        <v>593</v>
+      </c>
+    </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.25">
       <c r="I27">
         <v>150</v>
@@ -14220,7 +15884,7 @@
   <dimension ref="A1:S24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K30" sqref="K30"/>
+      <selection activeCell="M22" sqref="M22:S23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14498,10 +16162,10 @@
         <v>58</v>
       </c>
       <c r="P13" s="9" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="Q13" s="9" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="R13" s="9" t="s">
         <v>75</v>
@@ -14603,7 +16267,7 @@
         <v>50</v>
       </c>
       <c r="N16" s="9" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="O16" s="9" t="s">
         <v>183</v>
@@ -14615,7 +16279,7 @@
         <v>65</v>
       </c>
       <c r="R16" s="9" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="S16" s="9" t="s">
         <v>136</v>
@@ -14652,7 +16316,7 @@
         <v>131</v>
       </c>
       <c r="R17" s="9" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="S17" s="9" t="s">
         <v>136</v>
@@ -14726,7 +16390,7 @@
         <v>250</v>
       </c>
       <c r="R19" s="9" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="S19" s="9" t="s">
         <v>114</v>
@@ -14763,7 +16427,7 @@
         <v>247</v>
       </c>
       <c r="R20" s="9" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="S20" s="9" t="s">
         <v>114</v>
@@ -14806,7 +16470,52 @@
         <v>114</v>
       </c>
     </row>
-    <row r="22" spans="1:19" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="22" spans="1:19" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="M22" s="18" t="s">
+        <v>589</v>
+      </c>
+      <c r="N22" s="9" t="s">
+        <v>605</v>
+      </c>
+      <c r="O22" s="9" t="s">
+        <v>635</v>
+      </c>
+      <c r="P22" s="23" t="s">
+        <v>601</v>
+      </c>
+      <c r="Q22" s="9" t="s">
+        <v>366</v>
+      </c>
+      <c r="R22" s="23" t="s">
+        <v>603</v>
+      </c>
+      <c r="S22" s="9" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="M23" s="25" t="s">
+        <v>590</v>
+      </c>
+      <c r="N23" s="9" t="s">
+        <v>594</v>
+      </c>
+      <c r="O23" s="9" t="s">
+        <v>606</v>
+      </c>
+      <c r="P23" s="9" t="s">
+        <v>597</v>
+      </c>
+      <c r="Q23" s="9" t="s">
+        <v>361</v>
+      </c>
+      <c r="R23" s="9" t="s">
+        <v>186</v>
+      </c>
+      <c r="S23" s="9" t="s">
+        <v>593</v>
+      </c>
+    </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A24" s="21" t="s">
         <v>264</v>
@@ -14822,7 +16531,7 @@
   <dimension ref="A1:S26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I29" sqref="I29"/>
+      <selection activeCell="M22" sqref="M22:S23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15492,7 +17201,52 @@
         <v>114</v>
       </c>
     </row>
-    <row r="22" spans="1:19" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="22" spans="1:19" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="M22" s="18" t="s">
+        <v>589</v>
+      </c>
+      <c r="N22" s="9" t="s">
+        <v>605</v>
+      </c>
+      <c r="O22" s="9" t="s">
+        <v>600</v>
+      </c>
+      <c r="P22" s="9" t="s">
+        <v>603</v>
+      </c>
+      <c r="Q22" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="R22" s="23" t="s">
+        <v>149</v>
+      </c>
+      <c r="S22" s="9" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="M23" s="25" t="s">
+        <v>590</v>
+      </c>
+      <c r="N23" s="9" t="s">
+        <v>594</v>
+      </c>
+      <c r="O23" s="9" t="s">
+        <v>602</v>
+      </c>
+      <c r="P23" s="9" t="s">
+        <v>619</v>
+      </c>
+      <c r="Q23" s="9" t="s">
+        <v>621</v>
+      </c>
+      <c r="R23" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="S23" s="9" t="s">
+        <v>593</v>
+      </c>
+    </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A25" s="21" t="s">
         <v>264</v>
@@ -15510,10 +17264,10 @@
 
 <file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S22"/>
+  <dimension ref="A1:S23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+      <selection activeCell="M22" sqref="M22:S23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16161,7 +17915,52 @@
         <v>157</v>
       </c>
     </row>
-    <row r="22" spans="1:19" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="22" spans="1:19" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="M22" s="18" t="s">
+        <v>589</v>
+      </c>
+      <c r="N22" s="9" t="s">
+        <v>605</v>
+      </c>
+      <c r="O22" s="9" t="s">
+        <v>600</v>
+      </c>
+      <c r="P22" s="9" t="s">
+        <v>601</v>
+      </c>
+      <c r="Q22" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="R22" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="S22" s="9" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="M23" s="25" t="s">
+        <v>590</v>
+      </c>
+      <c r="N23" s="9" t="s">
+        <v>594</v>
+      </c>
+      <c r="O23" s="9" t="s">
+        <v>606</v>
+      </c>
+      <c r="P23" s="9" t="s">
+        <v>603</v>
+      </c>
+      <c r="Q23" s="9" t="s">
+        <v>607</v>
+      </c>
+      <c r="R23" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="S23" s="9" t="s">
+        <v>593</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -16169,10 +17968,10 @@
 
 <file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S22"/>
+  <dimension ref="A1:S23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N6" sqref="N6:S6"/>
+      <selection activeCell="M22" sqref="M22:S23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16830,7 +18629,52 @@
         <v>114</v>
       </c>
     </row>
-    <row r="22" spans="1:19" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="22" spans="1:19" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="M22" s="18" t="s">
+        <v>589</v>
+      </c>
+      <c r="N22" s="9" t="s">
+        <v>605</v>
+      </c>
+      <c r="O22" s="9" t="s">
+        <v>600</v>
+      </c>
+      <c r="P22" s="9" t="s">
+        <v>603</v>
+      </c>
+      <c r="Q22" s="9" t="s">
+        <v>618</v>
+      </c>
+      <c r="R22" s="23" t="s">
+        <v>144</v>
+      </c>
+      <c r="S22" s="9" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="M23" s="25" t="s">
+        <v>590</v>
+      </c>
+      <c r="N23" s="9" t="s">
+        <v>594</v>
+      </c>
+      <c r="O23" s="9" t="s">
+        <v>620</v>
+      </c>
+      <c r="P23" s="9" t="s">
+        <v>619</v>
+      </c>
+      <c r="Q23" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="R23" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="S23" s="9" t="s">
+        <v>593</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -16841,7 +18685,7 @@
   <dimension ref="A1:S60"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="M22" sqref="M22:S23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16863,6 +18707,7 @@
     <col min="16" max="16" width="12.28515625" customWidth="1"/>
     <col min="17" max="17" width="13.5703125" customWidth="1"/>
     <col min="18" max="18" width="16" customWidth="1"/>
+    <col min="19" max="19" width="19.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.25">
@@ -17527,7 +19372,52 @@
         <v>114</v>
       </c>
     </row>
-    <row r="22" spans="1:19" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="22" spans="1:19" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="M22" s="18" t="s">
+        <v>589</v>
+      </c>
+      <c r="N22" s="9" t="s">
+        <v>608</v>
+      </c>
+      <c r="O22" s="9" t="s">
+        <v>609</v>
+      </c>
+      <c r="P22" s="9" t="s">
+        <v>610</v>
+      </c>
+      <c r="Q22" s="9" t="s">
+        <v>300</v>
+      </c>
+      <c r="R22" s="9" t="s">
+        <v>611</v>
+      </c>
+      <c r="S22" s="9" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="M23" s="25" t="s">
+        <v>590</v>
+      </c>
+      <c r="N23" s="9" t="s">
+        <v>594</v>
+      </c>
+      <c r="O23" s="9" t="s">
+        <v>612</v>
+      </c>
+      <c r="P23" s="9" t="s">
+        <v>613</v>
+      </c>
+      <c r="Q23" s="9" t="s">
+        <v>194</v>
+      </c>
+      <c r="R23" s="9" t="s">
+        <v>340</v>
+      </c>
+      <c r="S23" s="9" t="s">
+        <v>593</v>
+      </c>
+    </row>
     <row r="50" spans="1:19" x14ac:dyDescent="0.25">
       <c r="D50" t="s">
         <v>34</v>
@@ -17909,10 +19799,10 @@
 
 <file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S22"/>
+  <dimension ref="A1:S23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M1" sqref="M1:S21"/>
+      <selection activeCell="M22" sqref="M22:S23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18544,7 +20434,52 @@
         <v>114</v>
       </c>
     </row>
-    <row r="22" spans="1:19" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="22" spans="1:19" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="M22" s="18" t="s">
+        <v>589</v>
+      </c>
+      <c r="N22" s="9" t="s">
+        <v>614</v>
+      </c>
+      <c r="O22" s="9" t="s">
+        <v>609</v>
+      </c>
+      <c r="P22" s="9" t="s">
+        <v>340</v>
+      </c>
+      <c r="Q22" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="R22" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="S22" s="9" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="M23" s="25" t="s">
+        <v>590</v>
+      </c>
+      <c r="N23" s="9" t="s">
+        <v>594</v>
+      </c>
+      <c r="O23" s="9" t="s">
+        <v>612</v>
+      </c>
+      <c r="P23" s="9" t="s">
+        <v>297</v>
+      </c>
+      <c r="Q23" s="9" t="s">
+        <v>615</v>
+      </c>
+      <c r="R23" s="9" t="s">
+        <v>616</v>
+      </c>
+      <c r="S23" s="9" t="s">
+        <v>593</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -18552,10 +20487,10 @@
 
 <file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S22"/>
+  <dimension ref="A1:S23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+      <selection activeCell="M22" sqref="M22:S23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19211,7 +21146,52 @@
         <v>114</v>
       </c>
     </row>
-    <row r="22" spans="1:19" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="22" spans="1:19" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="M22" s="18" t="s">
+        <v>589</v>
+      </c>
+      <c r="N22" s="9" t="s">
+        <v>614</v>
+      </c>
+      <c r="O22" s="9" t="s">
+        <v>609</v>
+      </c>
+      <c r="P22" s="9" t="s">
+        <v>607</v>
+      </c>
+      <c r="Q22" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="R22" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="S22" s="9" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="M23" s="25" t="s">
+        <v>590</v>
+      </c>
+      <c r="N23" s="9" t="s">
+        <v>594</v>
+      </c>
+      <c r="O23" s="9" t="s">
+        <v>617</v>
+      </c>
+      <c r="P23" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q23" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="R23" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="S23" s="9" t="s">
+        <v>593</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -19536,7 +21516,7 @@
     </row>
     <row r="3" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="M3" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="N3" s="9"/>
       <c r="O3" s="9"/>
@@ -19565,7 +21545,7 @@
         <v>11</v>
       </c>
       <c r="M4" s="7" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="N4" s="9"/>
       <c r="O4" s="9"/>
@@ -19602,7 +21582,7 @@
         <v>7.5</v>
       </c>
       <c r="M5" s="19" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="N5" s="9"/>
       <c r="O5" s="9"/>
@@ -19639,7 +21619,7 @@
         <v>6.6000000000000005</v>
       </c>
       <c r="M6" s="18" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="N6" s="9"/>
       <c r="O6" s="9"/>
@@ -19990,7 +21970,7 @@
   <dimension ref="A1:S24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E33" sqref="A1:XFD1048576"/>
+      <selection activeCell="M22" sqref="M22:S23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20036,7 +22016,7 @@
     </row>
     <row r="3" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="M3" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="N3" s="9"/>
       <c r="O3" s="9"/>
@@ -20065,7 +22045,7 @@
         <v>11</v>
       </c>
       <c r="M4" s="7" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="N4" s="9"/>
       <c r="O4" s="9"/>
@@ -20102,7 +22082,7 @@
         <v>8.6999999999999993</v>
       </c>
       <c r="M5" s="19" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="N5" s="9"/>
       <c r="O5" s="9"/>
@@ -20139,7 +22119,7 @@
         <v>4.8000000000000007</v>
       </c>
       <c r="M6" s="18" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="N6" s="9"/>
       <c r="O6" s="9"/>
@@ -20249,7 +22229,7 @@
         <v>31</v>
       </c>
       <c r="S12" s="9" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
     </row>
     <row r="13" spans="1:19" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -20274,7 +22254,7 @@
         <v>47</v>
       </c>
       <c r="N13" s="9" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="O13" s="9" t="s">
         <v>147</v>
@@ -20317,7 +22297,7 @@
         <v>140</v>
       </c>
       <c r="O14" s="9" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="P14" s="9" t="s">
         <v>139</v>
@@ -20326,7 +22306,7 @@
         <v>108</v>
       </c>
       <c r="R14" s="9" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="S14" s="9" t="s">
         <v>59</v>
@@ -20357,10 +22337,10 @@
         <v>107</v>
       </c>
       <c r="O15" s="9" t="s">
+        <v>557</v>
+      </c>
+      <c r="P15" s="9" t="s">
         <v>558</v>
-      </c>
-      <c r="P15" s="9" t="s">
-        <v>559</v>
       </c>
       <c r="Q15" s="9" t="s">
         <v>78</v>
@@ -20406,7 +22386,7 @@
         <v>68</v>
       </c>
       <c r="R16" s="9" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="S16" s="9" t="s">
         <v>99</v>
@@ -20434,7 +22414,7 @@
         <v>51</v>
       </c>
       <c r="N17" s="9" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="O17" s="9" t="s">
         <v>110</v>
@@ -20520,10 +22500,10 @@
         <v>299</v>
       </c>
       <c r="P19" s="9" t="s">
+        <v>560</v>
+      </c>
+      <c r="Q19" s="9" t="s">
         <v>561</v>
-      </c>
-      <c r="Q19" s="9" t="s">
-        <v>562</v>
       </c>
       <c r="R19" s="9" t="s">
         <v>111</v>
@@ -20612,7 +22592,52 @@
         <v>114</v>
       </c>
     </row>
-    <row r="22" spans="1:19" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="22" spans="1:19" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="M22" s="18" t="s">
+        <v>589</v>
+      </c>
+      <c r="N22" s="9" t="s">
+        <v>297</v>
+      </c>
+      <c r="O22" s="9" t="s">
+        <v>591</v>
+      </c>
+      <c r="P22" s="23" t="s">
+        <v>120</v>
+      </c>
+      <c r="Q22" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="R22" s="23" t="s">
+        <v>116</v>
+      </c>
+      <c r="S22" s="9" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="M23" s="25" t="s">
+        <v>590</v>
+      </c>
+      <c r="N23" s="9" t="s">
+        <v>594</v>
+      </c>
+      <c r="O23" s="9" t="s">
+        <v>613</v>
+      </c>
+      <c r="P23" s="9" t="s">
+        <v>595</v>
+      </c>
+      <c r="Q23" s="9" t="s">
+        <v>186</v>
+      </c>
+      <c r="R23" s="9" t="s">
+        <v>340</v>
+      </c>
+      <c r="S23" s="9" t="s">
+        <v>593</v>
+      </c>
+    </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A24" s="21" t="s">
         <v>264</v>
@@ -20628,7 +22653,7 @@
   <dimension ref="A1:S24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M6" sqref="M6"/>
+      <selection activeCell="M22" sqref="M22:S23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20674,7 +22699,7 @@
     </row>
     <row r="3" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="M3" s="8" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="N3" s="9"/>
       <c r="O3" s="9"/>
@@ -20703,7 +22728,7 @@
         <v>11</v>
       </c>
       <c r="M4" s="7" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="N4" s="9"/>
       <c r="O4" s="9"/>
@@ -20740,7 +22765,7 @@
         <v>5.0999999999999996</v>
       </c>
       <c r="M5" s="19" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="N5" s="9"/>
       <c r="O5" s="9"/>
@@ -20777,7 +22802,7 @@
         <v>5.4</v>
       </c>
       <c r="M6" s="18" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="N6" s="9"/>
       <c r="O6" s="9"/>
@@ -21144,7 +23169,7 @@
         <v>53</v>
       </c>
       <c r="N19" s="9" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="O19" s="9" t="s">
         <v>194</v>
@@ -21231,7 +23256,7 @@
         <v>121</v>
       </c>
       <c r="Q21" s="9" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="R21" s="9" t="s">
         <v>110</v>
@@ -21240,7 +23265,52 @@
         <v>114</v>
       </c>
     </row>
-    <row r="22" spans="1:19" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="22" spans="1:19" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="M22" s="18" t="s">
+        <v>589</v>
+      </c>
+      <c r="N22" s="9" t="s">
+        <v>614</v>
+      </c>
+      <c r="O22" s="9" t="s">
+        <v>609</v>
+      </c>
+      <c r="P22" s="23" t="s">
+        <v>297</v>
+      </c>
+      <c r="Q22" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="R22" s="23" t="s">
+        <v>340</v>
+      </c>
+      <c r="S22" s="9" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="M23" s="25" t="s">
+        <v>590</v>
+      </c>
+      <c r="N23" s="9" t="s">
+        <v>594</v>
+      </c>
+      <c r="O23" s="9" t="s">
+        <v>639</v>
+      </c>
+      <c r="P23" s="9" t="s">
+        <v>613</v>
+      </c>
+      <c r="Q23" s="9" t="s">
+        <v>549</v>
+      </c>
+      <c r="R23" s="9" t="s">
+        <v>640</v>
+      </c>
+      <c r="S23" s="9" t="s">
+        <v>593</v>
+      </c>
+    </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A24" s="21" t="s">
         <v>264</v>
@@ -21256,7 +23326,7 @@
   <dimension ref="A1:S30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G30" sqref="A1:XFD1048576"/>
+      <selection activeCell="M22" sqref="M22:S23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -21302,7 +23372,7 @@
     </row>
     <row r="3" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="M3" s="8" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="N3" s="9" t="s">
         <v>273</v>
@@ -21312,7 +23382,7 @@
         <v>140.80000000000001</v>
       </c>
       <c r="P3" s="9" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="Q3" s="9"/>
       <c r="R3" s="9"/>
@@ -21338,7 +23408,7 @@
         <v>11</v>
       </c>
       <c r="M4" s="7" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="N4" s="9" t="s">
         <v>54</v>
@@ -21348,7 +23418,7 @@
         <v>330</v>
       </c>
       <c r="P4" s="9" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="Q4" s="9"/>
       <c r="R4" s="9"/>
@@ -21382,7 +23452,7 @@
         <v>5.0999999999999996</v>
       </c>
       <c r="M5" s="19" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="N5" s="9" t="s">
         <v>54</v>
@@ -21392,7 +23462,7 @@
         <v>198</v>
       </c>
       <c r="P5" s="9" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="Q5" s="9"/>
       <c r="R5" s="9"/>
@@ -21426,17 +23496,17 @@
         <v>8.3999999999999986</v>
       </c>
       <c r="M6" s="18" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="N6" s="9" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="O6" s="9">
         <f>3*B9</f>
         <v>60</v>
       </c>
       <c r="P6" s="9" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="Q6" s="9"/>
       <c r="R6" s="9"/>
@@ -21605,7 +23675,7 @@
         <v>48</v>
       </c>
       <c r="N14" s="9" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="O14" s="9" t="s">
         <v>102</v>
@@ -21647,7 +23717,7 @@
         <v>146</v>
       </c>
       <c r="O15" s="9" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="P15" s="24" t="s">
         <v>61</v>
@@ -21761,13 +23831,13 @@
         <v>52</v>
       </c>
       <c r="N18" s="9" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="O18" s="9" t="s">
         <v>253</v>
       </c>
       <c r="P18" s="9" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="Q18" s="9" t="s">
         <v>142</v>
@@ -21776,7 +23846,7 @@
         <v>127</v>
       </c>
       <c r="S18" s="9" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
     </row>
     <row r="19" spans="1:19" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -21806,7 +23876,7 @@
         <v>149</v>
       </c>
       <c r="P19" s="9" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="Q19" s="9" t="s">
         <v>141</v>
@@ -21815,7 +23885,7 @@
         <v>68</v>
       </c>
       <c r="S19" s="9" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
     </row>
     <row r="20" spans="1:19" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -21845,7 +23915,7 @@
         <v>121</v>
       </c>
       <c r="P20" s="9" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="Q20" s="9" t="s">
         <v>151</v>
@@ -21854,7 +23924,7 @@
         <v>129</v>
       </c>
       <c r="S20" s="9" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
     </row>
     <row r="21" spans="1:19" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -21884,7 +23954,7 @@
         <v>144</v>
       </c>
       <c r="P21" s="9" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="Q21" s="9" t="s">
         <v>250</v>
@@ -21893,10 +23963,55 @@
         <v>110</v>
       </c>
       <c r="S21" s="9" t="s">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="22" spans="1:19" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+        <v>535</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="M22" s="18" t="s">
+        <v>589</v>
+      </c>
+      <c r="N22" s="9" t="s">
+        <v>605</v>
+      </c>
+      <c r="O22" s="9" t="s">
+        <v>635</v>
+      </c>
+      <c r="P22" s="23" t="s">
+        <v>603</v>
+      </c>
+      <c r="Q22" s="9" t="s">
+        <v>636</v>
+      </c>
+      <c r="R22" s="23" t="s">
+        <v>161</v>
+      </c>
+      <c r="S22" s="9" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="M23" s="25" t="s">
+        <v>590</v>
+      </c>
+      <c r="N23" s="9" t="s">
+        <v>594</v>
+      </c>
+      <c r="O23" s="9" t="s">
+        <v>606</v>
+      </c>
+      <c r="P23" s="9" t="s">
+        <v>637</v>
+      </c>
+      <c r="Q23" s="9" t="s">
+        <v>638</v>
+      </c>
+      <c r="R23" s="9" t="s">
+        <v>366</v>
+      </c>
+      <c r="S23" s="9" t="s">
+        <v>593</v>
+      </c>
+    </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A24" s="21" t="s">
         <v>264</v>
@@ -21933,7 +24048,7 @@
   <dimension ref="A1:S24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I20" sqref="A1:XFD1048576"/>
+      <selection activeCell="M22" sqref="M22:S23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -21979,7 +24094,7 @@
     </row>
     <row r="3" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="M3" s="8" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="N3" s="9" t="s">
         <v>273</v>
@@ -21989,7 +24104,7 @@
         <v>176</v>
       </c>
       <c r="P3" s="9" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="Q3" s="9"/>
       <c r="R3" s="9"/>
@@ -22015,17 +24130,17 @@
         <v>11</v>
       </c>
       <c r="M4" s="7" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="N4" s="9" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="O4" s="9">
         <f>5*B9</f>
         <v>50</v>
       </c>
       <c r="P4" s="9" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="Q4" s="9"/>
       <c r="R4" s="9"/>
@@ -22059,7 +24174,7 @@
         <v>5.6999999999999993</v>
       </c>
       <c r="M5" s="19" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="N5" s="9" t="s">
         <v>54</v>
@@ -22069,7 +24184,7 @@
         <v>110</v>
       </c>
       <c r="P5" s="9" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="Q5" s="9"/>
       <c r="R5" s="9"/>
@@ -22103,17 +24218,17 @@
         <v>5.0999999999999996</v>
       </c>
       <c r="M6" s="18" t="s">
+        <v>519</v>
+      </c>
+      <c r="N6" s="9" t="s">
         <v>520</v>
-      </c>
-      <c r="N6" s="9" t="s">
-        <v>521</v>
       </c>
       <c r="O6" s="9">
         <f>2*B9</f>
         <v>20</v>
       </c>
       <c r="P6" s="9" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="Q6" s="9"/>
       <c r="R6" s="9"/>
@@ -22288,7 +24403,7 @@
         <v>247</v>
       </c>
       <c r="P14" s="9" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="Q14" s="9" t="s">
         <v>63</v>
@@ -22405,10 +24520,10 @@
         <v>151</v>
       </c>
       <c r="P17" s="9" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="Q17" s="9" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="R17" s="9" t="s">
         <v>56</v>
@@ -22564,7 +24679,7 @@
         <v>297</v>
       </c>
       <c r="Q21" s="9" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="R21" s="9" t="s">
         <v>382</v>
@@ -22573,7 +24688,52 @@
         <v>114</v>
       </c>
     </row>
-    <row r="22" spans="1:19" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="22" spans="1:19" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="M22" s="18" t="s">
+        <v>589</v>
+      </c>
+      <c r="N22" s="9" t="s">
+        <v>608</v>
+      </c>
+      <c r="O22" s="9" t="s">
+        <v>609</v>
+      </c>
+      <c r="P22" s="23" t="s">
+        <v>186</v>
+      </c>
+      <c r="Q22" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="R22" s="23" t="s">
+        <v>197</v>
+      </c>
+      <c r="S22" s="9" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="M23" s="25" t="s">
+        <v>590</v>
+      </c>
+      <c r="N23" s="9" t="s">
+        <v>594</v>
+      </c>
+      <c r="O23" s="9" t="s">
+        <v>612</v>
+      </c>
+      <c r="P23" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q23" s="9" t="s">
+        <v>194</v>
+      </c>
+      <c r="R23" s="9" t="s">
+        <v>361</v>
+      </c>
+      <c r="S23" s="9" t="s">
+        <v>593</v>
+      </c>
+    </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A24" s="21" t="s">
         <v>264</v>
@@ -22589,7 +24749,7 @@
   <dimension ref="A1:S24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I13" sqref="A1:XFD1048576"/>
+      <selection activeCell="M22" sqref="M22:S23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -22635,11 +24795,18 @@
     </row>
     <row r="3" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="M3" t="s">
-        <v>442</v>
-      </c>
-      <c r="N3" s="9"/>
-      <c r="O3" s="9"/>
-      <c r="P3" s="9"/>
+        <v>569</v>
+      </c>
+      <c r="N3" s="9" t="s">
+        <v>573</v>
+      </c>
+      <c r="O3" s="9">
+        <f>6*B9</f>
+        <v>60</v>
+      </c>
+      <c r="P3" s="9" t="s">
+        <v>574</v>
+      </c>
       <c r="Q3" s="9"/>
       <c r="R3" s="9"/>
       <c r="S3" s="9"/>
@@ -22664,11 +24831,18 @@
         <v>11</v>
       </c>
       <c r="M4" s="7" t="s">
-        <v>443</v>
-      </c>
-      <c r="N4" s="9"/>
-      <c r="O4" s="9"/>
-      <c r="P4" s="9"/>
+        <v>570</v>
+      </c>
+      <c r="N4" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="O4" s="9">
+        <f>9*B9</f>
+        <v>90</v>
+      </c>
+      <c r="P4" s="9" t="s">
+        <v>576</v>
+      </c>
       <c r="Q4" s="9"/>
       <c r="R4" s="9"/>
       <c r="S4" s="9"/>
@@ -22701,11 +24875,18 @@
         <v>9.8999999999999986</v>
       </c>
       <c r="M5" s="19" t="s">
-        <v>444</v>
-      </c>
-      <c r="N5" s="9"/>
-      <c r="O5" s="9"/>
-      <c r="P5" s="9"/>
+        <v>571</v>
+      </c>
+      <c r="N5" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="O5" s="9">
+        <f>10.2*B9</f>
+        <v>102</v>
+      </c>
+      <c r="P5" s="9" t="s">
+        <v>575</v>
+      </c>
       <c r="Q5" s="9"/>
       <c r="R5" s="9"/>
       <c r="S5" s="9"/>
@@ -22738,11 +24919,18 @@
         <v>3</v>
       </c>
       <c r="M6" s="18" t="s">
-        <v>445</v>
-      </c>
-      <c r="N6" s="9"/>
-      <c r="O6" s="9"/>
-      <c r="P6" s="9"/>
+        <v>572</v>
+      </c>
+      <c r="N6" s="9" t="s">
+        <v>577</v>
+      </c>
+      <c r="O6" s="9">
+        <f>3*B9</f>
+        <v>30</v>
+      </c>
+      <c r="P6" s="9" t="s">
+        <v>578</v>
+      </c>
       <c r="Q6" s="9"/>
       <c r="R6" s="9"/>
       <c r="S6" s="9"/>
@@ -22781,7 +24969,7 @@
         <v>35</v>
       </c>
       <c r="B9">
-        <v>35</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -22828,7 +25016,9 @@
       <c r="E12" s="10">
         <v>35</v>
       </c>
-      <c r="F12" s="10"/>
+      <c r="F12" s="10">
+        <v>10</v>
+      </c>
       <c r="M12" t="s">
         <v>235</v>
       </c>
@@ -22860,13 +25050,15 @@
       </c>
       <c r="C13" s="9">
         <f>B13+$B$9*($B$10+1)*B5</f>
-        <v>251</v>
+        <v>86</v>
       </c>
       <c r="D13" s="9"/>
       <c r="E13" s="9">
         <v>251</v>
       </c>
-      <c r="F13" s="9"/>
+      <c r="F13" s="9">
+        <v>86</v>
+      </c>
       <c r="M13" s="7" t="s">
         <v>47</v>
       </c>
@@ -22898,13 +25090,15 @@
       </c>
       <c r="C14" s="9">
         <f>B14+$B$9*($B$10+1)*B6</f>
-        <v>83</v>
+        <v>33</v>
       </c>
       <c r="D14" s="9"/>
       <c r="E14" s="9">
         <v>83</v>
       </c>
-      <c r="F14" s="9"/>
+      <c r="F14" s="9">
+        <v>33</v>
+      </c>
       <c r="M14" s="7" t="s">
         <v>48</v>
       </c>
@@ -22936,13 +25130,15 @@
       </c>
       <c r="C15" s="9">
         <f>B15+$B$9*($B$10+1)*B7</f>
-        <v>210</v>
+        <v>70</v>
       </c>
       <c r="D15" s="9"/>
       <c r="E15" s="9">
         <v>210</v>
       </c>
-      <c r="F15" s="9"/>
+      <c r="F15" s="9">
+        <v>70</v>
+      </c>
       <c r="M15" s="19" t="s">
         <v>49</v>
       </c>
@@ -22955,9 +25151,11 @@
       <c r="P15" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="Q15" s="9"/>
+      <c r="Q15" s="9" t="s">
+        <v>368</v>
+      </c>
       <c r="R15" s="9" t="s">
-        <v>368</v>
+        <v>98</v>
       </c>
       <c r="S15" s="9" t="s">
         <v>99</v>
@@ -22972,13 +25170,15 @@
       </c>
       <c r="C16" s="9">
         <f>ROUNDDOWN(B16+C13*Common!$B$1,0)</f>
-        <v>4693</v>
+        <v>1723</v>
       </c>
       <c r="D16" s="9"/>
       <c r="E16" s="9">
         <v>4693</v>
       </c>
-      <c r="F16" s="9"/>
+      <c r="F16" s="9">
+        <v>1723</v>
+      </c>
       <c r="M16" s="19" t="s">
         <v>50</v>
       </c>
@@ -23010,13 +25210,15 @@
       </c>
       <c r="C17" s="9">
         <f>ROUND(B17+C13+C15*Common!$B$2,0)</f>
-        <v>362</v>
+        <v>141</v>
       </c>
       <c r="D17" s="9"/>
       <c r="E17" s="9">
         <v>362</v>
       </c>
-      <c r="F17" s="9"/>
+      <c r="F17" s="9">
+        <v>141</v>
+      </c>
       <c r="M17" s="19" t="s">
         <v>51</v>
       </c>
@@ -23033,7 +25235,7 @@
         <v>369</v>
       </c>
       <c r="R17" s="9" t="s">
-        <v>482</v>
+        <v>65</v>
       </c>
       <c r="S17" s="9" t="s">
         <v>99</v>
@@ -23048,48 +25250,76 @@
       </c>
       <c r="C18" s="9">
         <f>ROUND(B18+C14*Common!$B$3,0)</f>
-        <v>199</v>
+        <v>79</v>
       </c>
       <c r="D18" s="9"/>
       <c r="E18" s="9">
         <v>199</v>
       </c>
-      <c r="F18" s="9"/>
+      <c r="F18" s="9">
+        <v>79</v>
+      </c>
       <c r="M18" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="N18" s="9"/>
-      <c r="O18" s="9"/>
-      <c r="P18" s="9"/>
-      <c r="Q18" s="9"/>
-      <c r="R18" s="9"/>
-      <c r="S18" s="9"/>
+      <c r="N18" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="O18" s="9" t="s">
+        <v>297</v>
+      </c>
+      <c r="P18" s="9" t="s">
+        <v>198</v>
+      </c>
+      <c r="Q18" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="R18" s="9" t="s">
+        <v>333</v>
+      </c>
+      <c r="S18" s="9" t="s">
+        <v>114</v>
+      </c>
     </row>
     <row r="19" spans="1:19" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="10" t="s">
         <v>17</v>
       </c>
       <c r="B19" s="22">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C19" s="9">
         <f>B19+ROUND(C13/7,0)+ROUND(C15/14,0)</f>
-        <v>54</v>
+        <v>18</v>
       </c>
       <c r="D19" s="9"/>
       <c r="E19" s="9">
         <v>54</v>
       </c>
-      <c r="F19" s="9"/>
+      <c r="F19" s="9">
+        <v>18</v>
+      </c>
       <c r="M19" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="N19" s="9"/>
-      <c r="O19" s="9"/>
-      <c r="P19" s="9"/>
-      <c r="Q19" s="9"/>
-      <c r="R19" s="9"/>
-      <c r="S19" s="9"/>
+      <c r="N19" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="O19" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="P19" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q19" s="9" t="s">
+        <v>299</v>
+      </c>
+      <c r="R19" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="S19" s="9" t="s">
+        <v>114</v>
+      </c>
     </row>
     <row r="20" spans="1:19" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="10" t="s">
@@ -23100,22 +25330,36 @@
       </c>
       <c r="C20" s="9">
         <f>ROUND(C14*Common!$B$4,0)</f>
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="D20" s="9"/>
       <c r="E20" s="9">
         <v>8</v>
       </c>
-      <c r="F20" s="9"/>
+      <c r="F20" s="9">
+        <v>3</v>
+      </c>
       <c r="M20" s="18" t="s">
         <v>118</v>
       </c>
-      <c r="N20" s="9"/>
-      <c r="O20" s="9"/>
-      <c r="P20" s="9"/>
-      <c r="Q20" s="9"/>
-      <c r="R20" s="9"/>
-      <c r="S20" s="9"/>
+      <c r="N20" s="9" t="s">
+        <v>300</v>
+      </c>
+      <c r="O20" s="9" t="s">
+        <v>362</v>
+      </c>
+      <c r="P20" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="Q20" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="R20" s="9" t="s">
+        <v>448</v>
+      </c>
+      <c r="S20" s="9" t="s">
+        <v>114</v>
+      </c>
     </row>
     <row r="21" spans="1:19" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="10" t="s">
@@ -23126,24 +25370,83 @@
       </c>
       <c r="C21" s="9">
         <f>C15*Common!$B$5</f>
-        <v>84</v>
+        <v>28</v>
       </c>
       <c r="D21" s="9"/>
       <c r="E21" s="9">
         <v>84</v>
       </c>
-      <c r="F21" s="9"/>
+      <c r="F21" s="9">
+        <v>28</v>
+      </c>
       <c r="M21" s="18" t="s">
         <v>119</v>
       </c>
-      <c r="N21" s="9"/>
-      <c r="O21" s="9"/>
-      <c r="P21" s="9"/>
-      <c r="Q21" s="9"/>
-      <c r="R21" s="9"/>
-      <c r="S21" s="9"/>
-    </row>
-    <row r="22" spans="1:19" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+      <c r="N21" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="O21" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="P21" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q21" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="R21" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="S21" s="9" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="M22" s="18" t="s">
+        <v>589</v>
+      </c>
+      <c r="N22" s="9" t="s">
+        <v>643</v>
+      </c>
+      <c r="O22" s="9" t="s">
+        <v>592</v>
+      </c>
+      <c r="P22" s="23" t="s">
+        <v>300</v>
+      </c>
+      <c r="Q22" s="9" t="s">
+        <v>194</v>
+      </c>
+      <c r="R22" s="23" t="s">
+        <v>116</v>
+      </c>
+      <c r="S22" s="9" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="M23" s="25" t="s">
+        <v>590</v>
+      </c>
+      <c r="N23" s="9" t="s">
+        <v>594</v>
+      </c>
+      <c r="O23" s="9" t="s">
+        <v>612</v>
+      </c>
+      <c r="P23" s="9" t="s">
+        <v>613</v>
+      </c>
+      <c r="Q23" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="R23" s="9" t="s">
+        <v>340</v>
+      </c>
+      <c r="S23" s="9" t="s">
+        <v>593</v>
+      </c>
+    </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A24" s="21" t="s">
         <v>264</v>
